--- a/scratch/Prop Bets.xlsx
+++ b/scratch/Prop Bets.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kjzk13/Desktop/Fun/Betting/Tracking/Bets App/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kjzk13/Desktop/Fun/Betting/Models/Git/NBA/data_repos/gambling_stuff/scratch/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DC275B1-3847-2B45-B026-8C823154DA3C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F8A22CF-11F5-9F4F-B82A-F54EADF4DED0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="-1120" windowWidth="38400" windowHeight="21600" xr2:uid="{A921039E-F491-3040-A02B-E90974210F5A}"/>
+    <workbookView xWindow="680" yWindow="500" windowWidth="38400" windowHeight="16220" xr2:uid="{A921039E-F491-3040-A02B-E90974210F5A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="13" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4656" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6150" uniqueCount="223">
   <si>
     <t>Date</t>
   </si>
@@ -634,6 +634,78 @@
   <si>
     <t>Doug McDermott</t>
   </si>
+  <si>
+    <t>Nickeil Alexander-Walker</t>
+  </si>
+  <si>
+    <t>Bruce Brown</t>
+  </si>
+  <si>
+    <t>Garrison Matthews</t>
+  </si>
+  <si>
+    <t>Kendrick Nunn</t>
+  </si>
+  <si>
+    <t>Ricky Rubio</t>
+  </si>
+  <si>
+    <t>Kevin Huerter</t>
+  </si>
+  <si>
+    <t>Jae Crowder</t>
+  </si>
+  <si>
+    <t>Thaddeus Young</t>
+  </si>
+  <si>
+    <t>James Wiseman</t>
+  </si>
+  <si>
+    <t>CJ McCollum</t>
+  </si>
+  <si>
+    <t>Reggie Jackson</t>
+  </si>
+  <si>
+    <t>Ben McLemore</t>
+  </si>
+  <si>
+    <t>Devonte' Graham</t>
+  </si>
+  <si>
+    <t>Taj Gibson</t>
+  </si>
+  <si>
+    <t>Jusuf Nurkic</t>
+  </si>
+  <si>
+    <t>Bogdan Bogdanovic</t>
+  </si>
+  <si>
+    <t>OG Anunoby</t>
+  </si>
+  <si>
+    <t>Dwayne Bacon</t>
+  </si>
+  <si>
+    <t>Boston Celitcs</t>
+  </si>
+  <si>
+    <t>Tyrese Haliburton</t>
+  </si>
+  <si>
+    <t>Saben Lee</t>
+  </si>
+  <si>
+    <t>Rudy Gobert</t>
+  </si>
+  <si>
+    <t>Sviatoslav Mykhailiuk</t>
+  </si>
+  <si>
+    <t>Danuel House Jr</t>
+  </si>
 </sst>
 </file>
 
@@ -693,58 +765,106 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="20">
     <dxf>
       <font>
         <color theme="0" tint="-0.499984740745262"/>
       </font>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
+      <font>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF006100"/>
+        <color theme="0" tint="-0.499984740745262"/>
       </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF006100"/>
+        <color theme="0" tint="-0.499984740745262"/>
       </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
+        <color theme="0" tint="-0.499984740745262"/>
       </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
+        <color theme="0" tint="-0.499984740745262"/>
       </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1056,10 +1176,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C79C926B-E4E0-6445-8BE2-2104EE8EA8CE}">
-  <dimension ref="A1:M502"/>
+  <dimension ref="A1:M665"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" topLeftCell="A636" workbookViewId="0">
+      <selection activeCell="F647" sqref="F647"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -19923,7 +20043,6187 @@
         <v>10</v>
       </c>
     </row>
+    <row r="503" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A503" s="3">
+        <v>44278</v>
+      </c>
+      <c r="B503" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C503" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D503" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E503" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F503" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G503" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H503" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I503" s="2"/>
+      <c r="J503" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K503" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L503" s="2">
+        <v>-105.3</v>
+      </c>
+      <c r="M503" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="504" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A504" s="3">
+        <v>44278</v>
+      </c>
+      <c r="B504" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C504" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D504" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E504" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F504" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G504" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H504" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I504" s="2"/>
+      <c r="J504" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K504" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L504" s="2">
+        <v>-115</v>
+      </c>
+      <c r="M504" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="505" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A505" s="3">
+        <v>44278</v>
+      </c>
+      <c r="B505" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C505" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D505" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E505" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F505" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G505" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H505" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I505" s="2"/>
+      <c r="J505" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="K505" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L505" s="2">
+        <v>100</v>
+      </c>
+      <c r="M505" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="506" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A506" s="3">
+        <v>44278</v>
+      </c>
+      <c r="B506" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C506" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D506" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E506" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F506" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G506" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H506" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I506" s="2"/>
+      <c r="J506" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="K506" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L506" s="2">
+        <v>-111</v>
+      </c>
+      <c r="M506" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="507" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A507" s="3">
+        <v>44278</v>
+      </c>
+      <c r="B507" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C507" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D507" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E507" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F507" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G507" s="2"/>
+      <c r="H507" s="2"/>
+      <c r="I507" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J507" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="K507" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="L507" s="2">
+        <v>1000</v>
+      </c>
+      <c r="M507" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="508" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A508" s="3">
+        <v>44278</v>
+      </c>
+      <c r="B508" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C508" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D508" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E508" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F508" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G508" s="2"/>
+      <c r="H508" s="2"/>
+      <c r="I508" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J508" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="K508" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="L508" s="2">
+        <v>1000</v>
+      </c>
+      <c r="M508" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="509" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A509" s="3">
+        <v>44278</v>
+      </c>
+      <c r="B509" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C509" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D509" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E509" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F509" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G509" s="2"/>
+      <c r="H509" s="2"/>
+      <c r="I509" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J509" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="K509" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="L509" s="2">
+        <v>1200</v>
+      </c>
+      <c r="M509" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="510" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A510" s="3">
+        <v>44278</v>
+      </c>
+      <c r="B510" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C510" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D510" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E510" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F510" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G510" s="2"/>
+      <c r="H510" s="2"/>
+      <c r="I510" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J510" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="K510" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="L510" s="2">
+        <v>700</v>
+      </c>
+      <c r="M510" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="511" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A511" s="3">
+        <v>44278</v>
+      </c>
+      <c r="B511" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C511" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D511" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E511" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F511" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="G511" s="2"/>
+      <c r="H511" s="2"/>
+      <c r="I511" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J511" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="K511" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="L511" s="2">
+        <v>650</v>
+      </c>
+      <c r="M511" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="512" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A512" s="3">
+        <v>44278</v>
+      </c>
+      <c r="B512" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C512" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D512" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E512" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F512" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="G512" s="2"/>
+      <c r="H512" s="2"/>
+      <c r="I512" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J512" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="K512" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="L512" s="2">
+        <v>1200</v>
+      </c>
+      <c r="M512" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="513" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A513" s="3">
+        <v>44278</v>
+      </c>
+      <c r="B513" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C513" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D513" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E513" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F513" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="G513" s="2"/>
+      <c r="H513" s="2"/>
+      <c r="I513" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J513" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="K513" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="L513" s="2">
+        <v>460</v>
+      </c>
+      <c r="M513" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="514" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A514" s="3">
+        <v>44278</v>
+      </c>
+      <c r="B514" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C514" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D514" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E514" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F514" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="G514" s="2"/>
+      <c r="H514" s="2"/>
+      <c r="I514" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J514" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="K514" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="L514" s="2">
+        <v>1000</v>
+      </c>
+      <c r="M514" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="515" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A515" s="3">
+        <v>44278</v>
+      </c>
+      <c r="B515" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C515" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D515" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E515" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F515" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="G515" s="2"/>
+      <c r="H515" s="2"/>
+      <c r="I515" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J515" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K515" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="L515" s="2">
+        <v>1100</v>
+      </c>
+      <c r="M515" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="516" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A516" s="3">
+        <v>44278</v>
+      </c>
+      <c r="B516" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C516" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D516" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E516" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F516" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="G516" s="2"/>
+      <c r="H516" s="2"/>
+      <c r="I516" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J516" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="K516" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="L516" s="2">
+        <v>750</v>
+      </c>
+      <c r="M516" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="517" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A517" s="3">
+        <v>44278</v>
+      </c>
+      <c r="B517" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C517" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D517" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E517" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F517" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="G517" s="2"/>
+      <c r="H517" s="2"/>
+      <c r="I517" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J517" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="K517" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="L517" s="2">
+        <v>900</v>
+      </c>
+      <c r="M517" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="518" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A518" s="3">
+        <v>44278</v>
+      </c>
+      <c r="B518" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C518" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D518" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E518" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F518" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="G518" s="2"/>
+      <c r="H518" s="2"/>
+      <c r="I518" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J518" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="K518" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="L518" s="2">
+        <v>750</v>
+      </c>
+      <c r="M518" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="519" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A519" s="3">
+        <v>44278</v>
+      </c>
+      <c r="B519" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C519" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D519" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E519" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F519" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="G519" s="2"/>
+      <c r="H519" s="2"/>
+      <c r="I519" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J519" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="K519" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="L519" s="2">
+        <v>1700</v>
+      </c>
+      <c r="M519" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="520" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A520" s="3">
+        <v>44278</v>
+      </c>
+      <c r="B520" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C520" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D520" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E520" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F520" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="G520" s="2"/>
+      <c r="H520" s="2"/>
+      <c r="I520" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J520" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K520" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="L520" s="2">
+        <v>550</v>
+      </c>
+      <c r="M520" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="521" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A521" s="3">
+        <v>44278</v>
+      </c>
+      <c r="B521" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C521" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D521" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E521" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F521" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="G521" s="2"/>
+      <c r="H521" s="2"/>
+      <c r="I521" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J521" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="K521" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="L521" s="2">
+        <v>1100</v>
+      </c>
+      <c r="M521" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="522" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A522" s="3">
+        <v>44279</v>
+      </c>
+      <c r="B522" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C522" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D522" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E522" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F522" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G522" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H522" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I522" s="2"/>
+      <c r="J522" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="K522" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="L522" s="2">
+        <v>-115</v>
+      </c>
+      <c r="M522" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="523" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A523" s="3">
+        <v>44279</v>
+      </c>
+      <c r="B523" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C523" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D523" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E523" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F523" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G523" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H523" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I523" s="2"/>
+      <c r="J523" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K523" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L523" s="2">
+        <v>-104</v>
+      </c>
+      <c r="M523" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="524" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A524" s="3">
+        <v>44279</v>
+      </c>
+      <c r="B524" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C524" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D524" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E524" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F524" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G524" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H524" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I524" s="2"/>
+      <c r="J524" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K524" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L524" s="2">
+        <v>-133.4</v>
+      </c>
+      <c r="M524" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="525" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A525" s="3">
+        <v>44279</v>
+      </c>
+      <c r="B525" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C525" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D525" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E525" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F525" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="G525" s="2"/>
+      <c r="H525" s="2"/>
+      <c r="I525" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J525" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="K525" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="L525" s="2">
+        <v>650</v>
+      </c>
+      <c r="M525" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="526" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A526" s="3">
+        <v>44279</v>
+      </c>
+      <c r="B526" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C526" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D526" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E526" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F526" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="G526" s="2"/>
+      <c r="H526" s="2"/>
+      <c r="I526" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J526" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="K526" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="L526" s="2">
+        <v>850</v>
+      </c>
+      <c r="M526" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="527" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A527" s="3">
+        <v>44279</v>
+      </c>
+      <c r="B527" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C527" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D527" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E527" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F527" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="G527" s="2"/>
+      <c r="H527" s="2"/>
+      <c r="I527" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J527" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="K527" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="L527" s="2">
+        <v>1000</v>
+      </c>
+      <c r="M527" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="528" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A528" s="3">
+        <v>44279</v>
+      </c>
+      <c r="B528" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C528" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D528" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E528" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F528" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G528" s="2"/>
+      <c r="H528" s="2"/>
+      <c r="I528" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J528" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="K528" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="L528" s="2">
+        <v>750</v>
+      </c>
+      <c r="M528" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="529" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A529" s="3">
+        <v>44279</v>
+      </c>
+      <c r="B529" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C529" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D529" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E529" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F529" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G529" s="2"/>
+      <c r="H529" s="2"/>
+      <c r="I529" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J529" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="K529" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="L529" s="2">
+        <v>900</v>
+      </c>
+      <c r="M529" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="530" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A530" s="3">
+        <v>44279</v>
+      </c>
+      <c r="B530" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C530" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D530" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E530" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F530" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G530" s="2"/>
+      <c r="H530" s="2"/>
+      <c r="I530" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J530" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="K530" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="L530" s="2">
+        <v>1150</v>
+      </c>
+      <c r="M530" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="531" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A531" s="3">
+        <v>44279</v>
+      </c>
+      <c r="B531" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C531" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D531" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E531" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F531" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G531" s="2"/>
+      <c r="H531" s="2"/>
+      <c r="I531" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J531" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="K531" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="L531" s="2">
+        <v>775</v>
+      </c>
+      <c r="M531" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="532" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A532" s="3">
+        <v>44279</v>
+      </c>
+      <c r="B532" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C532" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D532" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E532" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F532" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G532" s="2"/>
+      <c r="H532" s="2"/>
+      <c r="I532" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J532" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="K532" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="L532" s="2">
+        <v>1250</v>
+      </c>
+      <c r="M532" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="533" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A533" s="3">
+        <v>44279</v>
+      </c>
+      <c r="B533" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C533" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D533" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E533" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F533" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G533" s="2"/>
+      <c r="H533" s="2"/>
+      <c r="I533" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J533" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="K533" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="L533" s="2">
+        <v>900</v>
+      </c>
+      <c r="M533" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="534" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A534" s="3">
+        <v>44279</v>
+      </c>
+      <c r="B534" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C534" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D534" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E534" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F534" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G534" s="2"/>
+      <c r="H534" s="2"/>
+      <c r="I534" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J534" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="K534" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="L534" s="2">
+        <v>825</v>
+      </c>
+      <c r="M534" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="535" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A535" s="3">
+        <v>44279</v>
+      </c>
+      <c r="B535" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C535" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D535" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E535" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F535" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G535" s="2"/>
+      <c r="H535" s="2"/>
+      <c r="I535" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J535" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="K535" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="L535" s="2">
+        <v>950</v>
+      </c>
+      <c r="M535" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="536" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A536" s="3">
+        <v>44279</v>
+      </c>
+      <c r="B536" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C536" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D536" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E536" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F536" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G536" s="2"/>
+      <c r="H536" s="2"/>
+      <c r="I536" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J536" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K536" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="L536" s="2">
+        <v>550</v>
+      </c>
+      <c r="M536" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="537" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A537" s="3">
+        <v>44279</v>
+      </c>
+      <c r="B537" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C537" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D537" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E537" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F537" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G537" s="2"/>
+      <c r="H537" s="2"/>
+      <c r="I537" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J537" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="K537" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="L537" s="2">
+        <v>550</v>
+      </c>
+      <c r="M537" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="538" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A538" s="3">
+        <v>44279</v>
+      </c>
+      <c r="B538" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C538" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D538" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E538" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F538" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G538" s="2"/>
+      <c r="H538" s="2"/>
+      <c r="I538" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J538" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K538" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="L538" s="2">
+        <v>650</v>
+      </c>
+      <c r="M538" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="539" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A539" s="3">
+        <v>44279</v>
+      </c>
+      <c r="B539" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C539" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D539" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E539" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F539" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G539" s="2"/>
+      <c r="H539" s="2"/>
+      <c r="I539" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J539" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="K539" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="L539" s="2">
+        <v>700</v>
+      </c>
+      <c r="M539" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="540" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A540" s="3">
+        <v>44279</v>
+      </c>
+      <c r="B540" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C540" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D540" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E540" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F540" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G540" s="2"/>
+      <c r="H540" s="2"/>
+      <c r="I540" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J540" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="K540" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="L540" s="2">
+        <v>800</v>
+      </c>
+      <c r="M540" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="541" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A541" s="3">
+        <v>44279</v>
+      </c>
+      <c r="B541" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C541" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D541" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E541" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F541" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G541" s="2"/>
+      <c r="H541" s="2"/>
+      <c r="I541" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J541" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="K541" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="L541" s="2">
+        <v>1000</v>
+      </c>
+      <c r="M541" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="542" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A542" s="3">
+        <v>44279</v>
+      </c>
+      <c r="B542" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C542" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D542" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E542" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F542" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G542" s="2"/>
+      <c r="H542" s="2"/>
+      <c r="I542" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J542" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="K542" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="L542" s="2">
+        <v>1000</v>
+      </c>
+      <c r="M542" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="543" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A543" s="3">
+        <v>44279</v>
+      </c>
+      <c r="B543" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C543" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D543" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E543" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F543" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G543" s="2"/>
+      <c r="H543" s="2"/>
+      <c r="I543" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J543" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="K543" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="L543" s="2">
+        <v>500</v>
+      </c>
+      <c r="M543" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="544" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A544" s="3">
+        <v>44279</v>
+      </c>
+      <c r="B544" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C544" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D544" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E544" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F544" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G544" s="2"/>
+      <c r="H544" s="2"/>
+      <c r="I544" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J544" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="K544" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="L544" s="2">
+        <v>1150</v>
+      </c>
+      <c r="M544" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="545" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A545" s="3">
+        <v>44279</v>
+      </c>
+      <c r="B545" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C545" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D545" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E545" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F545" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G545" s="2"/>
+      <c r="H545" s="2"/>
+      <c r="I545" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J545" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="K545" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="L545" s="2">
+        <v>875</v>
+      </c>
+      <c r="M545" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="546" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A546" s="3">
+        <v>44279</v>
+      </c>
+      <c r="B546" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C546" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D546" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E546" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F546" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G546" s="2"/>
+      <c r="H546" s="2"/>
+      <c r="I546" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J546" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="K546" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="L546" s="2">
+        <v>900</v>
+      </c>
+      <c r="M546" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="547" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A547" s="3">
+        <v>44279</v>
+      </c>
+      <c r="B547" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C547" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D547" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E547" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F547" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G547" s="2"/>
+      <c r="H547" s="2"/>
+      <c r="I547" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J547" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="K547" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="L547" s="2">
+        <v>1200</v>
+      </c>
+      <c r="M547" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="548" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A548" s="3">
+        <v>44279</v>
+      </c>
+      <c r="B548" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C548" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D548" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E548" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F548" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G548" s="2"/>
+      <c r="H548" s="2"/>
+      <c r="I548" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J548" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="K548" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="L548" s="2">
+        <v>550</v>
+      </c>
+      <c r="M548" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="549" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A549" s="3">
+        <v>44279</v>
+      </c>
+      <c r="B549" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C549" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D549" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E549" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F549" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="G549" s="2"/>
+      <c r="H549" s="2"/>
+      <c r="I549" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J549" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="K549" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="L549" s="2">
+        <v>550</v>
+      </c>
+      <c r="M549" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="550" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A550" s="3">
+        <v>44279</v>
+      </c>
+      <c r="B550" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C550" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D550" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E550" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F550" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="G550" s="2"/>
+      <c r="H550" s="2"/>
+      <c r="I550" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J550" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="K550" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="L550" s="2">
+        <v>1100</v>
+      </c>
+      <c r="M550" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="551" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A551" s="3">
+        <v>44279</v>
+      </c>
+      <c r="B551" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C551" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D551" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E551" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F551" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="G551" s="2"/>
+      <c r="H551" s="2"/>
+      <c r="I551" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J551" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="K551" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="L551" s="2">
+        <v>1200</v>
+      </c>
+      <c r="M551" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="552" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A552" s="3">
+        <v>44280</v>
+      </c>
+      <c r="B552" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C552" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D552" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E552" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F552" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G552" s="2"/>
+      <c r="H552" s="2"/>
+      <c r="I552" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J552" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="K552" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="L552" s="2">
+        <v>700</v>
+      </c>
+      <c r="M552" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="553" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A553" s="3">
+        <v>44280</v>
+      </c>
+      <c r="B553" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C553" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D553" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E553" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F553" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G553" s="2"/>
+      <c r="H553" s="2"/>
+      <c r="I553" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J553" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="K553" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L553" s="2">
+        <v>700</v>
+      </c>
+      <c r="M553" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="554" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A554" s="3">
+        <v>44280</v>
+      </c>
+      <c r="B554" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C554" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D554" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E554" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F554" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G554" s="2"/>
+      <c r="H554" s="2"/>
+      <c r="I554" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J554" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="K554" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L554" s="2">
+        <v>900</v>
+      </c>
+      <c r="M554" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="555" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A555" s="3">
+        <v>44280</v>
+      </c>
+      <c r="B555" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C555" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D555" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E555" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F555" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G555" s="2"/>
+      <c r="H555" s="2"/>
+      <c r="I555" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J555" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="K555" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="L555" s="2">
+        <v>600</v>
+      </c>
+      <c r="M555" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="556" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A556" s="3">
+        <v>44280</v>
+      </c>
+      <c r="B556" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C556" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D556" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E556" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F556" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G556" s="2"/>
+      <c r="H556" s="2"/>
+      <c r="I556" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J556" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K556" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="L556" s="2">
+        <v>1000</v>
+      </c>
+      <c r="M556" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="557" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A557" s="3">
+        <v>44280</v>
+      </c>
+      <c r="B557" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C557" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D557" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E557" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F557" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="G557" s="2"/>
+      <c r="H557" s="2"/>
+      <c r="I557" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J557" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="K557" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L557" s="2">
+        <v>1000</v>
+      </c>
+      <c r="M557" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="558" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A558" s="3">
+        <v>44280</v>
+      </c>
+      <c r="B558" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C558" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D558" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E558" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F558" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="G558" s="2"/>
+      <c r="H558" s="2"/>
+      <c r="I558" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J558" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="K558" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L558" s="2">
+        <v>1200</v>
+      </c>
+      <c r="M558" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="559" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A559" s="3">
+        <v>44280</v>
+      </c>
+      <c r="B559" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C559" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D559" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E559" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F559" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="G559" s="2"/>
+      <c r="H559" s="2"/>
+      <c r="I559" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J559" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="K559" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="L559" s="2">
+        <v>900</v>
+      </c>
+      <c r="M559" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="560" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A560" s="3">
+        <v>44280</v>
+      </c>
+      <c r="B560" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C560" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D560" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E560" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F560" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="G560" s="2"/>
+      <c r="H560" s="2"/>
+      <c r="I560" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J560" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="K560" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="L560" s="2">
+        <v>750</v>
+      </c>
+      <c r="M560" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="561" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A561" s="3">
+        <v>44280</v>
+      </c>
+      <c r="B561" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C561" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D561" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E561" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F561" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="G561" s="2"/>
+      <c r="H561" s="2"/>
+      <c r="I561" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J561" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="K561" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="L561" s="2">
+        <v>600</v>
+      </c>
+      <c r="M561" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="562" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A562" s="3">
+        <v>44281</v>
+      </c>
+      <c r="B562" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C562" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D562" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E562" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F562" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G562" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H562" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I562" s="2"/>
+      <c r="J562" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="K562" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L562" s="2">
+        <v>-106</v>
+      </c>
+      <c r="M562" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="563" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A563" s="3">
+        <v>44281</v>
+      </c>
+      <c r="B563" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C563" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D563" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E563" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F563" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G563" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H563" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I563" s="2"/>
+      <c r="J563" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K563" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="L563" s="2">
+        <v>-115</v>
+      </c>
+      <c r="M563" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="564" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A564" s="3">
+        <v>44281</v>
+      </c>
+      <c r="B564" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C564" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D564" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E564" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F564" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G564" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H564" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I564" s="2"/>
+      <c r="J564" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K564" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L564" s="2">
+        <v>-123.5</v>
+      </c>
+      <c r="M564" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="565" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A565" s="3">
+        <v>44281</v>
+      </c>
+      <c r="B565" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C565" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D565" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E565" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F565" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G565" s="2"/>
+      <c r="H565" s="2"/>
+      <c r="I565" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J565" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="K565" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="L565" s="2">
+        <v>800</v>
+      </c>
+      <c r="M565" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="566" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A566" s="3">
+        <v>44281</v>
+      </c>
+      <c r="B566" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C566" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D566" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E566" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F566" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G566" s="2"/>
+      <c r="H566" s="2"/>
+      <c r="I566" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J566" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="K566" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="L566" s="2">
+        <v>900</v>
+      </c>
+      <c r="M566" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="567" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A567" s="3">
+        <v>44281</v>
+      </c>
+      <c r="B567" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C567" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D567" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E567" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F567" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G567" s="2"/>
+      <c r="H567" s="2"/>
+      <c r="I567" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J567" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="K567" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="L567" s="2">
+        <v>700</v>
+      </c>
+      <c r="M567" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="568" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A568" s="3">
+        <v>44281</v>
+      </c>
+      <c r="B568" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C568" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D568" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E568" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F568" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G568" s="2"/>
+      <c r="H568" s="2"/>
+      <c r="I568" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J568" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="K568" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="L568" s="2">
+        <v>1000</v>
+      </c>
+      <c r="M568" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="569" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A569" s="3">
+        <v>44281</v>
+      </c>
+      <c r="B569" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C569" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D569" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E569" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F569" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G569" s="2"/>
+      <c r="H569" s="2"/>
+      <c r="I569" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J569" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="K569" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="L569" s="2">
+        <v>500</v>
+      </c>
+      <c r="M569" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="570" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A570" s="3">
+        <v>44281</v>
+      </c>
+      <c r="B570" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C570" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D570" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E570" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F570" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G570" s="2"/>
+      <c r="H570" s="2"/>
+      <c r="I570" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J570" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="K570" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="L570" s="2">
+        <v>500</v>
+      </c>
+      <c r="M570" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="571" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A571" s="3">
+        <v>44281</v>
+      </c>
+      <c r="B571" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C571" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D571" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E571" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F571" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G571" s="2"/>
+      <c r="H571" s="2"/>
+      <c r="I571" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J571" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="K571" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="L571" s="2">
+        <v>550</v>
+      </c>
+      <c r="M571" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="572" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A572" s="3">
+        <v>44281</v>
+      </c>
+      <c r="B572" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C572" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D572" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E572" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F572" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G572" s="2"/>
+      <c r="H572" s="2"/>
+      <c r="I572" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J572" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="K572" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="L572" s="2">
+        <v>1000</v>
+      </c>
+      <c r="M572" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="573" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A573" s="3">
+        <v>44281</v>
+      </c>
+      <c r="B573" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C573" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D573" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E573" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F573" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G573" s="2"/>
+      <c r="H573" s="2"/>
+      <c r="I573" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J573" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="K573" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="L573" s="2">
+        <v>750</v>
+      </c>
+      <c r="M573" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="574" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A574" s="3">
+        <v>44281</v>
+      </c>
+      <c r="B574" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C574" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D574" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E574" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F574" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G574" s="2"/>
+      <c r="H574" s="2"/>
+      <c r="I574" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J574" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="K574" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="L574" s="2">
+        <v>850</v>
+      </c>
+      <c r="M574" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="575" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A575" s="3">
+        <v>44281</v>
+      </c>
+      <c r="B575" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C575" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D575" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E575" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F575" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G575" s="2"/>
+      <c r="H575" s="2"/>
+      <c r="I575" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J575" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K575" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="L575" s="2">
+        <v>600</v>
+      </c>
+      <c r="M575" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="576" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A576" s="3">
+        <v>44281</v>
+      </c>
+      <c r="B576" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C576" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D576" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E576" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F576" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="G576" s="2"/>
+      <c r="H576" s="2"/>
+      <c r="I576" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J576" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="K576" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="L576" s="2">
+        <v>750</v>
+      </c>
+      <c r="M576" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="577" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A577" s="3">
+        <v>44281</v>
+      </c>
+      <c r="B577" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C577" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D577" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E577" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F577" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="G577" s="2"/>
+      <c r="H577" s="2"/>
+      <c r="I577" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J577" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="K577" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="L577" s="2">
+        <v>1000</v>
+      </c>
+      <c r="M577" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="578" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A578" s="3">
+        <v>44281</v>
+      </c>
+      <c r="B578" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C578" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D578" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E578" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F578" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="G578" s="2"/>
+      <c r="H578" s="2"/>
+      <c r="I578" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J578" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="K578" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="L578" s="2">
+        <v>1100</v>
+      </c>
+      <c r="M578" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="579" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A579" s="3">
+        <v>44281</v>
+      </c>
+      <c r="B579" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C579" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D579" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E579" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F579" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="G579" s="2"/>
+      <c r="H579" s="2"/>
+      <c r="I579" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J579" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="K579" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="L579" s="2">
+        <v>650</v>
+      </c>
+      <c r="M579" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="580" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A580" s="3">
+        <v>44281</v>
+      </c>
+      <c r="B580" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C580" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D580" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E580" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F580" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="G580" s="2"/>
+      <c r="H580" s="2"/>
+      <c r="I580" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J580" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="K580" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="L580" s="2">
+        <v>800</v>
+      </c>
+      <c r="M580" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="581" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A581" s="3">
+        <v>44281</v>
+      </c>
+      <c r="B581" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C581" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D581" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E581" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F581" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="G581" s="2"/>
+      <c r="H581" s="2"/>
+      <c r="I581" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J581" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="K581" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="L581" s="2">
+        <v>1000</v>
+      </c>
+      <c r="M581" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="582" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A582" s="3">
+        <v>44281</v>
+      </c>
+      <c r="B582" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C582" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D582" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E582" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F582" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="G582" s="2"/>
+      <c r="H582" s="2"/>
+      <c r="I582" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J582" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="K582" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="L582" s="2">
+        <v>1000</v>
+      </c>
+      <c r="M582" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="583" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A583" s="3">
+        <v>44281</v>
+      </c>
+      <c r="B583" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C583" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D583" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E583" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F583" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="G583" s="2"/>
+      <c r="H583" s="2"/>
+      <c r="I583" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J583" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="K583" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="L583" s="2">
+        <v>1400</v>
+      </c>
+      <c r="M583" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="584" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A584" s="3">
+        <v>44281</v>
+      </c>
+      <c r="B584" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C584" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D584" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E584" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F584" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="G584" s="2"/>
+      <c r="H584" s="2"/>
+      <c r="I584" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J584" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="K584" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="L584" s="2">
+        <v>800</v>
+      </c>
+      <c r="M584" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="585" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A585" s="3">
+        <v>44281</v>
+      </c>
+      <c r="B585" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C585" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D585" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E585" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F585" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="G585" s="2"/>
+      <c r="H585" s="2"/>
+      <c r="I585" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J585" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="K585" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="L585" s="2">
+        <v>1000</v>
+      </c>
+      <c r="M585" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="586" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A586" s="3">
+        <v>44281</v>
+      </c>
+      <c r="B586" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C586" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D586" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E586" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F586" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="G586" s="2"/>
+      <c r="H586" s="2"/>
+      <c r="I586" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J586" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="K586" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="L586" s="2">
+        <v>470</v>
+      </c>
+      <c r="M586" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="587" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A587" s="3">
+        <v>44281</v>
+      </c>
+      <c r="B587" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C587" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D587" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E587" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F587" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="G587" s="2"/>
+      <c r="H587" s="2"/>
+      <c r="I587" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J587" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="K587" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="L587" s="2">
+        <v>1000</v>
+      </c>
+      <c r="M587" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="588" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A588" s="3">
+        <v>44281</v>
+      </c>
+      <c r="B588" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C588" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D588" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E588" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F588" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="G588" s="2"/>
+      <c r="H588" s="2"/>
+      <c r="I588" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J588" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="K588" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="L588" s="2">
+        <v>750</v>
+      </c>
+      <c r="M588" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="589" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A589" s="3">
+        <v>44282</v>
+      </c>
+      <c r="B589" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C589" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D589" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E589" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F589" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G589" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H589" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I589" s="2"/>
+      <c r="J589" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="K589" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="L589" s="2">
+        <v>101</v>
+      </c>
+      <c r="M589" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="590" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A590" s="3">
+        <v>44282</v>
+      </c>
+      <c r="B590" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C590" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D590" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E590" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F590" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G590" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H590" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I590" s="2"/>
+      <c r="J590" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K590" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L590" s="2">
+        <v>-142.9</v>
+      </c>
+      <c r="M590" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="591" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A591" s="3">
+        <v>44282</v>
+      </c>
+      <c r="B591" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C591" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D591" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E591" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F591" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G591" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H591" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I591" s="2"/>
+      <c r="J591" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K591" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L591" s="2">
+        <v>108</v>
+      </c>
+      <c r="M591" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="592" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A592" s="3">
+        <v>44282</v>
+      </c>
+      <c r="B592" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C592" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D592" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E592" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F592" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G592" s="2"/>
+      <c r="H592" s="2"/>
+      <c r="I592" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J592" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="K592" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="L592" s="2">
+        <v>925</v>
+      </c>
+      <c r="M592" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="593" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A593" s="3">
+        <v>44282</v>
+      </c>
+      <c r="B593" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C593" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D593" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E593" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F593" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G593" s="2"/>
+      <c r="H593" s="2"/>
+      <c r="I593" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J593" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="K593" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="L593" s="2">
+        <v>1000</v>
+      </c>
+      <c r="M593" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="594" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A594" s="3">
+        <v>44282</v>
+      </c>
+      <c r="B594" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C594" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D594" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E594" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F594" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G594" s="2"/>
+      <c r="H594" s="2"/>
+      <c r="I594" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J594" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="K594" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="L594" s="2">
+        <v>900</v>
+      </c>
+      <c r="M594" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="595" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A595" s="3">
+        <v>44282</v>
+      </c>
+      <c r="B595" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C595" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D595" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E595" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F595" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G595" s="2"/>
+      <c r="H595" s="2"/>
+      <c r="I595" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J595" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="K595" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="L595" s="2">
+        <v>550</v>
+      </c>
+      <c r="M595" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="596" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A596" s="3">
+        <v>44282</v>
+      </c>
+      <c r="B596" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C596" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D596" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E596" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F596" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="G596" s="2"/>
+      <c r="H596" s="2"/>
+      <c r="I596" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J596" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="K596" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="L596" s="2">
+        <v>950</v>
+      </c>
+      <c r="M596" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="597" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A597" s="3">
+        <v>44282</v>
+      </c>
+      <c r="B597" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C597" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D597" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E597" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F597" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="G597" s="2"/>
+      <c r="H597" s="2"/>
+      <c r="I597" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J597" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="K597" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="L597" s="2">
+        <v>900</v>
+      </c>
+      <c r="M597" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="598" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A598" s="3">
+        <v>44282</v>
+      </c>
+      <c r="B598" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C598" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D598" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E598" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F598" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="G598" s="2"/>
+      <c r="H598" s="2"/>
+      <c r="I598" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J598" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="K598" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="L598" s="2">
+        <v>500</v>
+      </c>
+      <c r="M598" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="599" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A599" s="3">
+        <v>44282</v>
+      </c>
+      <c r="B599" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C599" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D599" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E599" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F599" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="G599" s="2"/>
+      <c r="H599" s="2"/>
+      <c r="I599" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J599" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="K599" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="L599" s="2">
+        <v>750</v>
+      </c>
+      <c r="M599" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="600" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A600" s="3">
+        <v>44283</v>
+      </c>
+      <c r="B600" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C600" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D600" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E600" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F600" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G600" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H600" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I600" s="2"/>
+      <c r="J600" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="K600" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="L600" s="2">
+        <v>-102</v>
+      </c>
+      <c r="M600" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="601" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A601" s="3">
+        <v>44283</v>
+      </c>
+      <c r="B601" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C601" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D601" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E601" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F601" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G601" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H601" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I601" s="2"/>
+      <c r="J601" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K601" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L601" s="2">
+        <v>-105.3</v>
+      </c>
+      <c r="M601" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="602" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A602" s="3">
+        <v>44283</v>
+      </c>
+      <c r="B602" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C602" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D602" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E602" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F602" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G602" s="2"/>
+      <c r="H602" s="2"/>
+      <c r="I602" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J602" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="K602" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="L602" s="2">
+        <v>650</v>
+      </c>
+      <c r="M602" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="603" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A603" s="3">
+        <v>44283</v>
+      </c>
+      <c r="B603" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C603" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D603" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E603" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F603" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G603" s="2"/>
+      <c r="H603" s="2"/>
+      <c r="I603" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J603" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="K603" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="L603" s="2">
+        <v>850</v>
+      </c>
+      <c r="M603" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="604" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A604" s="3">
+        <v>44283</v>
+      </c>
+      <c r="B604" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C604" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D604" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E604" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F604" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G604" s="2"/>
+      <c r="H604" s="2"/>
+      <c r="I604" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J604" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="K604" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="L604" s="2">
+        <v>1000</v>
+      </c>
+      <c r="M604" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="605" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A605" s="3">
+        <v>44283</v>
+      </c>
+      <c r="B605" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C605" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D605" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E605" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F605" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G605" s="2"/>
+      <c r="H605" s="2"/>
+      <c r="I605" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J605" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="K605" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="L605" s="2">
+        <v>1200</v>
+      </c>
+      <c r="M605" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="606" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A606" s="3">
+        <v>44283</v>
+      </c>
+      <c r="B606" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C606" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D606" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E606" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F606" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="G606" s="2"/>
+      <c r="H606" s="2"/>
+      <c r="I606" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J606" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="K606" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="L606" s="2">
+        <v>800</v>
+      </c>
+      <c r="M606" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="607" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A607" s="3">
+        <v>44283</v>
+      </c>
+      <c r="B607" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C607" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D607" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E607" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F607" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="G607" s="2"/>
+      <c r="H607" s="2"/>
+      <c r="I607" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J607" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="K607" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="L607" s="2">
+        <v>600</v>
+      </c>
+      <c r="M607" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="608" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A608" s="3">
+        <v>44283</v>
+      </c>
+      <c r="B608" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C608" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D608" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E608" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F608" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="G608" s="2"/>
+      <c r="H608" s="2"/>
+      <c r="I608" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J608" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="K608" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="L608" s="2">
+        <v>1000</v>
+      </c>
+      <c r="M608" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="609" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A609" s="3">
+        <v>44283</v>
+      </c>
+      <c r="B609" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C609" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D609" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E609" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F609" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G609" s="2"/>
+      <c r="H609" s="2"/>
+      <c r="I609" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J609" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="K609" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="L609" s="2">
+        <v>1100</v>
+      </c>
+      <c r="M609" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="610" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A610" s="3">
+        <v>44283</v>
+      </c>
+      <c r="B610" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C610" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D610" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E610" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F610" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G610" s="2"/>
+      <c r="H610" s="2"/>
+      <c r="I610" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J610" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="K610" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="L610" s="2">
+        <v>950</v>
+      </c>
+      <c r="M610" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="611" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A611" s="3">
+        <v>44283</v>
+      </c>
+      <c r="B611" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C611" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D611" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E611" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F611" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G611" s="2"/>
+      <c r="H611" s="2"/>
+      <c r="I611" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J611" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K611" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="L611" s="2">
+        <v>900</v>
+      </c>
+      <c r="M611" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="612" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A612" s="3">
+        <v>44284</v>
+      </c>
+      <c r="B612" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C612" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D612" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E612" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F612" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G612" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H612" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I612" s="2"/>
+      <c r="J612" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="K612" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="L612" s="2">
+        <v>132</v>
+      </c>
+      <c r="M612" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="613" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A613" s="3">
+        <v>44284</v>
+      </c>
+      <c r="B613" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C613" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D613" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E613" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F613" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G613" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H613" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I613" s="2"/>
+      <c r="J613" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="K613" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="L613" s="2">
+        <v>-106</v>
+      </c>
+      <c r="M613" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="614" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A614" s="3">
+        <v>44284</v>
+      </c>
+      <c r="B614" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C614" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D614" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="E614" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F614" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G614" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H614" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I614" s="2"/>
+      <c r="J614" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K614" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L614" s="2">
+        <v>-111.1</v>
+      </c>
+      <c r="M614" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="615" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A615" s="3">
+        <v>44284</v>
+      </c>
+      <c r="B615" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C615" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D615" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E615" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F615" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G615" s="2"/>
+      <c r="H615" s="2"/>
+      <c r="I615" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J615" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="K615" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="L615" s="2">
+        <v>1050</v>
+      </c>
+      <c r="M615" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="616" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A616" s="3">
+        <v>44284</v>
+      </c>
+      <c r="B616" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C616" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D616" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="E616" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F616" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G616" s="2"/>
+      <c r="H616" s="2"/>
+      <c r="I616" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J616" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="K616" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="L616" s="2">
+        <v>600</v>
+      </c>
+      <c r="M616" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="617" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A617" s="3">
+        <v>44284</v>
+      </c>
+      <c r="B617" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C617" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D617" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E617" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F617" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G617" s="2"/>
+      <c r="H617" s="2"/>
+      <c r="I617" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J617" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="K617" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="L617" s="2">
+        <v>900</v>
+      </c>
+      <c r="M617" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="618" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A618" s="3">
+        <v>44284</v>
+      </c>
+      <c r="B618" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C618" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D618" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E618" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F618" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G618" s="2"/>
+      <c r="H618" s="2"/>
+      <c r="I618" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J618" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="K618" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="L618" s="2">
+        <v>900</v>
+      </c>
+      <c r="M618" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="619" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A619" s="3">
+        <v>44284</v>
+      </c>
+      <c r="B619" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C619" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D619" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E619" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F619" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G619" s="2"/>
+      <c r="H619" s="2"/>
+      <c r="I619" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J619" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="K619" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="L619" s="2">
+        <v>1000</v>
+      </c>
+      <c r="M619" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="620" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A620" s="3">
+        <v>44284</v>
+      </c>
+      <c r="B620" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C620" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D620" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E620" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F620" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G620" s="2"/>
+      <c r="H620" s="2"/>
+      <c r="I620" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J620" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="K620" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="L620" s="2">
+        <v>1000</v>
+      </c>
+      <c r="M620" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="621" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A621" s="3">
+        <v>44284</v>
+      </c>
+      <c r="B621" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C621" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D621" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E621" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F621" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G621" s="2"/>
+      <c r="H621" s="2"/>
+      <c r="I621" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J621" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="K621" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="L621" s="2">
+        <v>900</v>
+      </c>
+      <c r="M621" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="622" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A622" s="3">
+        <v>44284</v>
+      </c>
+      <c r="B622" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C622" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D622" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E622" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F622" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="G622" s="2"/>
+      <c r="H622" s="2"/>
+      <c r="I622" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J622" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="K622" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="L622" s="2">
+        <v>650</v>
+      </c>
+      <c r="M622" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="623" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A623" s="3">
+        <v>44284</v>
+      </c>
+      <c r="B623" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C623" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D623" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E623" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F623" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="G623" s="2"/>
+      <c r="H623" s="2"/>
+      <c r="I623" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J623" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="K623" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="L623" s="2">
+        <v>700</v>
+      </c>
+      <c r="M623" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="624" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A624" s="3">
+        <v>44284</v>
+      </c>
+      <c r="B624" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C624" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D624" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E624" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F624" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="G624" s="2"/>
+      <c r="H624" s="2"/>
+      <c r="I624" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J624" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="K624" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="L624" s="2">
+        <v>700</v>
+      </c>
+      <c r="M624" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="625" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A625" s="3">
+        <v>44284</v>
+      </c>
+      <c r="B625" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C625" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D625" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E625" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F625" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="G625" s="2"/>
+      <c r="H625" s="2"/>
+      <c r="I625" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J625" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="K625" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="L625" s="2">
+        <v>1000</v>
+      </c>
+      <c r="M625" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="626" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A626" s="3">
+        <v>44284</v>
+      </c>
+      <c r="B626" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C626" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D626" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E626" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F626" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="G626" s="2"/>
+      <c r="H626" s="2"/>
+      <c r="I626" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J626" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="K626" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="L626" s="2">
+        <v>750</v>
+      </c>
+      <c r="M626" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="627" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A627" s="3">
+        <v>44284</v>
+      </c>
+      <c r="B627" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C627" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D627" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E627" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F627" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="G627" s="2"/>
+      <c r="H627" s="2"/>
+      <c r="I627" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J627" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="K627" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="L627" s="2">
+        <v>800</v>
+      </c>
+      <c r="M627" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="628" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A628" s="3">
+        <v>44284</v>
+      </c>
+      <c r="B628" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C628" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D628" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E628" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F628" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="G628" s="2"/>
+      <c r="H628" s="2"/>
+      <c r="I628" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J628" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="K628" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="L628" s="2">
+        <v>850</v>
+      </c>
+      <c r="M628" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="629" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A629" s="3">
+        <v>44284</v>
+      </c>
+      <c r="B629" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C629" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D629" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E629" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F629" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="G629" s="2"/>
+      <c r="H629" s="2"/>
+      <c r="I629" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J629" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="K629" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="L629" s="2">
+        <v>500</v>
+      </c>
+      <c r="M629" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="630" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A630" s="3">
+        <v>44284</v>
+      </c>
+      <c r="B630" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C630" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D630" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E630" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F630" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="G630" s="2"/>
+      <c r="H630" s="2"/>
+      <c r="I630" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J630" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="K630" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="L630" s="2">
+        <v>700</v>
+      </c>
+      <c r="M630" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="631" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A631" s="3">
+        <v>44284</v>
+      </c>
+      <c r="B631" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C631" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D631" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E631" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F631" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="G631" s="2"/>
+      <c r="H631" s="2"/>
+      <c r="I631" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J631" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="K631" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="L631" s="2">
+        <v>700</v>
+      </c>
+      <c r="M631" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="632" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A632" s="3">
+        <v>44284</v>
+      </c>
+      <c r="B632" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C632" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D632" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E632" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F632" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="G632" s="2"/>
+      <c r="H632" s="2"/>
+      <c r="I632" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J632" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="K632" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="L632" s="2">
+        <v>1100</v>
+      </c>
+      <c r="M632" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="633" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A633" s="3">
+        <v>44284</v>
+      </c>
+      <c r="B633" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C633" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D633" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E633" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F633" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="G633" s="2"/>
+      <c r="H633" s="2"/>
+      <c r="I633" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J633" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="K633" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="L633" s="2">
+        <v>1100</v>
+      </c>
+      <c r="M633" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="634" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A634" s="3">
+        <v>44285</v>
+      </c>
+      <c r="B634" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C634" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D634" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E634" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F634" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G634" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H634" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I634" s="2"/>
+      <c r="J634" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="K634" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="L634" s="2">
+        <v>105</v>
+      </c>
+      <c r="M634" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="635" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A635" s="3">
+        <v>44285</v>
+      </c>
+      <c r="B635" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C635" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D635" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E635" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F635" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G635" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H635" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I635" s="2"/>
+      <c r="J635" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K635" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L635" s="2">
+        <v>120</v>
+      </c>
+      <c r="M635" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="636" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A636" s="3">
+        <v>44285</v>
+      </c>
+      <c r="B636" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C636" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D636" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E636" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F636" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G636" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H636" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I636" s="2"/>
+      <c r="J636" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="K636" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="L636" s="2">
+        <v>100</v>
+      </c>
+      <c r="M636" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="637" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A637" s="3">
+        <v>44285</v>
+      </c>
+      <c r="B637" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C637" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D637" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E637" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F637" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G637" s="2"/>
+      <c r="H637" s="2"/>
+      <c r="I637" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J637" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="K637" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="L637" s="2">
+        <v>1000</v>
+      </c>
+      <c r="M637" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="638" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A638" s="3">
+        <v>44285</v>
+      </c>
+      <c r="B638" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C638" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D638" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E638" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F638" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G638" s="2"/>
+      <c r="H638" s="2"/>
+      <c r="I638" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J638" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="K638" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="L638" s="2">
+        <v>900</v>
+      </c>
+      <c r="M638" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="639" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A639" s="3">
+        <v>44285</v>
+      </c>
+      <c r="B639" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C639" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D639" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E639" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F639" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G639" s="2"/>
+      <c r="H639" s="2"/>
+      <c r="I639" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J639" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="K639" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="L639" s="2">
+        <v>800</v>
+      </c>
+      <c r="M639" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="640" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A640" s="3">
+        <v>44285</v>
+      </c>
+      <c r="B640" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C640" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D640" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E640" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F640" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G640" s="2"/>
+      <c r="H640" s="2"/>
+      <c r="I640" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J640" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="K640" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="L640" s="2">
+        <v>1000</v>
+      </c>
+      <c r="M640" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="641" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A641" s="3">
+        <v>44285</v>
+      </c>
+      <c r="B641" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C641" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D641" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E641" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F641" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G641" s="2"/>
+      <c r="H641" s="2"/>
+      <c r="I641" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J641" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="K641" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="L641" s="2">
+        <v>1000</v>
+      </c>
+      <c r="M641" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="642" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A642" s="3">
+        <v>44285</v>
+      </c>
+      <c r="B642" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C642" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D642" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E642" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F642" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="G642" s="2"/>
+      <c r="H642" s="2"/>
+      <c r="I642" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J642" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="K642" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="L642" s="2">
+        <v>750</v>
+      </c>
+      <c r="M642" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="643" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A643" s="3">
+        <v>44286</v>
+      </c>
+      <c r="B643" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C643" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D643" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E643" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F643" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G643" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H643" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I643" s="2"/>
+      <c r="J643" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="K643" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="L643" s="2">
+        <v>150</v>
+      </c>
+      <c r="M643" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="644" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A644" s="3">
+        <v>44286</v>
+      </c>
+      <c r="B644" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C644" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D644" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E644" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F644" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G644" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H644" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I644" s="2"/>
+      <c r="J644" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K644" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="L644" s="2">
+        <v>-119.1</v>
+      </c>
+      <c r="M644" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="645" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A645" s="3">
+        <v>44286</v>
+      </c>
+      <c r="B645" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C645" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D645" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="E645" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F645" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G645" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H645" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I645" s="2"/>
+      <c r="J645" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K645" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L645" s="2">
+        <v>-111.1</v>
+      </c>
+      <c r="M645" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="646" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A646" s="3">
+        <v>44286</v>
+      </c>
+      <c r="B646" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C646" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D646" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E646" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F646" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G646" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H646" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I646" s="2"/>
+      <c r="J646" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K646" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L646" s="2">
+        <v>100</v>
+      </c>
+      <c r="M646" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="647" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A647" s="3">
+        <v>44286</v>
+      </c>
+      <c r="B647" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C647" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D647" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E647" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F647" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G647" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H647" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I647" s="2"/>
+      <c r="J647" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="K647" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L647" s="2">
+        <v>-104.2</v>
+      </c>
+      <c r="M647" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="648" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A648" s="3">
+        <v>44286</v>
+      </c>
+      <c r="B648" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C648" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D648" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E648" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F648" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G648" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H648" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I648" s="2"/>
+      <c r="J648" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K648" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L648" s="2">
+        <v>112</v>
+      </c>
+      <c r="M648" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="649" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A649" s="3">
+        <v>44286</v>
+      </c>
+      <c r="B649" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C649" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D649" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E649" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F649" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G649" s="2"/>
+      <c r="H649" s="2"/>
+      <c r="I649" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J649" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="K649" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="L649" s="2">
+        <v>800</v>
+      </c>
+      <c r="M649" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="650" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A650" s="3">
+        <v>44286</v>
+      </c>
+      <c r="B650" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C650" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D650" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E650" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F650" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G650" s="2"/>
+      <c r="H650" s="2"/>
+      <c r="I650" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J650" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="K650" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="L650" s="2">
+        <v>550</v>
+      </c>
+      <c r="M650" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="651" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A651" s="3">
+        <v>44286</v>
+      </c>
+      <c r="B651" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C651" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D651" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E651" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F651" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G651" s="2"/>
+      <c r="H651" s="2"/>
+      <c r="I651" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J651" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="K651" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="L651" s="2">
+        <v>750</v>
+      </c>
+      <c r="M651" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="652" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A652" s="3">
+        <v>44286</v>
+      </c>
+      <c r="B652" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C652" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D652" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E652" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F652" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G652" s="2"/>
+      <c r="H652" s="2"/>
+      <c r="I652" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J652" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="K652" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="L652" s="2">
+        <v>800</v>
+      </c>
+      <c r="M652" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="653" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A653" s="3">
+        <v>44286</v>
+      </c>
+      <c r="B653" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C653" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D653" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="E653" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F653" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G653" s="2"/>
+      <c r="H653" s="2"/>
+      <c r="I653" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J653" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="K653" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="L653" s="2">
+        <v>600</v>
+      </c>
+      <c r="M653" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="654" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A654" s="3">
+        <v>44286</v>
+      </c>
+      <c r="B654" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C654" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D654" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E654" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F654" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G654" s="2"/>
+      <c r="H654" s="2"/>
+      <c r="I654" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J654" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="K654" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="L654" s="2">
+        <v>800</v>
+      </c>
+      <c r="M654" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="655" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A655" s="3">
+        <v>44286</v>
+      </c>
+      <c r="B655" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C655" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D655" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E655" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F655" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G655" s="2"/>
+      <c r="H655" s="2"/>
+      <c r="I655" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J655" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="K655" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="L655" s="2">
+        <v>550</v>
+      </c>
+      <c r="M655" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="656" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A656" s="3">
+        <v>44286</v>
+      </c>
+      <c r="B656" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C656" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D656" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E656" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F656" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G656" s="2"/>
+      <c r="H656" s="2"/>
+      <c r="I656" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J656" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="K656" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="L656" s="2">
+        <v>600</v>
+      </c>
+      <c r="M656" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="657" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A657" s="3">
+        <v>44286</v>
+      </c>
+      <c r="B657" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C657" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D657" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E657" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F657" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G657" s="2"/>
+      <c r="H657" s="2"/>
+      <c r="I657" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J657" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="K657" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="L657" s="2">
+        <v>700</v>
+      </c>
+      <c r="M657" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="658" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A658" s="3">
+        <v>44286</v>
+      </c>
+      <c r="B658" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C658" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D658" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E658" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F658" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G658" s="2"/>
+      <c r="H658" s="2"/>
+      <c r="I658" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J658" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="K658" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="L658" s="2">
+        <v>1000</v>
+      </c>
+      <c r="M658" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="659" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A659" s="3">
+        <v>44286</v>
+      </c>
+      <c r="B659" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C659" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D659" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E659" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F659" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="G659" s="2"/>
+      <c r="H659" s="2"/>
+      <c r="I659" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J659" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="K659" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="L659" s="2">
+        <v>900</v>
+      </c>
+      <c r="M659" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="660" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A660" s="3">
+        <v>44286</v>
+      </c>
+      <c r="B660" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C660" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D660" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E660" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F660" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="G660" s="2"/>
+      <c r="H660" s="2"/>
+      <c r="I660" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J660" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="K660" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="L660" s="2">
+        <v>850</v>
+      </c>
+      <c r="M660" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="661" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A661" s="3">
+        <v>44286</v>
+      </c>
+      <c r="B661" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C661" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D661" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E661" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F661" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="G661" s="2"/>
+      <c r="H661" s="2"/>
+      <c r="I661" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J661" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="K661" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="L661" s="2">
+        <v>1100</v>
+      </c>
+      <c r="M661" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="662" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A662" s="3">
+        <v>44286</v>
+      </c>
+      <c r="B662" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C662" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D662" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E662" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F662" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="G662" s="2"/>
+      <c r="H662" s="2"/>
+      <c r="I662" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J662" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="K662" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="L662" s="2">
+        <v>700</v>
+      </c>
+      <c r="M662" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="663" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A663" s="3">
+        <v>44286</v>
+      </c>
+      <c r="B663" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C663" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D663" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E663" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F663" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="G663" s="2"/>
+      <c r="H663" s="2"/>
+      <c r="I663" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J663" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="K663" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="L663" s="2">
+        <v>1200</v>
+      </c>
+      <c r="M663" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="664" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A664" s="3">
+        <v>44286</v>
+      </c>
+      <c r="B664" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C664" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D664" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E664" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F664" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="G664" s="2"/>
+      <c r="H664" s="2"/>
+      <c r="I664" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J664" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="K664" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="L664" s="2">
+        <v>750</v>
+      </c>
+      <c r="M664" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="665" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A665" s="3">
+        <v>44286</v>
+      </c>
+      <c r="B665" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C665" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D665" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E665" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F665" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="G665" s="2"/>
+      <c r="H665" s="2"/>
+      <c r="I665" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J665" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="K665" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="L665" s="2">
+        <v>700</v>
+      </c>
+      <c r="M665" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
+  <conditionalFormatting sqref="A634:M642">
+    <cfRule type="expression" dxfId="19" priority="2">
+      <formula>$B634=""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A503:B521">
+    <cfRule type="expression" dxfId="18" priority="19">
+      <formula>$B503=""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C503:D521">
+    <cfRule type="expression" dxfId="17" priority="18">
+      <formula>$B503=""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E503:I521">
+    <cfRule type="expression" dxfId="16" priority="17">
+      <formula>$B503=""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J503:J521">
+    <cfRule type="expression" dxfId="15" priority="16">
+      <formula>$B503=""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K503:K521">
+    <cfRule type="expression" dxfId="14" priority="15">
+      <formula>$B503=""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L503:M521">
+    <cfRule type="expression" dxfId="13" priority="14">
+      <formula>$B503=""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A522:B551">
+    <cfRule type="expression" dxfId="12" priority="13">
+      <formula>$B522=""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C522:D551">
+    <cfRule type="expression" dxfId="11" priority="12">
+      <formula>$B522=""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E522:I551">
+    <cfRule type="expression" dxfId="10" priority="11">
+      <formula>$B522=""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J522:J551">
+    <cfRule type="expression" dxfId="9" priority="10">
+      <formula>$B522=""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K522:K551">
+    <cfRule type="expression" dxfId="8" priority="9">
+      <formula>$B522=""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L522:M551">
+    <cfRule type="expression" dxfId="7" priority="8">
+      <formula>$B522=""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A552:M561">
+    <cfRule type="expression" dxfId="6" priority="7">
+      <formula>$B552=""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A562:M588">
+    <cfRule type="expression" dxfId="5" priority="6">
+      <formula>$B562=""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A589:M599">
+    <cfRule type="expression" dxfId="4" priority="5">
+      <formula>$B589=""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A600:M611">
+    <cfRule type="expression" dxfId="3" priority="4">
+      <formula>$B600=""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A612:M633">
+    <cfRule type="expression" dxfId="2" priority="3">
+      <formula>$B612=""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A643:M665">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>$B643=""</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/scratch/Prop Bets.xlsx
+++ b/scratch/Prop Bets.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kjzk13/Desktop/Fun/Betting/Models/Git/NBA/data_repos/gambling_stuff/scratch/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F8A22CF-11F5-9F4F-B82A-F54EADF4DED0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F822ECA8-F58C-6D48-AA0E-4B595D6B7439}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="680" yWindow="500" windowWidth="38400" windowHeight="16220" xr2:uid="{A921039E-F491-3040-A02B-E90974210F5A}"/>
+    <workbookView xWindow="28800" yWindow="-1120" windowWidth="38400" windowHeight="21600" xr2:uid="{A921039E-F491-3040-A02B-E90974210F5A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="13" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6150" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8111" uniqueCount="252">
   <si>
     <t>Date</t>
   </si>
@@ -706,6 +706,93 @@
   <si>
     <t>Danuel House Jr</t>
   </si>
+  <si>
+    <t>Trae Young</t>
+  </si>
+  <si>
+    <t>Robert Williams</t>
+  </si>
+  <si>
+    <t>Robert Covington</t>
+  </si>
+  <si>
+    <t>Kelly Oubre</t>
+  </si>
+  <si>
+    <t>Brandon Goodwin</t>
+  </si>
+  <si>
+    <t>Kevin Love</t>
+  </si>
+  <si>
+    <t>Josh Jackson</t>
+  </si>
+  <si>
+    <t>Boban Marjanovic</t>
+  </si>
+  <si>
+    <t>Chasson Randle</t>
+  </si>
+  <si>
+    <t>Caris LeVert</t>
+  </si>
+  <si>
+    <t>Tomas Satoransky</t>
+  </si>
+  <si>
+    <t>RJ Hampton</t>
+  </si>
+  <si>
+    <t>Kenrich Williams</t>
+  </si>
+  <si>
+    <t>Jakob Poeltl</t>
+  </si>
+  <si>
+    <t>PointsBet</t>
+  </si>
+  <si>
+    <t>Jimmy Butler</t>
+  </si>
+  <si>
+    <t>Moses Brown</t>
+  </si>
+  <si>
+    <t>Wendell Carter</t>
+  </si>
+  <si>
+    <t>Miles Bridges</t>
+  </si>
+  <si>
+    <t>Bogdan Bogdanvoic</t>
+  </si>
+  <si>
+    <t>Andre Drummond</t>
+  </si>
+  <si>
+    <t>Bobby Portis</t>
+  </si>
+  <si>
+    <t>Trevor Ariza</t>
+  </si>
+  <si>
+    <t>Pascal Siakam</t>
+  </si>
+  <si>
+    <t>Maurice Harkless</t>
+  </si>
+  <si>
+    <t>Jalen McDaniels</t>
+  </si>
+  <si>
+    <t>James Ennis</t>
+  </si>
+  <si>
+    <t>Chris Paul</t>
+  </si>
+  <si>
+    <t>Malachi Flynn</t>
+  </si>
 </sst>
 </file>
 
@@ -765,7 +852,102 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="20">
+  <dxfs count="39">
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <color theme="0" tint="-0.499984740745262"/>
@@ -1176,10 +1358,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C79C926B-E4E0-6445-8BE2-2104EE8EA8CE}">
-  <dimension ref="A1:M665"/>
+  <dimension ref="A1:N878"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A636" workbookViewId="0">
-      <selection activeCell="F647" sqref="F647"/>
+    <sheetView tabSelected="1" topLeftCell="A842" workbookViewId="0">
+      <selection activeCell="N869" sqref="N869"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -26128,100 +26310,8195 @@
         <v>10</v>
       </c>
     </row>
+    <row r="666" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A666" s="3">
+        <v>44287</v>
+      </c>
+      <c r="B666" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C666" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D666" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E666" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F666" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G666" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H666" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I666" s="2"/>
+      <c r="J666" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="K666" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="L666" s="2">
+        <v>-102</v>
+      </c>
+      <c r="M666" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="667" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A667" s="3">
+        <v>44287</v>
+      </c>
+      <c r="B667" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C667" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D667" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E667" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F667" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G667" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H667" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I667" s="2"/>
+      <c r="J667" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K667" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L667" s="2">
+        <v>-128.19999999999999</v>
+      </c>
+      <c r="M667" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="668" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A668" s="3">
+        <v>44287</v>
+      </c>
+      <c r="B668" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C668" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D668" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E668" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F668" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G668" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H668" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I668" s="2"/>
+      <c r="J668" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="K668" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="L668" s="2">
+        <v>120</v>
+      </c>
+      <c r="M668" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="669" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A669" s="3">
+        <v>44287</v>
+      </c>
+      <c r="B669" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C669" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D669" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E669" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F669" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="G669" s="2"/>
+      <c r="H669" s="2"/>
+      <c r="I669" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J669" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="K669" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="L669" s="2">
+        <v>950</v>
+      </c>
+      <c r="M669" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="670" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A670" s="3">
+        <v>44287</v>
+      </c>
+      <c r="B670" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C670" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D670" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E670" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F670" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G670" s="2"/>
+      <c r="H670" s="2"/>
+      <c r="I670" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J670" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="K670" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="L670" s="2">
+        <v>500</v>
+      </c>
+      <c r="M670" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="671" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A671" s="3">
+        <v>44287</v>
+      </c>
+      <c r="B671" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C671" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D671" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E671" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F671" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G671" s="2"/>
+      <c r="H671" s="2"/>
+      <c r="I671" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J671" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="K671" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="L671" s="2">
+        <v>700</v>
+      </c>
+      <c r="M671" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="672" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A672" s="3">
+        <v>44287</v>
+      </c>
+      <c r="B672" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C672" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D672" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E672" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F672" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G672" s="2"/>
+      <c r="H672" s="2"/>
+      <c r="I672" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J672" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="K672" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="L672" s="2">
+        <v>1100</v>
+      </c>
+      <c r="M672" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="673" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A673" s="3">
+        <v>44287</v>
+      </c>
+      <c r="B673" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C673" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D673" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E673" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F673" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G673" s="2"/>
+      <c r="H673" s="2"/>
+      <c r="I673" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J673" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="K673" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="L673" s="2">
+        <v>1000</v>
+      </c>
+      <c r="M673" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="674" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A674" s="3">
+        <v>44287</v>
+      </c>
+      <c r="B674" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C674" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D674" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E674" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F674" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G674" s="2"/>
+      <c r="H674" s="2"/>
+      <c r="I674" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J674" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="K674" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="L674" s="2">
+        <v>700</v>
+      </c>
+      <c r="M674" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="675" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A675" s="3">
+        <v>44287</v>
+      </c>
+      <c r="B675" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C675" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D675" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E675" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F675" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G675" s="2"/>
+      <c r="H675" s="2"/>
+      <c r="I675" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J675" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="K675" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="L675" s="2">
+        <v>900</v>
+      </c>
+      <c r="M675" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="676" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A676" s="3">
+        <v>44288</v>
+      </c>
+      <c r="B676" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C676" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D676" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E676" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F676" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G676" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H676" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I676" s="2"/>
+      <c r="J676" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K676" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L676" s="2">
+        <v>-111.1</v>
+      </c>
+      <c r="M676" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="677" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A677" s="3">
+        <v>44288</v>
+      </c>
+      <c r="B677" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C677" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D677" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E677" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F677" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G677" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H677" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I677" s="2"/>
+      <c r="J677" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K677" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L677" s="2">
+        <v>-105.3</v>
+      </c>
+      <c r="M677" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="678" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A678" s="3">
+        <v>44288</v>
+      </c>
+      <c r="B678" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C678" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D678" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E678" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F678" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G678" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H678" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I678" s="2"/>
+      <c r="J678" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K678" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="L678" s="2">
+        <v>112</v>
+      </c>
+      <c r="M678" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="679" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A679" s="3">
+        <v>44288</v>
+      </c>
+      <c r="B679" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C679" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D679" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E679" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F679" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G679" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H679" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I679" s="2"/>
+      <c r="J679" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K679" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L679" s="2">
+        <v>124</v>
+      </c>
+      <c r="M679" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="680" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A680" s="3">
+        <v>44288</v>
+      </c>
+      <c r="B680" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C680" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D680" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E680" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F680" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G680" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H680" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I680" s="2"/>
+      <c r="J680" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="K680" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L680" s="2">
+        <v>108</v>
+      </c>
+      <c r="M680" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="681" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A681" s="3">
+        <v>44288</v>
+      </c>
+      <c r="B681" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C681" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D681" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E681" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F681" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G681" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H681" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I681" s="2"/>
+      <c r="J681" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="K681" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L681" s="2">
+        <v>100</v>
+      </c>
+      <c r="M681" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="682" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A682" s="3">
+        <v>44288</v>
+      </c>
+      <c r="B682" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C682" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D682" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E682" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F682" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G682" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H682" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I682" s="2"/>
+      <c r="J682" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="K682" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="L682" s="2">
+        <v>-106</v>
+      </c>
+      <c r="M682" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="683" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A683" s="3">
+        <v>44288</v>
+      </c>
+      <c r="B683" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C683" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D683" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E683" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F683" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G683" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H683" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I683" s="2"/>
+      <c r="J683" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K683" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L683" s="2">
+        <v>112</v>
+      </c>
+      <c r="M683" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="684" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A684" s="3">
+        <v>44288</v>
+      </c>
+      <c r="B684" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C684" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D684" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E684" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F684" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G684" s="2"/>
+      <c r="H684" s="2"/>
+      <c r="I684" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J684" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="K684" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="L684" s="2">
+        <v>575</v>
+      </c>
+      <c r="M684" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="685" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A685" s="3">
+        <v>44288</v>
+      </c>
+      <c r="B685" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C685" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D685" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E685" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F685" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G685" s="2"/>
+      <c r="H685" s="2"/>
+      <c r="I685" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J685" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="K685" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="L685" s="2">
+        <v>625</v>
+      </c>
+      <c r="M685" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="686" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A686" s="3">
+        <v>44288</v>
+      </c>
+      <c r="B686" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C686" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D686" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E686" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F686" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G686" s="2"/>
+      <c r="H686" s="2"/>
+      <c r="I686" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J686" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="K686" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="L686" s="2">
+        <v>725</v>
+      </c>
+      <c r="M686" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="687" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A687" s="3">
+        <v>44288</v>
+      </c>
+      <c r="B687" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C687" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D687" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E687" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F687" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G687" s="2"/>
+      <c r="H687" s="2"/>
+      <c r="I687" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J687" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="K687" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="L687" s="2">
+        <v>800</v>
+      </c>
+      <c r="M687" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="688" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A688" s="3">
+        <v>44288</v>
+      </c>
+      <c r="B688" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C688" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D688" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E688" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F688" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G688" s="2"/>
+      <c r="H688" s="2"/>
+      <c r="I688" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J688" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="K688" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="L688" s="2">
+        <v>550</v>
+      </c>
+      <c r="M688" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="689" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A689" s="3">
+        <v>44288</v>
+      </c>
+      <c r="B689" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C689" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D689" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E689" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F689" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G689" s="2"/>
+      <c r="H689" s="2"/>
+      <c r="I689" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J689" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="K689" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="L689" s="2">
+        <v>1600</v>
+      </c>
+      <c r="M689" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="690" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A690" s="3">
+        <v>44288</v>
+      </c>
+      <c r="B690" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C690" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D690" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E690" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F690" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G690" s="2"/>
+      <c r="H690" s="2"/>
+      <c r="I690" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J690" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="K690" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="L690" s="2">
+        <v>600</v>
+      </c>
+      <c r="M690" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="691" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A691" s="3">
+        <v>44288</v>
+      </c>
+      <c r="B691" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C691" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D691" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E691" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F691" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G691" s="2"/>
+      <c r="H691" s="2"/>
+      <c r="I691" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J691" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="K691" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="L691" s="2">
+        <v>700</v>
+      </c>
+      <c r="M691" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="692" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A692" s="3">
+        <v>44288</v>
+      </c>
+      <c r="B692" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C692" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D692" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E692" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F692" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G692" s="2"/>
+      <c r="H692" s="2"/>
+      <c r="I692" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J692" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K692" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="L692" s="2">
+        <v>1000</v>
+      </c>
+      <c r="M692" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="693" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A693" s="3">
+        <v>44288</v>
+      </c>
+      <c r="B693" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C693" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D693" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E693" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F693" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G693" s="2"/>
+      <c r="H693" s="2"/>
+      <c r="I693" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J693" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="K693" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="L693" s="2">
+        <v>900</v>
+      </c>
+      <c r="M693" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="694" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A694" s="3">
+        <v>44288</v>
+      </c>
+      <c r="B694" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C694" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D694" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E694" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F694" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G694" s="2"/>
+      <c r="H694" s="2"/>
+      <c r="I694" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J694" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="K694" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="L694" s="2">
+        <v>900</v>
+      </c>
+      <c r="M694" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="695" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A695" s="3">
+        <v>44288</v>
+      </c>
+      <c r="B695" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C695" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D695" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E695" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F695" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="G695" s="2"/>
+      <c r="H695" s="2"/>
+      <c r="I695" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J695" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="K695" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="L695" s="2">
+        <v>1000</v>
+      </c>
+      <c r="M695" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="696" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A696" s="3">
+        <v>44288</v>
+      </c>
+      <c r="B696" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C696" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D696" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E696" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F696" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="G696" s="2"/>
+      <c r="H696" s="2"/>
+      <c r="I696" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J696" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="K696" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="L696" s="2">
+        <v>850</v>
+      </c>
+      <c r="M696" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="697" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A697" s="3">
+        <v>44288</v>
+      </c>
+      <c r="B697" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C697" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D697" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E697" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F697" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="G697" s="2"/>
+      <c r="H697" s="2"/>
+      <c r="I697" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J697" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="K697" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="L697" s="2">
+        <v>600</v>
+      </c>
+      <c r="M697" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="698" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A698" s="3">
+        <v>44288</v>
+      </c>
+      <c r="B698" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C698" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D698" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E698" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F698" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="G698" s="2"/>
+      <c r="H698" s="2"/>
+      <c r="I698" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J698" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="K698" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="L698" s="2">
+        <v>700</v>
+      </c>
+      <c r="M698" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="699" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A699" s="3">
+        <v>44289</v>
+      </c>
+      <c r="B699" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C699" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D699" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E699" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F699" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G699" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H699" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I699" s="2"/>
+      <c r="J699" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K699" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L699" s="2">
+        <v>-128.19999999999999</v>
+      </c>
+      <c r="M699" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="700" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A700" s="3">
+        <v>44289</v>
+      </c>
+      <c r="B700" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C700" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D700" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E700" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F700" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G700" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H700" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I700" s="2"/>
+      <c r="J700" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K700" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L700" s="2">
+        <v>-120.5</v>
+      </c>
+      <c r="M700" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="701" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A701" s="3">
+        <v>44289</v>
+      </c>
+      <c r="B701" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C701" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D701" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E701" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F701" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G701" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H701" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I701" s="2"/>
+      <c r="J701" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="K701" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L701" s="2">
+        <v>100</v>
+      </c>
+      <c r="M701" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="702" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A702" s="3">
+        <v>44289</v>
+      </c>
+      <c r="B702" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C702" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D702" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E702" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F702" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G702" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H702" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I702" s="2"/>
+      <c r="J702" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="K702" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="L702" s="2">
+        <v>142</v>
+      </c>
+      <c r="M702" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="703" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A703" s="3">
+        <v>44289</v>
+      </c>
+      <c r="B703" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C703" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D703" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E703" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F703" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G703" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H703" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I703" s="2"/>
+      <c r="J703" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="K703" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L703" s="2">
+        <v>130</v>
+      </c>
+      <c r="M703" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="704" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A704" s="3">
+        <v>44289</v>
+      </c>
+      <c r="B704" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C704" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D704" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E704" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F704" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="G704" s="2"/>
+      <c r="H704" s="2"/>
+      <c r="I704" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J704" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="K704" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="L704" s="2">
+        <v>1500</v>
+      </c>
+      <c r="M704" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="705" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A705" s="3">
+        <v>44289</v>
+      </c>
+      <c r="B705" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C705" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D705" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E705" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F705" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="G705" s="2"/>
+      <c r="H705" s="2"/>
+      <c r="I705" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J705" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="K705" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="L705" s="2">
+        <v>1100</v>
+      </c>
+      <c r="M705" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="706" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A706" s="3">
+        <v>44289</v>
+      </c>
+      <c r="B706" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C706" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D706" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E706" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F706" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="G706" s="2"/>
+      <c r="H706" s="2"/>
+      <c r="I706" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J706" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="K706" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="L706" s="2">
+        <v>1600</v>
+      </c>
+      <c r="M706" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="707" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A707" s="3">
+        <v>44289</v>
+      </c>
+      <c r="B707" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C707" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D707" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E707" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F707" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="G707" s="2"/>
+      <c r="H707" s="2"/>
+      <c r="I707" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J707" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="K707" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="L707" s="2">
+        <v>550</v>
+      </c>
+      <c r="M707" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="708" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A708" s="3">
+        <v>44289</v>
+      </c>
+      <c r="B708" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C708" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D708" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E708" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F708" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="G708" s="2"/>
+      <c r="H708" s="2"/>
+      <c r="I708" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J708" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="K708" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="L708" s="2">
+        <v>500</v>
+      </c>
+      <c r="M708" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="709" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A709" s="3">
+        <v>44289</v>
+      </c>
+      <c r="B709" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C709" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D709" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E709" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F709" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="G709" s="2"/>
+      <c r="H709" s="2"/>
+      <c r="I709" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J709" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="K709" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="L709" s="2">
+        <v>650</v>
+      </c>
+      <c r="M709" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="710" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A710" s="3">
+        <v>44289</v>
+      </c>
+      <c r="B710" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C710" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D710" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E710" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F710" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="G710" s="2"/>
+      <c r="H710" s="2"/>
+      <c r="I710" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J710" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="K710" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="L710" s="2">
+        <v>1000</v>
+      </c>
+      <c r="M710" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="711" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A711" s="3">
+        <v>44289</v>
+      </c>
+      <c r="B711" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C711" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D711" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E711" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F711" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G711" s="2"/>
+      <c r="H711" s="2"/>
+      <c r="I711" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J711" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="K711" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="L711" s="2">
+        <v>600</v>
+      </c>
+      <c r="M711" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="712" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A712" s="3">
+        <v>44289</v>
+      </c>
+      <c r="B712" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C712" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D712" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E712" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F712" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G712" s="2"/>
+      <c r="H712" s="2"/>
+      <c r="I712" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J712" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="K712" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="L712" s="2">
+        <v>1100</v>
+      </c>
+      <c r="M712" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="713" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A713" s="3">
+        <v>44289</v>
+      </c>
+      <c r="B713" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C713" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D713" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E713" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F713" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G713" s="2"/>
+      <c r="H713" s="2"/>
+      <c r="I713" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J713" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="K713" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="L713" s="2">
+        <v>800</v>
+      </c>
+      <c r="M713" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="714" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A714" s="3">
+        <v>44290</v>
+      </c>
+      <c r="B714" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C714" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D714" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E714" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F714" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G714" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H714" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I714" s="2"/>
+      <c r="J714" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="K714" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="L714" s="2">
+        <v>124</v>
+      </c>
+      <c r="M714" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="715" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A715" s="3">
+        <v>44290</v>
+      </c>
+      <c r="B715" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C715" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D715" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E715" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F715" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G715" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H715" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I715" s="2"/>
+      <c r="J715" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="K715" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="L715" s="2">
+        <v>114</v>
+      </c>
+      <c r="M715" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="716" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A716" s="3">
+        <v>44290</v>
+      </c>
+      <c r="B716" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C716" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D716" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E716" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F716" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="G716" s="2"/>
+      <c r="H716" s="2"/>
+      <c r="I716" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J716" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="K716" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="L716" s="2">
+        <v>500</v>
+      </c>
+      <c r="M716" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="717" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A717" s="3">
+        <v>44290</v>
+      </c>
+      <c r="B717" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C717" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D717" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E717" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F717" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="G717" s="2"/>
+      <c r="H717" s="2"/>
+      <c r="I717" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J717" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="K717" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="L717" s="2">
+        <v>850</v>
+      </c>
+      <c r="M717" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="718" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A718" s="3">
+        <v>44290</v>
+      </c>
+      <c r="B718" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C718" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D718" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E718" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F718" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="G718" s="2"/>
+      <c r="H718" s="2"/>
+      <c r="I718" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J718" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="K718" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="L718" s="2">
+        <v>900</v>
+      </c>
+      <c r="M718" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="719" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A719" s="3">
+        <v>44290</v>
+      </c>
+      <c r="B719" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C719" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D719" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E719" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F719" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="G719" s="2"/>
+      <c r="H719" s="2"/>
+      <c r="I719" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J719" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="K719" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="L719" s="2">
+        <v>1700</v>
+      </c>
+      <c r="M719" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="720" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A720" s="3">
+        <v>44290</v>
+      </c>
+      <c r="B720" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C720" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D720" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E720" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F720" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="G720" s="2"/>
+      <c r="H720" s="2"/>
+      <c r="I720" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J720" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="K720" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="L720" s="2">
+        <v>550</v>
+      </c>
+      <c r="M720" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="721" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A721" s="3">
+        <v>44290</v>
+      </c>
+      <c r="B721" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C721" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D721" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E721" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F721" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="G721" s="2"/>
+      <c r="H721" s="2"/>
+      <c r="I721" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J721" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="K721" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="L721" s="2">
+        <v>1100</v>
+      </c>
+      <c r="M721" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="722" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A722" s="3">
+        <v>44290</v>
+      </c>
+      <c r="B722" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C722" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D722" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E722" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F722" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="G722" s="2"/>
+      <c r="H722" s="2"/>
+      <c r="I722" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J722" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="K722" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="L722" s="2">
+        <v>800</v>
+      </c>
+      <c r="M722" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="723" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A723" s="3">
+        <v>44290</v>
+      </c>
+      <c r="B723" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C723" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D723" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E723" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F723" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="G723" s="2"/>
+      <c r="H723" s="2"/>
+      <c r="I723" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J723" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="K723" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="L723" s="2">
+        <v>600</v>
+      </c>
+      <c r="M723" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="724" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A724" s="3">
+        <v>44290</v>
+      </c>
+      <c r="B724" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C724" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D724" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E724" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F724" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G724" s="2"/>
+      <c r="H724" s="2"/>
+      <c r="I724" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J724" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="K724" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="L724" s="2">
+        <v>1100</v>
+      </c>
+      <c r="M724" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="725" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A725" s="3">
+        <v>44290</v>
+      </c>
+      <c r="B725" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C725" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D725" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E725" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F725" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G725" s="2"/>
+      <c r="H725" s="2"/>
+      <c r="I725" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J725" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="K725" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="L725" s="2">
+        <v>700</v>
+      </c>
+      <c r="M725" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="726" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A726" s="3">
+        <v>44290</v>
+      </c>
+      <c r="B726" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C726" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D726" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E726" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F726" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G726" s="2"/>
+      <c r="H726" s="2"/>
+      <c r="I726" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J726" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="K726" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="L726" s="2">
+        <v>650</v>
+      </c>
+      <c r="M726" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="727" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A727" s="3">
+        <v>44290</v>
+      </c>
+      <c r="B727" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C727" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D727" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E727" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F727" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G727" s="2"/>
+      <c r="H727" s="2"/>
+      <c r="I727" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J727" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="K727" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="L727" s="2">
+        <v>850</v>
+      </c>
+      <c r="M727" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="728" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A728" s="3">
+        <v>44290</v>
+      </c>
+      <c r="B728" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C728" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D728" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E728" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F728" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G728" s="2"/>
+      <c r="H728" s="2"/>
+      <c r="I728" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J728" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="K728" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="L728" s="2">
+        <v>850</v>
+      </c>
+      <c r="M728" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="729" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A729" s="3">
+        <v>44290</v>
+      </c>
+      <c r="B729" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C729" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D729" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E729" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F729" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G729" s="2"/>
+      <c r="H729" s="2"/>
+      <c r="I729" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J729" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="K729" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="L729" s="2">
+        <v>900</v>
+      </c>
+      <c r="M729" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="730" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A730" s="3">
+        <v>44291</v>
+      </c>
+      <c r="B730" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C730" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D730" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E730" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F730" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G730" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H730" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I730" s="2"/>
+      <c r="J730" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="K730" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="L730" s="2">
+        <v>-106.4</v>
+      </c>
+      <c r="M730" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="N730" s="2"/>
+    </row>
+    <row r="731" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A731" s="3">
+        <v>44291</v>
+      </c>
+      <c r="B731" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C731" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D731" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E731" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F731" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G731" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H731" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I731" s="2"/>
+      <c r="J731" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="K731" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="L731" s="2">
+        <v>120</v>
+      </c>
+      <c r="M731" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N731" s="2"/>
+    </row>
+    <row r="732" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A732" s="3">
+        <v>44291</v>
+      </c>
+      <c r="B732" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C732" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D732" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E732" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F732" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G732" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H732" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I732" s="2"/>
+      <c r="J732" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K732" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L732" s="2">
+        <v>122</v>
+      </c>
+      <c r="M732" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N732" s="2"/>
+    </row>
+    <row r="733" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A733" s="3">
+        <v>44291</v>
+      </c>
+      <c r="B733" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C733" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D733" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E733" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F733" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G733" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H733" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I733" s="2"/>
+      <c r="J733" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K733" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L733" s="2">
+        <v>-104.2</v>
+      </c>
+      <c r="M733" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="N733" s="2"/>
+    </row>
+    <row r="734" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A734" s="3">
+        <v>44291</v>
+      </c>
+      <c r="B734" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C734" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D734" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E734" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F734" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G734" s="2"/>
+      <c r="H734" s="2"/>
+      <c r="I734" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J734" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="K734" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="L734" s="2">
+        <v>650</v>
+      </c>
+      <c r="M734" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N734" s="2"/>
+    </row>
+    <row r="735" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A735" s="3">
+        <v>44291</v>
+      </c>
+      <c r="B735" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C735" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D735" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E735" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F735" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G735" s="2"/>
+      <c r="H735" s="2"/>
+      <c r="I735" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J735" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="K735" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="L735" s="2">
+        <v>1000</v>
+      </c>
+      <c r="M735" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N735" s="2"/>
+    </row>
+    <row r="736" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A736" s="3">
+        <v>44291</v>
+      </c>
+      <c r="B736" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C736" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D736" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E736" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F736" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G736" s="2"/>
+      <c r="H736" s="2"/>
+      <c r="I736" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J736" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="K736" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="L736" s="2">
+        <v>550</v>
+      </c>
+      <c r="M736" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N736" s="2"/>
+    </row>
+    <row r="737" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A737" s="3">
+        <v>44291</v>
+      </c>
+      <c r="B737" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C737" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D737" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E737" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F737" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="G737" s="2"/>
+      <c r="H737" s="2"/>
+      <c r="I737" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J737" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="K737" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="L737" s="2">
+        <v>500</v>
+      </c>
+      <c r="M737" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N737" s="2"/>
+    </row>
+    <row r="738" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A738" s="3">
+        <v>44291</v>
+      </c>
+      <c r="B738" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C738" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D738" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E738" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F738" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="G738" s="2"/>
+      <c r="H738" s="2"/>
+      <c r="I738" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J738" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="K738" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="L738" s="2">
+        <v>1000</v>
+      </c>
+      <c r="M738" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N738" s="2"/>
+    </row>
+    <row r="739" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A739" s="3">
+        <v>44291</v>
+      </c>
+      <c r="B739" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C739" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D739" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E739" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F739" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G739" s="2"/>
+      <c r="H739" s="2"/>
+      <c r="I739" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J739" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="K739" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="L739" s="2">
+        <v>700</v>
+      </c>
+      <c r="M739" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N739" s="2"/>
+    </row>
+    <row r="740" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A740" s="3">
+        <v>44291</v>
+      </c>
+      <c r="B740" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C740" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D740" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E740" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F740" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="G740" s="2"/>
+      <c r="H740" s="2"/>
+      <c r="I740" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J740" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="K740" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="L740" s="2">
+        <v>950</v>
+      </c>
+      <c r="M740" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N740" s="2"/>
+    </row>
+    <row r="741" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A741" s="3">
+        <v>44291</v>
+      </c>
+      <c r="B741" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C741" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D741" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E741" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F741" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="G741" s="2"/>
+      <c r="H741" s="2"/>
+      <c r="I741" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J741" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="K741" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="L741" s="2">
+        <v>1900</v>
+      </c>
+      <c r="M741" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N741" s="2"/>
+    </row>
+    <row r="742" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A742" s="3">
+        <v>44291</v>
+      </c>
+      <c r="B742" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C742" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D742" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E742" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F742" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="G742" s="2"/>
+      <c r="H742" s="2"/>
+      <c r="I742" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J742" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="K742" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="L742" s="2">
+        <v>750</v>
+      </c>
+      <c r="M742" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N742" s="2"/>
+    </row>
+    <row r="743" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A743" s="3">
+        <v>44291</v>
+      </c>
+      <c r="B743" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C743" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D743" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E743" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F743" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="G743" s="2"/>
+      <c r="H743" s="2"/>
+      <c r="I743" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J743" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="K743" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="L743" s="2">
+        <v>1100</v>
+      </c>
+      <c r="M743" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N743" s="2"/>
+    </row>
+    <row r="744" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A744" s="3">
+        <v>44291</v>
+      </c>
+      <c r="B744" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C744" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D744" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E744" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F744" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="G744" s="2"/>
+      <c r="H744" s="2"/>
+      <c r="I744" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J744" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="K744" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="L744" s="2">
+        <v>800</v>
+      </c>
+      <c r="M744" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N744" s="2"/>
+    </row>
+    <row r="745" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A745" s="3">
+        <v>44291</v>
+      </c>
+      <c r="B745" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C745" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D745" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E745" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F745" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="G745" s="2"/>
+      <c r="H745" s="2"/>
+      <c r="I745" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J745" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="K745" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="L745" s="2">
+        <v>550</v>
+      </c>
+      <c r="M745" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="N745" s="2"/>
+    </row>
+    <row r="746" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A746" s="3">
+        <v>44291</v>
+      </c>
+      <c r="B746" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C746" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D746" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E746" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F746" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="G746" s="2"/>
+      <c r="H746" s="2"/>
+      <c r="I746" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J746" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="K746" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="L746" s="2">
+        <v>1000</v>
+      </c>
+      <c r="M746" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N746" s="2"/>
+    </row>
+    <row r="747" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A747" s="3">
+        <v>44291</v>
+      </c>
+      <c r="B747" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C747" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D747" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E747" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F747" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="G747" s="2"/>
+      <c r="H747" s="2"/>
+      <c r="I747" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J747" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="K747" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="L747" s="2">
+        <v>490</v>
+      </c>
+      <c r="M747" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="N747" s="2"/>
+    </row>
+    <row r="748" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A748" s="3">
+        <v>44292</v>
+      </c>
+      <c r="B748" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C748" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D748" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E748" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F748" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G748" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H748" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I748" s="2"/>
+      <c r="J748" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K748" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L748" s="2">
+        <v>-111.1</v>
+      </c>
+      <c r="M748" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="749" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A749" s="3">
+        <v>44292</v>
+      </c>
+      <c r="B749" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C749" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D749" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E749" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F749" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G749" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H749" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I749" s="2"/>
+      <c r="J749" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="K749" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="L749" s="2">
+        <v>122</v>
+      </c>
+      <c r="M749" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="750" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A750" s="3">
+        <v>44292</v>
+      </c>
+      <c r="B750" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="C750" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D750" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E750" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F750" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G750" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H750" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I750" s="2"/>
+      <c r="J750" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K750" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="L750" s="2">
+        <v>-121</v>
+      </c>
+      <c r="M750" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="751" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A751" s="3">
+        <v>44292</v>
+      </c>
+      <c r="B751" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C751" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D751" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E751" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F751" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G751" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H751" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I751" s="2"/>
+      <c r="J751" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K751" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L751" s="2">
+        <v>-105.3</v>
+      </c>
+      <c r="M751" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="752" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A752" s="3">
+        <v>44292</v>
+      </c>
+      <c r="B752" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C752" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D752" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E752" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F752" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G752" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H752" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I752" s="2"/>
+      <c r="J752" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K752" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L752" s="2">
+        <v>-111</v>
+      </c>
+      <c r="M752" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="753" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A753" s="3">
+        <v>44292</v>
+      </c>
+      <c r="B753" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C753" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D753" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E753" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F753" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="G753" s="2"/>
+      <c r="H753" s="2"/>
+      <c r="I753" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J753" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="K753" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="L753" s="2">
+        <v>900</v>
+      </c>
+      <c r="M753" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="754" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A754" s="3">
+        <v>44292</v>
+      </c>
+      <c r="B754" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="C754" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D754" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E754" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F754" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G754" s="2"/>
+      <c r="H754" s="2"/>
+      <c r="I754" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J754" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="K754" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="L754" s="2">
+        <v>750</v>
+      </c>
+      <c r="M754" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="755" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A755" s="3">
+        <v>44292</v>
+      </c>
+      <c r="B755" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="C755" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D755" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E755" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F755" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G755" s="2"/>
+      <c r="H755" s="2"/>
+      <c r="I755" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J755" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="K755" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="L755" s="2">
+        <v>1100</v>
+      </c>
+      <c r="M755" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="756" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A756" s="3">
+        <v>44292</v>
+      </c>
+      <c r="B756" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C756" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D756" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E756" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F756" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G756" s="2"/>
+      <c r="H756" s="2"/>
+      <c r="I756" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J756" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="K756" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="L756" s="2">
+        <v>1200</v>
+      </c>
+      <c r="M756" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="757" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A757" s="3">
+        <v>44292</v>
+      </c>
+      <c r="B757" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="C757" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D757" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E757" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F757" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G757" s="2"/>
+      <c r="H757" s="2"/>
+      <c r="I757" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J757" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="K757" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="L757" s="2">
+        <v>700</v>
+      </c>
+      <c r="M757" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="758" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A758" s="3">
+        <v>44292</v>
+      </c>
+      <c r="B758" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="C758" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D758" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E758" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F758" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G758" s="2"/>
+      <c r="H758" s="2"/>
+      <c r="I758" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J758" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="K758" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="L758" s="2">
+        <v>1200</v>
+      </c>
+      <c r="M758" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="759" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A759" s="3">
+        <v>44292</v>
+      </c>
+      <c r="B759" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="C759" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D759" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E759" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F759" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G759" s="2"/>
+      <c r="H759" s="2"/>
+      <c r="I759" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J759" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="K759" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="L759" s="2">
+        <v>900</v>
+      </c>
+      <c r="M759" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="760" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A760" s="3">
+        <v>44292</v>
+      </c>
+      <c r="B760" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="C760" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D760" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E760" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F760" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G760" s="2"/>
+      <c r="H760" s="2"/>
+      <c r="I760" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J760" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="K760" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="L760" s="2">
+        <v>1100</v>
+      </c>
+      <c r="M760" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="761" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A761" s="3">
+        <v>44292</v>
+      </c>
+      <c r="B761" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C761" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D761" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E761" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F761" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="G761" s="2"/>
+      <c r="H761" s="2"/>
+      <c r="I761" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J761" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="K761" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="L761" s="2">
+        <v>900</v>
+      </c>
+      <c r="M761" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="762" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A762" s="3">
+        <v>44292</v>
+      </c>
+      <c r="B762" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C762" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D762" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E762" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F762" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="G762" s="2"/>
+      <c r="H762" s="2"/>
+      <c r="I762" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J762" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="K762" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="L762" s="2">
+        <v>600</v>
+      </c>
+      <c r="M762" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="763" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A763" s="3">
+        <v>44292</v>
+      </c>
+      <c r="B763" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C763" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D763" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E763" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F763" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="G763" s="2"/>
+      <c r="H763" s="2"/>
+      <c r="I763" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J763" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="K763" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="L763" s="2">
+        <v>1300</v>
+      </c>
+      <c r="M763" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="764" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A764" s="3">
+        <v>44292</v>
+      </c>
+      <c r="B764" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C764" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D764" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E764" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F764" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="G764" s="2"/>
+      <c r="H764" s="2"/>
+      <c r="I764" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J764" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="K764" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="L764" s="2">
+        <v>1200</v>
+      </c>
+      <c r="M764" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="765" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A765" s="3">
+        <v>44292</v>
+      </c>
+      <c r="B765" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C765" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D765" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E765" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F765" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="G765" s="2"/>
+      <c r="H765" s="2"/>
+      <c r="I765" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J765" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="K765" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="L765" s="2">
+        <v>850</v>
+      </c>
+      <c r="M765" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="766" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A766" s="3">
+        <v>44292</v>
+      </c>
+      <c r="B766" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C766" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D766" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E766" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F766" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="G766" s="2"/>
+      <c r="H766" s="2"/>
+      <c r="I766" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J766" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K766" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="L766" s="2">
+        <v>470</v>
+      </c>
+      <c r="M766" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="767" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A767" s="3">
+        <v>44292</v>
+      </c>
+      <c r="B767" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C767" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D767" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E767" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F767" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="G767" s="2"/>
+      <c r="H767" s="2"/>
+      <c r="I767" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J767" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="K767" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="L767" s="2">
+        <v>750</v>
+      </c>
+      <c r="M767" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="768" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A768" s="3">
+        <v>44292</v>
+      </c>
+      <c r="B768" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C768" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D768" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E768" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F768" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="G768" s="2"/>
+      <c r="H768" s="2"/>
+      <c r="I768" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J768" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="K768" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="L768" s="2">
+        <v>1200</v>
+      </c>
+      <c r="M768" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="769" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A769" s="3">
+        <v>44293</v>
+      </c>
+      <c r="B769" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C769" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D769" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E769" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F769" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G769" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H769" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I769" s="2"/>
+      <c r="J769" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K769" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L769" s="2">
+        <v>-104</v>
+      </c>
+      <c r="M769" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="N769" s="2"/>
+    </row>
+    <row r="770" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A770" s="3">
+        <v>44293</v>
+      </c>
+      <c r="B770" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C770" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D770" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E770" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F770" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G770" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H770" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I770" s="2"/>
+      <c r="J770" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K770" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L770" s="2">
+        <v>114</v>
+      </c>
+      <c r="M770" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N770" s="2"/>
+    </row>
+    <row r="771" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A771" s="3">
+        <v>44293</v>
+      </c>
+      <c r="B771" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C771" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D771" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E771" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F771" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G771" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H771" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I771" s="2"/>
+      <c r="J771" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K771" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="L771" s="2">
+        <v>100</v>
+      </c>
+      <c r="M771" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N771" s="2"/>
+    </row>
+    <row r="772" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A772" s="3">
+        <v>44293</v>
+      </c>
+      <c r="B772" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C772" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D772" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E772" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F772" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G772" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H772" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I772" s="2"/>
+      <c r="J772" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K772" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="L772" s="2">
+        <v>118</v>
+      </c>
+      <c r="M772" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N772" s="2"/>
+    </row>
+    <row r="773" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A773" s="3">
+        <v>44293</v>
+      </c>
+      <c r="B773" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C773" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D773" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E773" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F773" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G773" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H773" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I773" s="2"/>
+      <c r="J773" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K773" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L773" s="2">
+        <v>-112.4</v>
+      </c>
+      <c r="M773" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="N773" s="2"/>
+    </row>
+    <row r="774" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A774" s="3">
+        <v>44293</v>
+      </c>
+      <c r="B774" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="C774" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D774" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E774" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F774" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G774" s="2"/>
+      <c r="H774" s="2"/>
+      <c r="I774" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J774" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="K774" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="L774" s="2">
+        <v>850</v>
+      </c>
+      <c r="M774" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N774" s="2"/>
+    </row>
+    <row r="775" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A775" s="3">
+        <v>44293</v>
+      </c>
+      <c r="B775" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="C775" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D775" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E775" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F775" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G775" s="2"/>
+      <c r="H775" s="2"/>
+      <c r="I775" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J775" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="K775" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="L775" s="2">
+        <v>750</v>
+      </c>
+      <c r="M775" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N775" s="2"/>
+    </row>
+    <row r="776" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A776" s="3">
+        <v>44293</v>
+      </c>
+      <c r="B776" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="C776" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D776" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E776" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F776" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G776" s="2"/>
+      <c r="H776" s="2"/>
+      <c r="I776" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J776" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="K776" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="L776" s="2">
+        <v>850</v>
+      </c>
+      <c r="M776" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N776" s="2"/>
+    </row>
+    <row r="777" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A777" s="3">
+        <v>44293</v>
+      </c>
+      <c r="B777" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="C777" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D777" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E777" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F777" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G777" s="2"/>
+      <c r="H777" s="2"/>
+      <c r="I777" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J777" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="K777" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="L777" s="2">
+        <v>750</v>
+      </c>
+      <c r="M777" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N777" s="2"/>
+    </row>
+    <row r="778" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A778" s="3">
+        <v>44293</v>
+      </c>
+      <c r="B778" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="C778" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D778" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E778" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F778" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G778" s="2"/>
+      <c r="H778" s="2"/>
+      <c r="I778" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J778" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="K778" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="L778" s="2">
+        <v>1200</v>
+      </c>
+      <c r="M778" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N778" s="2"/>
+    </row>
+    <row r="779" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A779" s="3">
+        <v>44293</v>
+      </c>
+      <c r="B779" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="C779" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D779" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E779" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F779" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G779" s="2"/>
+      <c r="H779" s="2"/>
+      <c r="I779" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J779" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="K779" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="L779" s="2">
+        <v>550</v>
+      </c>
+      <c r="M779" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="N779" s="2"/>
+    </row>
+    <row r="780" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A780" s="3">
+        <v>44293</v>
+      </c>
+      <c r="B780" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="C780" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D780" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E780" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F780" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G780" s="2"/>
+      <c r="H780" s="2"/>
+      <c r="I780" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J780" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="K780" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="L780" s="2">
+        <v>600</v>
+      </c>
+      <c r="M780" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N780" s="2"/>
+    </row>
+    <row r="781" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A781" s="3">
+        <v>44293</v>
+      </c>
+      <c r="B781" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="C781" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D781" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E781" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F781" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G781" s="2"/>
+      <c r="H781" s="2"/>
+      <c r="I781" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J781" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="K781" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="L781" s="2">
+        <v>750</v>
+      </c>
+      <c r="M781" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N781" s="2"/>
+    </row>
+    <row r="782" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A782" s="3">
+        <v>44293</v>
+      </c>
+      <c r="B782" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C782" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D782" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E782" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F782" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G782" s="2"/>
+      <c r="H782" s="2"/>
+      <c r="I782" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J782" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="K782" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="L782" s="2">
+        <v>800</v>
+      </c>
+      <c r="M782" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="N782" s="2"/>
+    </row>
+    <row r="783" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A783" s="3">
+        <v>44293</v>
+      </c>
+      <c r="B783" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C783" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D783" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E783" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F783" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G783" s="2"/>
+      <c r="H783" s="2"/>
+      <c r="I783" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J783" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="K783" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="L783" s="2">
+        <v>600</v>
+      </c>
+      <c r="M783" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N783" s="2"/>
+    </row>
+    <row r="784" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A784" s="3">
+        <v>44293</v>
+      </c>
+      <c r="B784" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C784" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D784" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E784" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F784" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G784" s="2"/>
+      <c r="H784" s="2"/>
+      <c r="I784" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J784" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="K784" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="L784" s="2">
+        <v>1000</v>
+      </c>
+      <c r="M784" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N784" s="2"/>
+    </row>
+    <row r="785" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A785" s="3">
+        <v>44293</v>
+      </c>
+      <c r="B785" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C785" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D785" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E785" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F785" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G785" s="2"/>
+      <c r="H785" s="2"/>
+      <c r="I785" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J785" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="K785" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="L785" s="2">
+        <v>750</v>
+      </c>
+      <c r="M785" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N785" s="2"/>
+    </row>
+    <row r="786" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A786" s="3">
+        <v>44293</v>
+      </c>
+      <c r="B786" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C786" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D786" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E786" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F786" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G786" s="2"/>
+      <c r="H786" s="2"/>
+      <c r="I786" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J786" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="K786" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="L786" s="2">
+        <v>950</v>
+      </c>
+      <c r="M786" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N786" s="2"/>
+    </row>
+    <row r="787" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A787" s="3">
+        <v>44293</v>
+      </c>
+      <c r="B787" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C787" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D787" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E787" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F787" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G787" s="2"/>
+      <c r="H787" s="2"/>
+      <c r="I787" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J787" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="K787" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="L787" s="2">
+        <v>800</v>
+      </c>
+      <c r="M787" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N787" s="2"/>
+    </row>
+    <row r="788" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A788" s="3">
+        <v>44293</v>
+      </c>
+      <c r="B788" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C788" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D788" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E788" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F788" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="G788" s="2"/>
+      <c r="H788" s="2"/>
+      <c r="I788" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J788" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="K788" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="L788" s="2">
+        <v>400</v>
+      </c>
+      <c r="M788" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N788" s="2"/>
+    </row>
+    <row r="789" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A789" s="3">
+        <v>44293</v>
+      </c>
+      <c r="B789" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C789" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D789" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E789" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F789" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="G789" s="2"/>
+      <c r="H789" s="2"/>
+      <c r="I789" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J789" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="K789" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L789" s="2">
+        <v>1000</v>
+      </c>
+      <c r="M789" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N789" s="2"/>
+    </row>
+    <row r="790" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A790" s="3">
+        <v>44293</v>
+      </c>
+      <c r="B790" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="C790" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D790" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E790" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F790" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G790" s="2"/>
+      <c r="H790" s="2"/>
+      <c r="I790" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J790" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="K790" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="L790" s="2">
+        <v>1100</v>
+      </c>
+      <c r="M790" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N790" s="2"/>
+    </row>
+    <row r="791" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A791" s="3">
+        <v>44293</v>
+      </c>
+      <c r="B791" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="C791" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D791" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E791" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F791" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G791" s="2"/>
+      <c r="H791" s="2"/>
+      <c r="I791" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J791" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="K791" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="L791" s="2">
+        <v>900</v>
+      </c>
+      <c r="M791" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N791" s="2"/>
+    </row>
+    <row r="792" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A792" s="3">
+        <v>44294</v>
+      </c>
+      <c r="B792" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="C792" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D792" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E792" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F792" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G792" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H792" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I792" s="2"/>
+      <c r="J792" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K792" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L792" s="2">
+        <v>118</v>
+      </c>
+      <c r="M792" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="793" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A793" s="3">
+        <v>44294</v>
+      </c>
+      <c r="B793" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="C793" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D793" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E793" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F793" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G793" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H793" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I793" s="2"/>
+      <c r="J793" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="K793" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L793" s="2">
+        <v>110</v>
+      </c>
+      <c r="M793" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="794" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A794" s="3">
+        <v>44294</v>
+      </c>
+      <c r="B794" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C794" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D794" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E794" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F794" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G794" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H794" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I794" s="2"/>
+      <c r="J794" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K794" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L794" s="2">
+        <v>134</v>
+      </c>
+      <c r="M794" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="795" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A795" s="3">
+        <v>44294</v>
+      </c>
+      <c r="B795" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C795" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D795" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E795" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F795" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G795" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H795" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I795" s="2"/>
+      <c r="J795" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K795" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L795" s="2">
+        <v>-101</v>
+      </c>
+      <c r="M795" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="796" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A796" s="3">
+        <v>44294</v>
+      </c>
+      <c r="B796" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C796" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D796" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E796" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F796" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G796" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H796" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I796" s="2"/>
+      <c r="J796" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K796" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L796" s="2">
+        <v>112</v>
+      </c>
+      <c r="M796" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="797" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A797" s="3">
+        <v>44294</v>
+      </c>
+      <c r="B797" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C797" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D797" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E797" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F797" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="G797" s="2"/>
+      <c r="H797" s="2"/>
+      <c r="I797" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J797" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="K797" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="L797" s="2">
+        <v>700</v>
+      </c>
+      <c r="M797" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="798" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A798" s="3">
+        <v>44294</v>
+      </c>
+      <c r="B798" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C798" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D798" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E798" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F798" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="G798" s="2"/>
+      <c r="H798" s="2"/>
+      <c r="I798" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J798" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="K798" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="L798" s="2">
+        <v>750</v>
+      </c>
+      <c r="M798" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="799" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A799" s="3">
+        <v>44294</v>
+      </c>
+      <c r="B799" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C799" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D799" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E799" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F799" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="G799" s="2"/>
+      <c r="H799" s="2"/>
+      <c r="I799" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J799" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="K799" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="L799" s="2">
+        <v>750</v>
+      </c>
+      <c r="M799" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="800" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A800" s="3">
+        <v>44294</v>
+      </c>
+      <c r="B800" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C800" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D800" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E800" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F800" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="G800" s="2"/>
+      <c r="H800" s="2"/>
+      <c r="I800" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J800" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="K800" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="L800" s="2">
+        <v>750</v>
+      </c>
+      <c r="M800" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="801" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A801" s="3">
+        <v>44294</v>
+      </c>
+      <c r="B801" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C801" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D801" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E801" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F801" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="G801" s="2"/>
+      <c r="H801" s="2"/>
+      <c r="I801" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J801" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="K801" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="L801" s="2">
+        <v>850</v>
+      </c>
+      <c r="M801" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="802" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A802" s="3">
+        <v>44294</v>
+      </c>
+      <c r="B802" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="C802" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D802" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E802" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F802" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G802" s="2"/>
+      <c r="H802" s="2"/>
+      <c r="I802" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J802" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="K802" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="L802" s="2">
+        <v>750</v>
+      </c>
+      <c r="M802" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="803" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A803" s="3">
+        <v>44294</v>
+      </c>
+      <c r="B803" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C803" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D803" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E803" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F803" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G803" s="2"/>
+      <c r="H803" s="2"/>
+      <c r="I803" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J803" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="K803" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="L803" s="2">
+        <v>800</v>
+      </c>
+      <c r="M803" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="804" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A804" s="3">
+        <v>44294</v>
+      </c>
+      <c r="B804" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C804" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D804" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E804" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F804" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G804" s="2"/>
+      <c r="H804" s="2"/>
+      <c r="I804" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J804" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K804" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="L804" s="2">
+        <v>1200</v>
+      </c>
+      <c r="M804" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="805" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A805" s="3">
+        <v>44294</v>
+      </c>
+      <c r="B805" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="C805" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D805" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E805" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F805" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G805" s="2"/>
+      <c r="H805" s="2"/>
+      <c r="I805" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J805" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="K805" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="L805" s="2">
+        <v>850</v>
+      </c>
+      <c r="M805" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="806" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A806" s="3">
+        <v>44294</v>
+      </c>
+      <c r="B806" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="C806" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D806" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E806" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F806" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G806" s="2"/>
+      <c r="H806" s="2"/>
+      <c r="I806" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J806" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="K806" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="L806" s="2">
+        <v>750</v>
+      </c>
+      <c r="M806" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="807" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A807" s="3">
+        <v>44294</v>
+      </c>
+      <c r="B807" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="C807" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D807" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E807" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F807" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G807" s="2"/>
+      <c r="H807" s="2"/>
+      <c r="I807" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J807" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="K807" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="L807" s="2">
+        <v>800</v>
+      </c>
+      <c r="M807" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="808" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A808" s="3">
+        <v>44294</v>
+      </c>
+      <c r="B808" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="C808" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D808" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E808" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F808" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G808" s="2"/>
+      <c r="H808" s="2"/>
+      <c r="I808" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J808" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="K808" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="L808" s="2">
+        <v>1000</v>
+      </c>
+      <c r="M808" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="809" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A809" s="3">
+        <v>44294</v>
+      </c>
+      <c r="B809" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="C809" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D809" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E809" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F809" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G809" s="2"/>
+      <c r="H809" s="2"/>
+      <c r="I809" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J809" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="K809" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="L809" s="2">
+        <v>900</v>
+      </c>
+      <c r="M809" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="810" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A810" s="3">
+        <v>44294</v>
+      </c>
+      <c r="B810" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="C810" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D810" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E810" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F810" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G810" s="2"/>
+      <c r="H810" s="2"/>
+      <c r="I810" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J810" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="K810" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="L810" s="2">
+        <v>800</v>
+      </c>
+      <c r="M810" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="811" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A811" s="3">
+        <v>44294</v>
+      </c>
+      <c r="B811" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C811" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D811" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E811" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F811" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="G811" s="2"/>
+      <c r="H811" s="2"/>
+      <c r="I811" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J811" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="K811" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="L811" s="2">
+        <v>700</v>
+      </c>
+      <c r="M811" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="812" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A812" s="3">
+        <v>44294</v>
+      </c>
+      <c r="B812" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C812" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D812" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E812" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F812" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="G812" s="2"/>
+      <c r="H812" s="2"/>
+      <c r="I812" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J812" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="K812" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="L812" s="2">
+        <v>1000</v>
+      </c>
+      <c r="M812" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="813" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A813" s="3">
+        <v>44295</v>
+      </c>
+      <c r="B813" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C813" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D813" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E813" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F813" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G813" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H813" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I813" s="2"/>
+      <c r="J813" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K813" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L813" s="2">
+        <v>-105.3</v>
+      </c>
+      <c r="M813" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="814" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A814" s="3">
+        <v>44295</v>
+      </c>
+      <c r="B814" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C814" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D814" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E814" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F814" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G814" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H814" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I814" s="2"/>
+      <c r="J814" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="K814" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L814" s="2">
+        <v>110</v>
+      </c>
+      <c r="M814" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="815" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A815" s="3">
+        <v>44295</v>
+      </c>
+      <c r="B815" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C815" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D815" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E815" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F815" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G815" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H815" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I815" s="2"/>
+      <c r="J815" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="K815" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L815" s="2">
+        <v>112</v>
+      </c>
+      <c r="M815" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="816" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A816" s="3">
+        <v>44295</v>
+      </c>
+      <c r="B816" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C816" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D816" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E816" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F816" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G816" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H816" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I816" s="2"/>
+      <c r="J816" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K816" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L816" s="2">
+        <v>100</v>
+      </c>
+      <c r="M816" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="817" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A817" s="3">
+        <v>44295</v>
+      </c>
+      <c r="B817" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C817" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D817" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E817" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F817" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G817" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H817" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I817" s="2"/>
+      <c r="J817" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="K817" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="L817" s="2">
+        <v>112</v>
+      </c>
+      <c r="M817" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="818" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A818" s="3">
+        <v>44295</v>
+      </c>
+      <c r="B818" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C818" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D818" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E818" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F818" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G818" s="2"/>
+      <c r="H818" s="2"/>
+      <c r="I818" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J818" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="K818" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="L818" s="2">
+        <v>700</v>
+      </c>
+      <c r="M818" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="819" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A819" s="3">
+        <v>44295</v>
+      </c>
+      <c r="B819" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C819" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D819" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E819" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F819" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G819" s="2"/>
+      <c r="H819" s="2"/>
+      <c r="I819" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J819" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="K819" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="L819" s="2">
+        <v>900</v>
+      </c>
+      <c r="M819" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="820" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A820" s="3">
+        <v>44295</v>
+      </c>
+      <c r="B820" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C820" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D820" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E820" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F820" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G820" s="2"/>
+      <c r="H820" s="2"/>
+      <c r="I820" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J820" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="K820" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="L820" s="2">
+        <v>1000</v>
+      </c>
+      <c r="M820" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="821" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A821" s="3">
+        <v>44295</v>
+      </c>
+      <c r="B821" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C821" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D821" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E821" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F821" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="G821" s="2"/>
+      <c r="H821" s="2"/>
+      <c r="I821" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J821" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="K821" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="L821" s="2">
+        <v>800</v>
+      </c>
+      <c r="M821" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="822" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A822" s="3">
+        <v>44295</v>
+      </c>
+      <c r="B822" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C822" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D822" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E822" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F822" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="G822" s="2"/>
+      <c r="H822" s="2"/>
+      <c r="I822" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J822" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="K822" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="L822" s="2">
+        <v>600</v>
+      </c>
+      <c r="M822" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="823" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A823" s="3">
+        <v>44295</v>
+      </c>
+      <c r="B823" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C823" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D823" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E823" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F823" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="G823" s="2"/>
+      <c r="H823" s="2"/>
+      <c r="I823" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J823" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="K823" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="L823" s="2">
+        <v>500</v>
+      </c>
+      <c r="M823" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="824" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A824" s="3">
+        <v>44295</v>
+      </c>
+      <c r="B824" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C824" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D824" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E824" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F824" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="G824" s="2"/>
+      <c r="H824" s="2"/>
+      <c r="I824" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J824" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="K824" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="L824" s="2">
+        <v>950</v>
+      </c>
+      <c r="M824" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="825" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A825" s="3">
+        <v>44295</v>
+      </c>
+      <c r="B825" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C825" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D825" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E825" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F825" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="G825" s="2"/>
+      <c r="H825" s="2"/>
+      <c r="I825" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J825" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="K825" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="L825" s="2">
+        <v>480</v>
+      </c>
+      <c r="M825" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="826" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A826" s="3">
+        <v>44295</v>
+      </c>
+      <c r="B826" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C826" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D826" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E826" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F826" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="G826" s="2"/>
+      <c r="H826" s="2"/>
+      <c r="I826" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J826" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="K826" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="L826" s="2">
+        <v>1000</v>
+      </c>
+      <c r="M826" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="827" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A827" s="3">
+        <v>44295</v>
+      </c>
+      <c r="B827" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C827" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D827" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E827" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F827" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="G827" s="2"/>
+      <c r="H827" s="2"/>
+      <c r="I827" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J827" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="K827" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="L827" s="2">
+        <v>850</v>
+      </c>
+      <c r="M827" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="828" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A828" s="3">
+        <v>44295</v>
+      </c>
+      <c r="B828" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="C828" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D828" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E828" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F828" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G828" s="2"/>
+      <c r="H828" s="2"/>
+      <c r="I828" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J828" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="K828" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="L828" s="2">
+        <v>1100</v>
+      </c>
+      <c r="M828" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="829" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A829" s="3">
+        <v>44295</v>
+      </c>
+      <c r="B829" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="C829" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D829" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E829" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F829" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G829" s="2"/>
+      <c r="H829" s="2"/>
+      <c r="I829" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J829" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="K829" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="L829" s="2">
+        <v>1000</v>
+      </c>
+      <c r="M829" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="830" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A830" s="3">
+        <v>44295</v>
+      </c>
+      <c r="B830" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="C830" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D830" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E830" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F830" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G830" s="2"/>
+      <c r="H830" s="2"/>
+      <c r="I830" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J830" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="K830" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="L830" s="2">
+        <v>800</v>
+      </c>
+      <c r="M830" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="831" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A831" s="3">
+        <v>44295</v>
+      </c>
+      <c r="B831" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="C831" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D831" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E831" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F831" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G831" s="2"/>
+      <c r="H831" s="2"/>
+      <c r="I831" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J831" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="K831" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="L831" s="2">
+        <v>650</v>
+      </c>
+      <c r="M831" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="832" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A832" s="3">
+        <v>44295</v>
+      </c>
+      <c r="B832" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="C832" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D832" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E832" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F832" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G832" s="2"/>
+      <c r="H832" s="2"/>
+      <c r="I832" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J832" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="K832" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="L832" s="2">
+        <v>1200</v>
+      </c>
+      <c r="M832" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="833" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A833" s="3">
+        <v>44295</v>
+      </c>
+      <c r="B833" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="C833" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D833" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E833" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F833" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G833" s="2"/>
+      <c r="H833" s="2"/>
+      <c r="I833" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J833" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="K833" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="L833" s="2">
+        <v>1000</v>
+      </c>
+      <c r="M833" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="834" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A834" s="3">
+        <v>44295</v>
+      </c>
+      <c r="B834" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="C834" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D834" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E834" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F834" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G834" s="2"/>
+      <c r="H834" s="2"/>
+      <c r="I834" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J834" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="K834" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="L834" s="2">
+        <v>1200</v>
+      </c>
+      <c r="M834" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="835" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A835" s="3">
+        <v>44295</v>
+      </c>
+      <c r="B835" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C835" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D835" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E835" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F835" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="G835" s="2"/>
+      <c r="H835" s="2"/>
+      <c r="I835" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J835" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="K835" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="L835" s="2">
+        <v>650</v>
+      </c>
+      <c r="M835" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="836" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A836" s="3">
+        <v>44296</v>
+      </c>
+      <c r="B836" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C836" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D836" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E836" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F836" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G836" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H836" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I836" s="2"/>
+      <c r="J836" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K836" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L836" s="2">
+        <v>113</v>
+      </c>
+      <c r="M836" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="837" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A837" s="3">
+        <v>44296</v>
+      </c>
+      <c r="B837" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C837" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D837" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E837" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F837" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G837" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H837" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I837" s="2"/>
+      <c r="J837" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K837" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="L837" s="2">
+        <v>124</v>
+      </c>
+      <c r="M837" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="838" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A838" s="3">
+        <v>44296</v>
+      </c>
+      <c r="B838" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C838" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D838" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E838" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F838" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G838" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H838" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I838" s="2"/>
+      <c r="J838" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="K838" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L838" s="2">
+        <v>-104</v>
+      </c>
+      <c r="M838" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="839" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A839" s="3">
+        <v>44296</v>
+      </c>
+      <c r="B839" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C839" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D839" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E839" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F839" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G839" s="2"/>
+      <c r="H839" s="2"/>
+      <c r="I839" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J839" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="K839" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="L839" s="2">
+        <v>600</v>
+      </c>
+      <c r="M839" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="840" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A840" s="3">
+        <v>44296</v>
+      </c>
+      <c r="B840" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C840" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D840" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E840" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F840" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="G840" s="2"/>
+      <c r="H840" s="2"/>
+      <c r="I840" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J840" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="K840" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="L840" s="2">
+        <v>600</v>
+      </c>
+      <c r="M840" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="841" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A841" s="3">
+        <v>44296</v>
+      </c>
+      <c r="B841" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C841" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D841" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E841" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F841" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="G841" s="2"/>
+      <c r="H841" s="2"/>
+      <c r="I841" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J841" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="K841" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="L841" s="2">
+        <v>950</v>
+      </c>
+      <c r="M841" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="842" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A842" s="3">
+        <v>44296</v>
+      </c>
+      <c r="B842" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C842" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D842" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E842" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F842" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="G842" s="2"/>
+      <c r="H842" s="2"/>
+      <c r="I842" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J842" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="K842" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="L842" s="2">
+        <v>750</v>
+      </c>
+      <c r="M842" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="843" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A843" s="3">
+        <v>44296</v>
+      </c>
+      <c r="B843" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C843" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D843" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E843" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F843" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="G843" s="2"/>
+      <c r="H843" s="2"/>
+      <c r="I843" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J843" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="K843" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="L843" s="2">
+        <v>850</v>
+      </c>
+      <c r="M843" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="844" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A844" s="3">
+        <v>44296</v>
+      </c>
+      <c r="B844" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="C844" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D844" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E844" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F844" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G844" s="2"/>
+      <c r="H844" s="2"/>
+      <c r="I844" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J844" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="K844" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="L844" s="2">
+        <v>700</v>
+      </c>
+      <c r="M844" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="845" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A845" s="3">
+        <v>44296</v>
+      </c>
+      <c r="B845" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="C845" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D845" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E845" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F845" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G845" s="2"/>
+      <c r="H845" s="2"/>
+      <c r="I845" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J845" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="K845" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="L845" s="2">
+        <v>650</v>
+      </c>
+      <c r="M845" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="846" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A846" s="3">
+        <v>44296</v>
+      </c>
+      <c r="B846" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="C846" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D846" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E846" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F846" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G846" s="2"/>
+      <c r="H846" s="2"/>
+      <c r="I846" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J846" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="K846" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="L846" s="2">
+        <v>1200</v>
+      </c>
+      <c r="M846" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="847" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A847" s="3">
+        <v>44296</v>
+      </c>
+      <c r="B847" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="C847" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D847" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E847" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F847" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G847" s="2"/>
+      <c r="H847" s="2"/>
+      <c r="I847" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J847" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="K847" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="L847" s="2">
+        <v>1400</v>
+      </c>
+      <c r="M847" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="848" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A848" s="3">
+        <v>44297</v>
+      </c>
+      <c r="B848" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C848" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D848" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E848" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F848" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G848" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H848" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I848" s="2"/>
+      <c r="J848" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K848" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="L848" s="2">
+        <v>-125</v>
+      </c>
+      <c r="M848" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="849" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A849" s="3">
+        <v>44297</v>
+      </c>
+      <c r="B849" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C849" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D849" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E849" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F849" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G849" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H849" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I849" s="2"/>
+      <c r="J849" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="K849" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="L849" s="2">
+        <v>-126.6</v>
+      </c>
+      <c r="M849" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="850" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A850" s="3">
+        <v>44297</v>
+      </c>
+      <c r="B850" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C850" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D850" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E850" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F850" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G850" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H850" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I850" s="2"/>
+      <c r="J850" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K850" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L850" s="2">
+        <v>102</v>
+      </c>
+      <c r="M850" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="851" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A851" s="3">
+        <v>44297</v>
+      </c>
+      <c r="B851" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C851" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D851" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E851" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F851" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G851" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H851" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I851" s="2"/>
+      <c r="J851" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="K851" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="L851" s="2">
+        <v>112</v>
+      </c>
+      <c r="M851" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="852" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A852" s="3">
+        <v>44297</v>
+      </c>
+      <c r="B852" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C852" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D852" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E852" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F852" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G852" s="2"/>
+      <c r="H852" s="2"/>
+      <c r="I852" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J852" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="K852" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="L852" s="2">
+        <v>1200</v>
+      </c>
+      <c r="M852" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="853" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A853" s="3">
+        <v>44297</v>
+      </c>
+      <c r="B853" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="C853" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D853" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E853" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F853" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G853" s="2"/>
+      <c r="H853" s="2"/>
+      <c r="I853" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J853" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="K853" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="L853" s="2">
+        <v>650</v>
+      </c>
+      <c r="M853" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="854" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A854" s="3">
+        <v>44297</v>
+      </c>
+      <c r="B854" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="C854" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D854" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E854" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F854" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G854" s="2"/>
+      <c r="H854" s="2"/>
+      <c r="I854" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J854" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="K854" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="L854" s="2">
+        <v>900</v>
+      </c>
+      <c r="M854" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="855" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A855" s="3">
+        <v>44297</v>
+      </c>
+      <c r="B855" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C855" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D855" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E855" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F855" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G855" s="2"/>
+      <c r="H855" s="2"/>
+      <c r="I855" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J855" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="K855" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="L855" s="2">
+        <v>950</v>
+      </c>
+      <c r="M855" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="856" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A856" s="3">
+        <v>44297</v>
+      </c>
+      <c r="B856" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C856" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D856" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E856" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F856" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G856" s="2"/>
+      <c r="H856" s="2"/>
+      <c r="I856" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J856" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="K856" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="L856" s="2">
+        <v>850</v>
+      </c>
+      <c r="M856" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="857" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A857" s="3">
+        <v>44297</v>
+      </c>
+      <c r="B857" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C857" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D857" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E857" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F857" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="G857" s="2"/>
+      <c r="H857" s="2"/>
+      <c r="I857" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J857" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="K857" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="L857" s="2">
+        <v>850</v>
+      </c>
+      <c r="M857" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="858" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A858" s="3">
+        <v>44297</v>
+      </c>
+      <c r="B858" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C858" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D858" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E858" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F858" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="G858" s="2"/>
+      <c r="H858" s="2"/>
+      <c r="I858" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J858" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="K858" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="L858" s="2">
+        <v>500</v>
+      </c>
+      <c r="M858" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="859" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A859" s="3">
+        <v>44297</v>
+      </c>
+      <c r="B859" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C859" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D859" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E859" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F859" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="G859" s="2"/>
+      <c r="H859" s="2"/>
+      <c r="I859" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J859" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="K859" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="L859" s="2">
+        <v>600</v>
+      </c>
+      <c r="M859" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="860" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A860" s="3">
+        <v>44297</v>
+      </c>
+      <c r="B860" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C860" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D860" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E860" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F860" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="G860" s="2"/>
+      <c r="H860" s="2"/>
+      <c r="I860" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J860" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="K860" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="L860" s="2">
+        <v>800</v>
+      </c>
+      <c r="M860" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="861" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A861" s="3">
+        <v>44297</v>
+      </c>
+      <c r="B861" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C861" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D861" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E861" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F861" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="G861" s="2"/>
+      <c r="H861" s="2"/>
+      <c r="I861" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J861" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="K861" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="L861" s="2">
+        <v>550</v>
+      </c>
+      <c r="M861" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="862" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A862" s="3">
+        <v>44297</v>
+      </c>
+      <c r="B862" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C862" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D862" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E862" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F862" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="G862" s="2"/>
+      <c r="H862" s="2"/>
+      <c r="I862" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J862" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="K862" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="L862" s="2">
+        <v>700</v>
+      </c>
+      <c r="M862" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="863" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A863" s="3">
+        <v>44297</v>
+      </c>
+      <c r="B863" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C863" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D863" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E863" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F863" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="G863" s="2"/>
+      <c r="H863" s="2"/>
+      <c r="I863" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J863" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="K863" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="L863" s="2">
+        <v>900</v>
+      </c>
+      <c r="M863" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="864" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A864" s="3">
+        <v>44297</v>
+      </c>
+      <c r="B864" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C864" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D864" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E864" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F864" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="G864" s="2"/>
+      <c r="H864" s="2"/>
+      <c r="I864" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J864" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="K864" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="L864" s="2">
+        <v>550</v>
+      </c>
+      <c r="M864" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="865" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A865" s="3">
+        <v>44297</v>
+      </c>
+      <c r="B865" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C865" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D865" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E865" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F865" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="G865" s="2"/>
+      <c r="H865" s="2"/>
+      <c r="I865" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J865" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="K865" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="L865" s="2">
+        <v>1000</v>
+      </c>
+      <c r="M865" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="866" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A866" s="3">
+        <v>44297</v>
+      </c>
+      <c r="B866" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C866" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D866" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E866" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F866" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="G866" s="2"/>
+      <c r="H866" s="2"/>
+      <c r="I866" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J866" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="K866" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="L866" s="2">
+        <v>650</v>
+      </c>
+      <c r="M866" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="867" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A867" s="3">
+        <v>44297</v>
+      </c>
+      <c r="B867" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="C867" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D867" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E867" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F867" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G867" s="2"/>
+      <c r="H867" s="2"/>
+      <c r="I867" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J867" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="K867" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="L867" s="2">
+        <v>850</v>
+      </c>
+      <c r="M867" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="868" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A868" s="3">
+        <v>44297</v>
+      </c>
+      <c r="B868" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="C868" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D868" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E868" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F868" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G868" s="2"/>
+      <c r="H868" s="2"/>
+      <c r="I868" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J868" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="K868" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="L868" s="2">
+        <v>1200</v>
+      </c>
+      <c r="M868" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="869" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A869" s="3">
+        <v>44297</v>
+      </c>
+      <c r="B869" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="C869" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D869" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E869" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F869" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G869" s="2"/>
+      <c r="H869" s="2"/>
+      <c r="I869" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J869" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="K869" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="L869" s="2">
+        <v>450</v>
+      </c>
+      <c r="M869" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="870" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A870" s="3">
+        <v>44297</v>
+      </c>
+      <c r="B870" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="C870" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D870" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E870" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F870" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G870" s="2"/>
+      <c r="H870" s="2"/>
+      <c r="I870" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J870" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="K870" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="L870" s="2">
+        <v>850</v>
+      </c>
+      <c r="M870" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="871" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A871" s="3">
+        <v>44297</v>
+      </c>
+      <c r="B871" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="C871" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D871" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E871" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F871" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G871" s="2"/>
+      <c r="H871" s="2"/>
+      <c r="I871" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J871" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="K871" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="L871" s="2">
+        <v>700</v>
+      </c>
+      <c r="M871" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="872" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A872" s="3">
+        <v>44297</v>
+      </c>
+      <c r="B872" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="C872" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D872" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E872" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F872" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G872" s="2"/>
+      <c r="H872" s="2"/>
+      <c r="I872" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J872" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="K872" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="L872" s="2">
+        <v>900</v>
+      </c>
+      <c r="M872" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="873" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A873" s="3">
+        <v>44297</v>
+      </c>
+      <c r="B873" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="C873" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D873" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E873" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F873" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G873" s="2"/>
+      <c r="H873" s="2"/>
+      <c r="I873" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J873" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="K873" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="L873" s="2">
+        <v>550</v>
+      </c>
+      <c r="M873" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="874" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A874" s="3">
+        <v>44298</v>
+      </c>
+      <c r="B874" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="C874" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D874" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E874" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F874" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G874" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H874" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J874" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L874" s="2">
+        <v>-112.4</v>
+      </c>
+    </row>
+    <row r="875" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A875" s="3">
+        <v>44298</v>
+      </c>
+      <c r="B875" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="C875" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D875" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E875" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F875" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G875" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H875" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J875" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="L875" s="2">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="876" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A876" s="3">
+        <v>44298</v>
+      </c>
+      <c r="B876" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C876" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D876" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E876" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F876" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G876" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H876" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J876" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="L876" s="2">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="877" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A877" s="3">
+        <v>44298</v>
+      </c>
+      <c r="B877" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C877" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D877" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E877" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F877" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G877" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H877" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J877" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L877" s="2">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="878" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A878" s="3">
+        <v>44298</v>
+      </c>
+      <c r="B878" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C878" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D878" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E878" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F878" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G878" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H878" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J878" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L878" s="2">
+        <v>110</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="A634:M642">
-    <cfRule type="expression" dxfId="19" priority="2">
+  <conditionalFormatting sqref="A634:M642 A874:H878 J874:J878">
+    <cfRule type="expression" dxfId="38" priority="23">
       <formula>$B634=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A503:B521">
-    <cfRule type="expression" dxfId="18" priority="19">
+    <cfRule type="expression" dxfId="37" priority="40">
       <formula>$B503=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C503:D521">
-    <cfRule type="expression" dxfId="17" priority="18">
+    <cfRule type="expression" dxfId="36" priority="39">
       <formula>$B503=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E503:I521">
-    <cfRule type="expression" dxfId="16" priority="17">
+    <cfRule type="expression" dxfId="35" priority="38">
       <formula>$B503=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J503:J521">
-    <cfRule type="expression" dxfId="15" priority="16">
+    <cfRule type="expression" dxfId="34" priority="37">
       <formula>$B503=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K503:K521">
-    <cfRule type="expression" dxfId="14" priority="15">
+    <cfRule type="expression" dxfId="33" priority="36">
       <formula>$B503=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L503:M521">
-    <cfRule type="expression" dxfId="13" priority="14">
+    <cfRule type="expression" dxfId="32" priority="35">
       <formula>$B503=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A522:B551">
-    <cfRule type="expression" dxfId="12" priority="13">
+    <cfRule type="expression" dxfId="31" priority="34">
       <formula>$B522=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C522:D551">
-    <cfRule type="expression" dxfId="11" priority="12">
+    <cfRule type="expression" dxfId="30" priority="33">
       <formula>$B522=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E522:I551">
-    <cfRule type="expression" dxfId="10" priority="11">
+    <cfRule type="expression" dxfId="29" priority="32">
       <formula>$B522=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J522:J551">
-    <cfRule type="expression" dxfId="9" priority="10">
+    <cfRule type="expression" dxfId="28" priority="31">
       <formula>$B522=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K522:K551">
-    <cfRule type="expression" dxfId="8" priority="9">
+    <cfRule type="expression" dxfId="27" priority="30">
       <formula>$B522=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L522:M551">
-    <cfRule type="expression" dxfId="7" priority="8">
+    <cfRule type="expression" dxfId="26" priority="29">
       <formula>$B522=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A552:M561">
-    <cfRule type="expression" dxfId="6" priority="7">
+    <cfRule type="expression" dxfId="25" priority="28">
       <formula>$B552=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A562:M588">
-    <cfRule type="expression" dxfId="5" priority="6">
+    <cfRule type="expression" dxfId="24" priority="27">
       <formula>$B562=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A589:M599">
-    <cfRule type="expression" dxfId="4" priority="5">
+    <cfRule type="expression" dxfId="23" priority="26">
       <formula>$B589=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A600:M611">
-    <cfRule type="expression" dxfId="3" priority="4">
+    <cfRule type="expression" dxfId="22" priority="25">
       <formula>$B600=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A612:M633">
-    <cfRule type="expression" dxfId="2" priority="3">
+    <cfRule type="expression" dxfId="21" priority="24">
       <formula>$B612=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A643:M665">
+    <cfRule type="expression" dxfId="20" priority="22">
+      <formula>$B643=""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A666:B675">
+    <cfRule type="expression" dxfId="19" priority="21">
+      <formula>$B666=""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C666:D675">
+    <cfRule type="expression" dxfId="18" priority="20">
+      <formula>$B666=""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E666:J675">
+    <cfRule type="expression" dxfId="17" priority="19">
+      <formula>$B666=""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K666:K675">
+    <cfRule type="expression" dxfId="16" priority="18">
+      <formula>$B666=""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L666:M675">
+    <cfRule type="expression" dxfId="15" priority="17">
+      <formula>$B666=""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A676:B698">
+    <cfRule type="expression" dxfId="14" priority="16">
+      <formula>$B676=""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C676:D698">
+    <cfRule type="expression" dxfId="13" priority="15">
+      <formula>$B676=""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E676:J698">
+    <cfRule type="expression" dxfId="12" priority="14">
+      <formula>$B676=""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K676:K698">
+    <cfRule type="expression" dxfId="11" priority="13">
+      <formula>$B676=""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L676:M698">
+    <cfRule type="expression" dxfId="10" priority="12">
+      <formula>$B676=""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A699:M713">
+    <cfRule type="expression" dxfId="9" priority="11">
+      <formula>$B699=""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A714:M729">
+    <cfRule type="expression" dxfId="8" priority="10">
+      <formula>$B714=""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A730:N747">
+    <cfRule type="expression" dxfId="7" priority="9">
+      <formula>$B730=""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A748:M768">
+    <cfRule type="expression" dxfId="6" priority="8">
+      <formula>$B748=""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A769:N791">
+    <cfRule type="expression" dxfId="5" priority="7">
+      <formula>$B769=""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A792:M812">
+    <cfRule type="expression" dxfId="4" priority="6">
+      <formula>$B792=""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A813:M835">
+    <cfRule type="expression" dxfId="3" priority="5">
+      <formula>$B813=""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A836:M847">
+    <cfRule type="expression" dxfId="2" priority="4">
+      <formula>$B836=""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A848:M873">
+    <cfRule type="expression" dxfId="1" priority="3">
+      <formula>$B848=""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L874:L878">
     <cfRule type="expression" dxfId="0" priority="1">
-      <formula>$B643=""</formula>
+      <formula>$B874=""</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/scratch/Prop Bets.xlsx
+++ b/scratch/Prop Bets.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kjzk13/Desktop/Fun/Betting/Models/Git/NBA/data_repos/gambling_stuff/scratch/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27EA67C2-0520-5944-AAEA-084775EBD610}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC7D83F4-9138-DA4A-8768-8604B53ED0CC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{A921039E-F491-3040-A02B-E90974210F5A}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16220" xr2:uid="{A921039E-F491-3040-A02B-E90974210F5A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="13" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9229" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9958" uniqueCount="270">
   <si>
     <t>Date</t>
   </si>
@@ -826,6 +826,27 @@
   <si>
     <t>Garrett Temple</t>
   </si>
+  <si>
+    <t>Hassan Whiteside</t>
+  </si>
+  <si>
+    <t>Seth Curry</t>
+  </si>
+  <si>
+    <t>Royce O'Neale</t>
+  </si>
+  <si>
+    <t>Aleksej Pokusevski</t>
+  </si>
+  <si>
+    <t>Vernon Carey</t>
+  </si>
+  <si>
+    <t>Anthony Davis</t>
+  </si>
+  <si>
+    <t>Cole Anthony</t>
+  </si>
 </sst>
 </file>
 
@@ -885,7 +906,27 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="42">
+  <dxfs count="46">
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <color theme="0" tint="-0.499984740745262"/>
@@ -1406,10 +1447,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C79C926B-E4E0-6445-8BE2-2104EE8EA8CE}">
-  <dimension ref="A1:N999"/>
+  <dimension ref="A1:N1078"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A982" workbookViewId="0">
-      <selection activeCell="N1000" sqref="N1000"/>
+    <sheetView tabSelected="1" topLeftCell="A1053" workbookViewId="0">
+      <selection activeCell="N1079" sqref="N1079"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -41853,215 +41894,3431 @@
         <v>1</v>
       </c>
     </row>
+    <row r="1000" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1000" s="3">
+        <v>44304</v>
+      </c>
+      <c r="B1000" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1000" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1000" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1000" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1000" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G1000" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1000" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1000" s="2"/>
+      <c r="J1000" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K1000" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="L1000" s="2">
+        <v>105</v>
+      </c>
+      <c r="M1000" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1000">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1001" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1001" s="3">
+        <v>44304</v>
+      </c>
+      <c r="B1001" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C1001" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D1001" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1001" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1001" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G1001" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1001" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1001" s="2"/>
+      <c r="J1001" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="K1001" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="L1001" s="2">
+        <v>104</v>
+      </c>
+      <c r="M1001" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="N1001">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1002" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1002" s="3">
+        <v>44304</v>
+      </c>
+      <c r="B1002" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C1002" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1002" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1002" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1002" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G1002" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1002" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1002" s="2"/>
+      <c r="J1002" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K1002" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L1002" s="2">
+        <v>-102</v>
+      </c>
+      <c r="M1002" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1002">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1003" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1003" s="3">
+        <v>44304</v>
+      </c>
+      <c r="B1003" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C1003" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1003" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1003" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1003" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G1003" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1003" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1003" s="2"/>
+      <c r="J1003" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K1003" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L1003" s="2">
+        <v>-104</v>
+      </c>
+      <c r="M1003" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="N1003">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1004" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1004" s="3">
+        <v>44304</v>
+      </c>
+      <c r="B1004" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C1004" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1004" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1004" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1004" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="G1004" s="2"/>
+      <c r="H1004" s="2"/>
+      <c r="I1004" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1004" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="K1004" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="L1004" s="2">
+        <v>700</v>
+      </c>
+      <c r="M1004" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1004">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1005" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1005" s="3">
+        <v>44304</v>
+      </c>
+      <c r="B1005" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C1005" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1005" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1005" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1005" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="G1005" s="2"/>
+      <c r="H1005" s="2"/>
+      <c r="I1005" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1005" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="K1005" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="L1005" s="2">
+        <v>800</v>
+      </c>
+      <c r="M1005" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1005">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1006" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1006" s="3">
+        <v>44304</v>
+      </c>
+      <c r="B1006" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C1006" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1006" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1006" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1006" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1006" s="2"/>
+      <c r="H1006" s="2"/>
+      <c r="I1006" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1006" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="K1006" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="L1006" s="2">
+        <v>650</v>
+      </c>
+      <c r="M1006" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1006">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1007" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1007" s="3">
+        <v>44304</v>
+      </c>
+      <c r="B1007" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1007" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1007" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E1007" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1007" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="G1007" s="2"/>
+      <c r="H1007" s="2"/>
+      <c r="I1007" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1007" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="K1007" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="L1007" s="2">
+        <v>700</v>
+      </c>
+      <c r="M1007" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1007">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1008" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1008" s="3">
+        <v>44304</v>
+      </c>
+      <c r="B1008" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1008" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1008" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1008" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1008" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1008" s="2"/>
+      <c r="H1008" s="2"/>
+      <c r="I1008" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1008" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="K1008" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="L1008" s="2">
+        <v>550</v>
+      </c>
+      <c r="M1008" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1008">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1009" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1009" s="3">
+        <v>44304</v>
+      </c>
+      <c r="B1009" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1009" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D1009" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1009" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1009" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1009" s="2"/>
+      <c r="H1009" s="2"/>
+      <c r="I1009" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1009" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="K1009" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="L1009" s="2">
+        <v>510</v>
+      </c>
+      <c r="M1009" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1009">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1010" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1010" s="3">
+        <v>44304</v>
+      </c>
+      <c r="B1010" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="C1010" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D1010" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1010" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1010" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1010" s="2"/>
+      <c r="H1010" s="2"/>
+      <c r="I1010" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1010" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="K1010" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="L1010" s="2">
+        <v>850</v>
+      </c>
+      <c r="M1010" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1010">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1011" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1011" s="3">
+        <v>44305</v>
+      </c>
+      <c r="B1011" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1011" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1011" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1011" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1011" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G1011" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1011" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1011" s="2"/>
+      <c r="J1011" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K1011" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L1011" s="2">
+        <v>105</v>
+      </c>
+      <c r="M1011" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1011">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1012" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1012" s="3">
+        <v>44305</v>
+      </c>
+      <c r="B1012" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C1012" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1012" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1012" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1012" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G1012" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1012" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1012" s="2"/>
+      <c r="J1012" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K1012" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="L1012" s="2">
+        <v>112</v>
+      </c>
+      <c r="M1012" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1012">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1013" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1013" s="3">
+        <v>44305</v>
+      </c>
+      <c r="B1013" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1013" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1013" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1013" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1013" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1013" s="2"/>
+      <c r="H1013" s="2"/>
+      <c r="I1013" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1013" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K1013" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="L1013" s="2">
+        <v>700</v>
+      </c>
+      <c r="M1013" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1013">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1014" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1014" s="3">
+        <v>44305</v>
+      </c>
+      <c r="B1014" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1014" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1014" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1014" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1014" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1014" s="2"/>
+      <c r="H1014" s="2"/>
+      <c r="I1014" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1014" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="K1014" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="L1014" s="2">
+        <v>900</v>
+      </c>
+      <c r="M1014" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1014">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1015" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1015" s="3">
+        <v>44305</v>
+      </c>
+      <c r="B1015" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C1015" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1015" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1015" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1015" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="G1015" s="2"/>
+      <c r="H1015" s="2"/>
+      <c r="I1015" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1015" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="K1015" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="L1015" s="2">
+        <v>700</v>
+      </c>
+      <c r="M1015" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1015">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1016" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1016" s="3">
+        <v>44305</v>
+      </c>
+      <c r="B1016" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C1016" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D1016" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1016" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1016" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="G1016" s="2"/>
+      <c r="H1016" s="2"/>
+      <c r="I1016" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1016" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="K1016" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="L1016" s="2">
+        <v>1100</v>
+      </c>
+      <c r="M1016" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="N1016">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="1017" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1017" s="3">
+        <v>44305</v>
+      </c>
+      <c r="B1017" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C1017" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1017" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1017" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1017" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="G1017" s="2"/>
+      <c r="H1017" s="2"/>
+      <c r="I1017" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1017" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="K1017" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="L1017" s="2">
+        <v>750</v>
+      </c>
+      <c r="M1017" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1017">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="1018" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1018" s="3">
+        <v>44305</v>
+      </c>
+      <c r="B1018" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C1018" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1018" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1018" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1018" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="G1018" s="2"/>
+      <c r="H1018" s="2"/>
+      <c r="I1018" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1018" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="K1018" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="L1018" s="2">
+        <v>650</v>
+      </c>
+      <c r="M1018" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1018">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="1019" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1019" s="3">
+        <v>44305</v>
+      </c>
+      <c r="B1019" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C1019" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1019" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1019" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1019" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="G1019" s="2"/>
+      <c r="H1019" s="2"/>
+      <c r="I1019" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1019" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="K1019" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="L1019" s="2">
+        <v>650</v>
+      </c>
+      <c r="M1019" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1019">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1020" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1020" s="3">
+        <v>44305</v>
+      </c>
+      <c r="B1020" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="C1020" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D1020" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1020" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1020" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1020" s="2"/>
+      <c r="H1020" s="2"/>
+      <c r="I1020" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1020" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="K1020" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="L1020" s="2">
+        <v>1100</v>
+      </c>
+      <c r="M1020" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="N1020">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="1021" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1021" s="3">
+        <v>44305</v>
+      </c>
+      <c r="B1021" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="C1021" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1021" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1021" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1021" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1021" s="2"/>
+      <c r="H1021" s="2"/>
+      <c r="I1021" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1021" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="K1021" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="L1021" s="2">
+        <v>750</v>
+      </c>
+      <c r="M1021" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1021">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="1022" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1022" s="3">
+        <v>44305</v>
+      </c>
+      <c r="B1022" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="C1022" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1022" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1022" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1022" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1022" s="2"/>
+      <c r="H1022" s="2"/>
+      <c r="I1022" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1022" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="K1022" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="L1022" s="2">
+        <v>850</v>
+      </c>
+      <c r="M1022" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1022">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1023" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1023" s="3">
+        <v>44305</v>
+      </c>
+      <c r="B1023" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="C1023" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1023" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1023" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1023" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1023" s="2"/>
+      <c r="H1023" s="2"/>
+      <c r="I1023" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1023" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="K1023" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="L1023" s="2">
+        <v>650</v>
+      </c>
+      <c r="M1023" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1023">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="1024" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1024" s="3">
+        <v>44306</v>
+      </c>
+      <c r="B1024" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1024" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1024" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1024" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1024" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G1024" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1024" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1024" s="2"/>
+      <c r="J1024" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K1024" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L1024" s="2">
+        <v>118</v>
+      </c>
+      <c r="M1024" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="N1024">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1025" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1025" s="3">
+        <v>44306</v>
+      </c>
+      <c r="B1025" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C1025" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1025" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E1025" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1025" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G1025" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1025" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1025" s="2"/>
+      <c r="J1025" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K1025" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L1025" s="2">
+        <v>144</v>
+      </c>
+      <c r="M1025" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="N1025">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1026" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1026" s="3">
+        <v>44306</v>
+      </c>
+      <c r="B1026" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C1026" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1026" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1026" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1026" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="G1026" s="2"/>
+      <c r="H1026" s="2"/>
+      <c r="I1026" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1026" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="K1026" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="L1026" s="2">
+        <v>850</v>
+      </c>
+      <c r="M1026" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1026">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="1027" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1027" s="3">
+        <v>44306</v>
+      </c>
+      <c r="B1027" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C1027" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1027" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E1027" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1027" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="G1027" s="2"/>
+      <c r="H1027" s="2"/>
+      <c r="I1027" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1027" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="K1027" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="L1027" s="2">
+        <v>800</v>
+      </c>
+      <c r="M1027" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="N1027">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="1028" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1028" s="3">
+        <v>44306</v>
+      </c>
+      <c r="B1028" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C1028" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1028" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1028" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1028" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="G1028" s="2"/>
+      <c r="H1028" s="2"/>
+      <c r="I1028" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1028" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="K1028" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="L1028" s="2">
+        <v>1000</v>
+      </c>
+      <c r="M1028" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1028">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="1029" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1029" s="3">
+        <v>44306</v>
+      </c>
+      <c r="B1029" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C1029" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1029" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1029" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1029" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="G1029" s="2"/>
+      <c r="H1029" s="2"/>
+      <c r="I1029" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1029" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="K1029" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="L1029" s="2">
+        <v>650</v>
+      </c>
+      <c r="M1029" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1029">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="1030" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1030" s="3">
+        <v>44306</v>
+      </c>
+      <c r="B1030" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C1030" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1030" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1030" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1030" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="G1030" s="2"/>
+      <c r="H1030" s="2"/>
+      <c r="I1030" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1030" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="K1030" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="L1030" s="2">
+        <v>550</v>
+      </c>
+      <c r="M1030" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="N1030">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="1031" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1031" s="3">
+        <v>44306</v>
+      </c>
+      <c r="B1031" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1031" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1031" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1031" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1031" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1031" s="2"/>
+      <c r="H1031" s="2"/>
+      <c r="I1031" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1031" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="K1031" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="L1031" s="2">
+        <v>850</v>
+      </c>
+      <c r="M1031" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1031">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="1032" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1032" s="3">
+        <v>44306</v>
+      </c>
+      <c r="B1032" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1032" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1032" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1032" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1032" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1032" s="2"/>
+      <c r="H1032" s="2"/>
+      <c r="I1032" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1032" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="K1032" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="L1032" s="2">
+        <v>1000</v>
+      </c>
+      <c r="M1032" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1032">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="1033" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1033" s="3">
+        <v>44306</v>
+      </c>
+      <c r="B1033" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1033" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1033" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E1033" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1033" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1033" s="2"/>
+      <c r="H1033" s="2"/>
+      <c r="I1033" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1033" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="K1033" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="L1033" s="2">
+        <v>800</v>
+      </c>
+      <c r="M1033" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="N1033">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="1034" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1034" s="3">
+        <v>44306</v>
+      </c>
+      <c r="B1034" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1034" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1034" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1034" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1034" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1034" s="2"/>
+      <c r="H1034" s="2"/>
+      <c r="I1034" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1034" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="K1034" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="L1034" s="2">
+        <v>650</v>
+      </c>
+      <c r="M1034" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1034">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="1035" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1035" s="3">
+        <v>44306</v>
+      </c>
+      <c r="B1035" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1035" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D1035" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1035" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1035" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1035" s="2"/>
+      <c r="H1035" s="2"/>
+      <c r="I1035" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1035" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="K1035" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="L1035" s="2">
+        <v>460</v>
+      </c>
+      <c r="M1035" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1035">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1036" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1036" s="3">
+        <v>44306</v>
+      </c>
+      <c r="B1036" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="C1036" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1036" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1036" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1036" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1036" s="2"/>
+      <c r="H1036" s="2"/>
+      <c r="I1036" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1036" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="K1036" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="L1036" s="2">
+        <v>550</v>
+      </c>
+      <c r="M1036" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="N1036">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="1037" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1037" s="3">
+        <v>44307</v>
+      </c>
+      <c r="B1037" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C1037" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1037" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1037" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1037" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G1037" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1037" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1037" s="2"/>
+      <c r="J1037" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K1037" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L1037" s="2">
+        <v>-106</v>
+      </c>
+      <c r="M1037" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1037">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1038" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1038" s="3">
+        <v>44307</v>
+      </c>
+      <c r="B1038" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C1038" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1038" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1038" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1038" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G1038" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1038" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1038" s="2"/>
+      <c r="J1038" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="K1038" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L1038" s="2">
+        <v>142</v>
+      </c>
+      <c r="M1038" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1038">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1039" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1039" s="3">
+        <v>44307</v>
+      </c>
+      <c r="B1039" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1039" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D1039" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1039" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1039" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G1039" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1039" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1039" s="2"/>
+      <c r="J1039" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="K1039" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="L1039" s="2">
+        <v>-112.4</v>
+      </c>
+      <c r="M1039" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="N1039">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1040" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1040" s="3">
+        <v>44307</v>
+      </c>
+      <c r="B1040" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1040" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1040" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1040" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1040" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G1040" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1040" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1040" s="2"/>
+      <c r="J1040" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K1040" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="L1040" s="2">
+        <v>-108.7</v>
+      </c>
+      <c r="M1040" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1040">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1041" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1041" s="3">
+        <v>44307</v>
+      </c>
+      <c r="B1041" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C1041" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1041" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1041" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1041" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G1041" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1041" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1041" s="2"/>
+      <c r="J1041" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K1041" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L1041" s="2">
+        <v>102</v>
+      </c>
+      <c r="M1041" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="N1041">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1042" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1042" s="3">
+        <v>44307</v>
+      </c>
+      <c r="B1042" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="C1042" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1042" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1042" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1042" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G1042" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1042" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1042" s="2"/>
+      <c r="J1042" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K1042" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L1042" s="2">
+        <v>-108.7</v>
+      </c>
+      <c r="M1042" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="N1042">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1043" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1043" s="3">
+        <v>44307</v>
+      </c>
+      <c r="B1043" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1043" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1043" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1043" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1043" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1043" s="2"/>
+      <c r="H1043" s="2"/>
+      <c r="I1043" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1043" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="K1043" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="L1043" s="2">
+        <v>700</v>
+      </c>
+      <c r="M1043" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1043">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="1044" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1044" s="3">
+        <v>44307</v>
+      </c>
+      <c r="B1044" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1044" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1044" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1044" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1044" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1044" s="2"/>
+      <c r="H1044" s="2"/>
+      <c r="I1044" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1044" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="K1044" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="L1044" s="2">
+        <v>900</v>
+      </c>
+      <c r="M1044" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1044">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1045" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1045" s="3">
+        <v>44307</v>
+      </c>
+      <c r="B1045" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1045" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1045" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1045" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1045" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1045" s="2"/>
+      <c r="H1045" s="2"/>
+      <c r="I1045" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1045" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="K1045" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="L1045" s="2">
+        <v>650</v>
+      </c>
+      <c r="M1045" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1045">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1046" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1046" s="3">
+        <v>44307</v>
+      </c>
+      <c r="B1046" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1046" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D1046" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1046" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1046" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1046" s="2"/>
+      <c r="H1046" s="2"/>
+      <c r="I1046" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1046" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="K1046" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="L1046" s="2">
+        <v>480</v>
+      </c>
+      <c r="M1046" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1046">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1047" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1047" s="3">
+        <v>44307</v>
+      </c>
+      <c r="B1047" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1047" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D1047" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1047" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1047" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1047" s="2"/>
+      <c r="H1047" s="2"/>
+      <c r="I1047" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1047" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="K1047" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L1047" s="2">
+        <v>800</v>
+      </c>
+      <c r="M1047" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1047">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1048" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1048" s="3">
+        <v>44307</v>
+      </c>
+      <c r="B1048" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1048" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D1048" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1048" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1048" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1048" s="2"/>
+      <c r="H1048" s="2"/>
+      <c r="I1048" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1048" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="K1048" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="L1048" s="2">
+        <v>550</v>
+      </c>
+      <c r="M1048" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1048">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="1049" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1049" s="3">
+        <v>44307</v>
+      </c>
+      <c r="B1049" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1049" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1049" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1049" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1049" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1049" s="2"/>
+      <c r="H1049" s="2"/>
+      <c r="I1049" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1049" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="K1049" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="L1049" s="2">
+        <v>1400</v>
+      </c>
+      <c r="M1049" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1049">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="1050" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1050" s="3">
+        <v>44307</v>
+      </c>
+      <c r="B1050" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1050" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1050" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1050" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1050" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1050" s="2"/>
+      <c r="H1050" s="2"/>
+      <c r="I1050" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1050" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="K1050" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="L1050" s="2">
+        <v>1200</v>
+      </c>
+      <c r="M1050" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1050">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="1051" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1051" s="3">
+        <v>44307</v>
+      </c>
+      <c r="B1051" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1051" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1051" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1051" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1051" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1051" s="2"/>
+      <c r="H1051" s="2"/>
+      <c r="I1051" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1051" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="K1051" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="L1051" s="2">
+        <v>700</v>
+      </c>
+      <c r="M1051" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1051">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1052" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1052" s="3">
+        <v>44307</v>
+      </c>
+      <c r="B1052" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1052" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1052" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1052" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1052" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1052" s="2"/>
+      <c r="H1052" s="2"/>
+      <c r="I1052" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1052" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="K1052" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="L1052" s="2">
+        <v>1200</v>
+      </c>
+      <c r="M1052" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1052">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="1053" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1053" s="3">
+        <v>44307</v>
+      </c>
+      <c r="B1053" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C1053" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1053" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1053" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1053" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="G1053" s="2"/>
+      <c r="H1053" s="2"/>
+      <c r="I1053" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1053" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="K1053" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="L1053" s="2">
+        <v>550</v>
+      </c>
+      <c r="M1053" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1053">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1054" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1054" s="3">
+        <v>44307</v>
+      </c>
+      <c r="B1054" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C1054" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1054" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1054" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1054" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="G1054" s="2"/>
+      <c r="H1054" s="2"/>
+      <c r="I1054" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1054" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="K1054" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="L1054" s="2">
+        <v>700</v>
+      </c>
+      <c r="M1054" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1054">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="1055" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1055" s="3">
+        <v>44307</v>
+      </c>
+      <c r="B1055" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C1055" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D1055" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1055" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1055" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="G1055" s="2"/>
+      <c r="H1055" s="2"/>
+      <c r="I1055" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1055" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="K1055" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="L1055" s="2">
+        <v>550</v>
+      </c>
+      <c r="M1055" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1055">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="1056" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1056" s="3">
+        <v>44307</v>
+      </c>
+      <c r="B1056" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C1056" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1056" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1056" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1056" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="G1056" s="2"/>
+      <c r="H1056" s="2"/>
+      <c r="I1056" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1056" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="K1056" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="L1056" s="2">
+        <v>1400</v>
+      </c>
+      <c r="M1056" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1056">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="1057" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1057" s="3">
+        <v>44307</v>
+      </c>
+      <c r="B1057" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="C1057" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D1057" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1057" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1057" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1057" s="2"/>
+      <c r="H1057" s="2"/>
+      <c r="I1057" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1057" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K1057" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L1057" s="2">
+        <v>750</v>
+      </c>
+      <c r="M1057" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="N1057">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1058" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1058" s="3">
+        <v>44307</v>
+      </c>
+      <c r="B1058" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="C1058" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1058" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1058" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1058" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1058" s="2"/>
+      <c r="H1058" s="2"/>
+      <c r="I1058" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1058" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="K1058" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="L1058" s="2">
+        <v>1000</v>
+      </c>
+      <c r="M1058" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1058">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1059" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1059" s="3">
+        <v>44307</v>
+      </c>
+      <c r="B1059" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="C1059" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D1059" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1059" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1059" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1059" s="2"/>
+      <c r="H1059" s="2"/>
+      <c r="I1059" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1059" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="K1059" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="L1059" s="2">
+        <v>1300</v>
+      </c>
+      <c r="M1059" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1059">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1060" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1060" s="3">
+        <v>44307</v>
+      </c>
+      <c r="B1060" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C1060" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1060" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1060" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1060" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="G1060" s="2"/>
+      <c r="H1060" s="2"/>
+      <c r="I1060" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1060" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="K1060" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="L1060" s="2">
+        <v>800</v>
+      </c>
+      <c r="M1060" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1060">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1061" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1061" s="3">
+        <v>44307</v>
+      </c>
+      <c r="B1061" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="C1061" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1061" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1061" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1061" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1061" s="2"/>
+      <c r="H1061" s="2"/>
+      <c r="I1061" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1061" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K1061" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="L1061" s="2">
+        <v>400</v>
+      </c>
+      <c r="M1061" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="N1061">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1062" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1062" s="3">
+        <v>44308</v>
+      </c>
+      <c r="B1062" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1062" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1062" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1062" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1062" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G1062" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1062" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1062" s="2"/>
+      <c r="J1062" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K1062" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L1062" s="2">
+        <v>-112.4</v>
+      </c>
+      <c r="M1062" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1062">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1063" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1063" s="3">
+        <v>44308</v>
+      </c>
+      <c r="B1063" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C1063" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1063" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1063" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1063" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G1063" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1063" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1063" s="2"/>
+      <c r="J1063" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K1063" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L1063" s="2">
+        <v>134</v>
+      </c>
+      <c r="M1063" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="N1063">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1064" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1064" s="3">
+        <v>44308</v>
+      </c>
+      <c r="B1064" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C1064" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1064" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1064" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1064" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G1064" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1064" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1064" s="2"/>
+      <c r="J1064" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1064" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L1064" s="2">
+        <v>106</v>
+      </c>
+      <c r="M1064" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="N1064">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1065" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1065" s="3">
+        <v>44308</v>
+      </c>
+      <c r="B1065" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C1065" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1065" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1065" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1065" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G1065" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1065" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1065" s="2"/>
+      <c r="J1065" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K1065" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1065" s="2">
+        <v>122</v>
+      </c>
+      <c r="M1065" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1065">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1066" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1066" s="3">
+        <v>44308</v>
+      </c>
+      <c r="B1066" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C1066" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1066" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1066" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1066" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="G1066" s="2"/>
+      <c r="H1066" s="2"/>
+      <c r="I1066" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1066" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="K1066" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="L1066" s="2">
+        <v>1200</v>
+      </c>
+      <c r="M1066" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="N1066">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="1067" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1067" s="3">
+        <v>44308</v>
+      </c>
+      <c r="B1067" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="C1067" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1067" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1067" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1067" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1067" s="2"/>
+      <c r="H1067" s="2"/>
+      <c r="I1067" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1067" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="K1067" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="L1067" s="2">
+        <v>650</v>
+      </c>
+      <c r="M1067" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1067">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1068" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1068" s="3">
+        <v>44308</v>
+      </c>
+      <c r="B1068" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="C1068" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1068" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1068" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1068" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1068" s="2"/>
+      <c r="H1068" s="2"/>
+      <c r="I1068" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1068" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="K1068" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="L1068" s="2">
+        <v>1200</v>
+      </c>
+      <c r="M1068" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="N1068">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="1069" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1069" s="3">
+        <v>44308</v>
+      </c>
+      <c r="B1069" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="C1069" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1069" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E1069" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1069" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1069" s="2"/>
+      <c r="H1069" s="2"/>
+      <c r="I1069" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1069" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="K1069" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="L1069" s="2">
+        <v>1200</v>
+      </c>
+      <c r="M1069" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1069">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1070" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1070" s="3">
+        <v>44308</v>
+      </c>
+      <c r="B1070" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="C1070" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1070" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1070" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1070" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1070" s="2"/>
+      <c r="H1070" s="2"/>
+      <c r="I1070" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1070" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="K1070" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L1070" s="2">
+        <v>500</v>
+      </c>
+      <c r="M1070" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1070">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1071" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1071" s="3">
+        <v>44308</v>
+      </c>
+      <c r="B1071" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="C1071" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1071" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1071" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1071" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1071" s="2"/>
+      <c r="H1071" s="2"/>
+      <c r="I1071" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1071" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="K1071" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="L1071" s="2">
+        <v>650</v>
+      </c>
+      <c r="M1071" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1071">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1072" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1072" s="3">
+        <v>44308</v>
+      </c>
+      <c r="B1072" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="C1072" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D1072" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1072" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1072" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1072" s="2"/>
+      <c r="H1072" s="2"/>
+      <c r="I1072" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1072" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="K1072" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="L1072" s="2">
+        <v>850</v>
+      </c>
+      <c r="M1072" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1072">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1073" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1073" s="3">
+        <v>44308</v>
+      </c>
+      <c r="B1073" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="C1073" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D1073" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1073" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1073" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1073" s="2"/>
+      <c r="H1073" s="2"/>
+      <c r="I1073" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1073" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="K1073" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="L1073" s="2">
+        <v>900</v>
+      </c>
+      <c r="M1073" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1073">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1074" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1074" s="3">
+        <v>44308</v>
+      </c>
+      <c r="B1074" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="C1074" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1074" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1074" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1074" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1074" s="2"/>
+      <c r="H1074" s="2"/>
+      <c r="I1074" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1074" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="K1074" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L1074" s="2">
+        <v>650</v>
+      </c>
+      <c r="M1074" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1074">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1075" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1075" s="3">
+        <v>44308</v>
+      </c>
+      <c r="B1075" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1075" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1075" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E1075" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1075" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1075" s="2"/>
+      <c r="H1075" s="2"/>
+      <c r="I1075" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1075" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K1075" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="L1075" s="2">
+        <v>500</v>
+      </c>
+      <c r="M1075" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1075">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1076" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1076" s="3">
+        <v>44308</v>
+      </c>
+      <c r="B1076" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1076" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1076" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E1076" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1076" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1076" s="2"/>
+      <c r="H1076" s="2"/>
+      <c r="I1076" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1076" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="K1076" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="L1076" s="2">
+        <v>900</v>
+      </c>
+      <c r="M1076" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1076">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1077" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1077" s="3">
+        <v>44308</v>
+      </c>
+      <c r="B1077" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C1077" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1077" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1077" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1077" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="G1077" s="2"/>
+      <c r="H1077" s="2"/>
+      <c r="I1077" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1077" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K1077" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="L1077" s="2">
+        <v>490</v>
+      </c>
+      <c r="M1077" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1077">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1078" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1078" s="3">
+        <v>44308</v>
+      </c>
+      <c r="B1078" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C1078" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1078" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1078" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1078" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="G1078" s="2"/>
+      <c r="H1078" s="2"/>
+      <c r="I1078" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1078" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="K1078" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="L1078" s="2">
+        <v>900</v>
+      </c>
+      <c r="M1078" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1078">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="A634:M642 A874:H878 J874:J878 A916:M948 A965:M999">
-    <cfRule type="expression" dxfId="41" priority="31">
+  <conditionalFormatting sqref="A634:M642 A874:H878 J874:J878 A916:M948 A965:M999 A1011:K1023 L1011:M1022 A1024:M1036">
+    <cfRule type="expression" dxfId="45" priority="38">
       <formula>$B634=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A503:B521">
-    <cfRule type="expression" dxfId="40" priority="48">
+    <cfRule type="expression" dxfId="44" priority="55">
       <formula>$B503=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C503:D521">
-    <cfRule type="expression" dxfId="39" priority="47">
+    <cfRule type="expression" dxfId="43" priority="54">
       <formula>$B503=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E503:I521">
-    <cfRule type="expression" dxfId="38" priority="46">
+    <cfRule type="expression" dxfId="42" priority="53">
       <formula>$B503=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J503:J521">
-    <cfRule type="expression" dxfId="37" priority="45">
+    <cfRule type="expression" dxfId="41" priority="52">
       <formula>$B503=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K503:K521">
-    <cfRule type="expression" dxfId="36" priority="44">
+    <cfRule type="expression" dxfId="40" priority="51">
       <formula>$B503=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L503:M521">
-    <cfRule type="expression" dxfId="35" priority="43">
+    <cfRule type="expression" dxfId="39" priority="50">
       <formula>$B503=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A522:B551">
-    <cfRule type="expression" dxfId="34" priority="42">
+    <cfRule type="expression" dxfId="38" priority="49">
       <formula>$B522=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C522:D551">
-    <cfRule type="expression" dxfId="33" priority="41">
+    <cfRule type="expression" dxfId="37" priority="48">
       <formula>$B522=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E522:I551">
-    <cfRule type="expression" dxfId="32" priority="40">
+    <cfRule type="expression" dxfId="36" priority="47">
       <formula>$B522=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J522:J551">
-    <cfRule type="expression" dxfId="31" priority="39">
+    <cfRule type="expression" dxfId="35" priority="46">
       <formula>$B522=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K522:K551">
-    <cfRule type="expression" dxfId="30" priority="38">
+    <cfRule type="expression" dxfId="34" priority="45">
       <formula>$B522=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L522:M551">
-    <cfRule type="expression" dxfId="29" priority="37">
+    <cfRule type="expression" dxfId="33" priority="44">
       <formula>$B522=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A552:M561">
-    <cfRule type="expression" dxfId="28" priority="36">
+    <cfRule type="expression" dxfId="32" priority="43">
       <formula>$B552=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A562:M588">
-    <cfRule type="expression" dxfId="27" priority="35">
+    <cfRule type="expression" dxfId="31" priority="42">
       <formula>$B562=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A589:M599">
-    <cfRule type="expression" dxfId="26" priority="34">
+    <cfRule type="expression" dxfId="30" priority="41">
       <formula>$B589=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A600:M611">
-    <cfRule type="expression" dxfId="25" priority="33">
+    <cfRule type="expression" dxfId="29" priority="40">
       <formula>$B600=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A612:M633">
-    <cfRule type="expression" dxfId="24" priority="32">
+    <cfRule type="expression" dxfId="28" priority="39">
       <formula>$B612=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A643:M665">
-    <cfRule type="expression" dxfId="23" priority="30">
+    <cfRule type="expression" dxfId="27" priority="37">
       <formula>$B643=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A666:B675">
-    <cfRule type="expression" dxfId="22" priority="29">
+    <cfRule type="expression" dxfId="26" priority="36">
       <formula>$B666=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C666:D675">
-    <cfRule type="expression" dxfId="21" priority="28">
+    <cfRule type="expression" dxfId="25" priority="35">
       <formula>$B666=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E666:J675">
-    <cfRule type="expression" dxfId="20" priority="27">
+    <cfRule type="expression" dxfId="24" priority="34">
       <formula>$B666=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K666:K675">
-    <cfRule type="expression" dxfId="19" priority="26">
+    <cfRule type="expression" dxfId="23" priority="33">
       <formula>$B666=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L666:M675">
-    <cfRule type="expression" dxfId="18" priority="25">
+    <cfRule type="expression" dxfId="22" priority="32">
       <formula>$B666=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A676:B698">
-    <cfRule type="expression" dxfId="17" priority="24">
+    <cfRule type="expression" dxfId="21" priority="31">
       <formula>$B676=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C676:D698">
-    <cfRule type="expression" dxfId="16" priority="23">
+    <cfRule type="expression" dxfId="20" priority="30">
       <formula>$B676=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E676:J698">
-    <cfRule type="expression" dxfId="15" priority="22">
+    <cfRule type="expression" dxfId="19" priority="29">
       <formula>$B676=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K676:K698">
-    <cfRule type="expression" dxfId="14" priority="21">
+    <cfRule type="expression" dxfId="18" priority="28">
       <formula>$B676=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L676:M698">
-    <cfRule type="expression" dxfId="13" priority="20">
+    <cfRule type="expression" dxfId="17" priority="27">
       <formula>$B676=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A699:M713">
-    <cfRule type="expression" dxfId="12" priority="19">
+    <cfRule type="expression" dxfId="16" priority="26">
       <formula>$B699=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A714:M729">
-    <cfRule type="expression" dxfId="11" priority="18">
+    <cfRule type="expression" dxfId="15" priority="25">
       <formula>$B714=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A730:M747">
-    <cfRule type="expression" dxfId="10" priority="17">
+    <cfRule type="expression" dxfId="14" priority="24">
       <formula>$B730=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A748:M768">
-    <cfRule type="expression" dxfId="9" priority="16">
+    <cfRule type="expression" dxfId="13" priority="23">
       <formula>$B748=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A769:M791">
-    <cfRule type="expression" dxfId="8" priority="15">
+    <cfRule type="expression" dxfId="12" priority="22">
       <formula>$B769=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A792:M812">
-    <cfRule type="expression" dxfId="7" priority="14">
+    <cfRule type="expression" dxfId="11" priority="21">
       <formula>$B792=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A813:M835">
-    <cfRule type="expression" dxfId="6" priority="13">
+    <cfRule type="expression" dxfId="10" priority="20">
       <formula>$B813=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A836:M847">
-    <cfRule type="expression" dxfId="5" priority="12">
+    <cfRule type="expression" dxfId="9" priority="19">
       <formula>$B836=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A848:M873">
-    <cfRule type="expression" dxfId="4" priority="11">
+    <cfRule type="expression" dxfId="8" priority="18">
       <formula>$B848=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K874:M878">
-    <cfRule type="expression" dxfId="3" priority="7">
+    <cfRule type="expression" dxfId="7" priority="14">
       <formula>$B874=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A879:M898">
-    <cfRule type="expression" dxfId="2" priority="8">
+    <cfRule type="expression" dxfId="6" priority="15">
       <formula>$B879=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A899:M915">
-    <cfRule type="expression" dxfId="1" priority="6">
+    <cfRule type="expression" dxfId="5" priority="13">
       <formula>$B899=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A949:M964">
-    <cfRule type="expression" dxfId="0" priority="4">
+    <cfRule type="expression" dxfId="4" priority="11">
       <formula>$B949=""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1000:M1010">
+    <cfRule type="expression" dxfId="3" priority="7">
+      <formula>$B1000=""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L1023:M1023">
+    <cfRule type="expression" dxfId="2" priority="4">
+      <formula>$B1023=""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1037:M1061">
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>$B1037=""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1062:M1078">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>$B1062=""</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/scratch/Prop Bets.xlsx
+++ b/scratch/Prop Bets.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kjzk13/Desktop/Fun/Betting/Models/Git/NBA/data_repos/gambling_stuff/scratch/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC7D83F4-9138-DA4A-8768-8604B53ED0CC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93BB922B-8629-044D-97BC-C3273E68840E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16220" xr2:uid="{A921039E-F491-3040-A02B-E90974210F5A}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9958" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10549" uniqueCount="276">
   <si>
     <t>Date</t>
   </si>
@@ -847,6 +847,24 @@
   <si>
     <t>Cole Anthony</t>
   </si>
+  <si>
+    <t>Kyle Anderson</t>
+  </si>
+  <si>
+    <t>Mychal Mulder</t>
+  </si>
+  <si>
+    <t>Armoni Brooks</t>
+  </si>
+  <si>
+    <t>Milwaukee Brewers</t>
+  </si>
+  <si>
+    <t>Ivica Zubac</t>
+  </si>
+  <si>
+    <t>Furkan Korkmaz</t>
+  </si>
 </sst>
 </file>
 
@@ -906,7 +924,12 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="46">
+  <dxfs count="47">
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <color theme="0" tint="-0.499984740745262"/>
@@ -1447,10 +1470,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C79C926B-E4E0-6445-8BE2-2104EE8EA8CE}">
-  <dimension ref="A1:N1078"/>
+  <dimension ref="A1:N1142"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1053" workbookViewId="0">
-      <selection activeCell="N1079" sqref="N1079"/>
+    <sheetView tabSelected="1" topLeftCell="A1112" workbookViewId="0">
+      <selection activeCell="N1143" sqref="N1143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -45090,235 +45113,2830 @@
         <v>1</v>
       </c>
     </row>
+    <row r="1079" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1079" s="3">
+        <v>44309</v>
+      </c>
+      <c r="B1079" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1079" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1079" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1079" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1079" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G1079" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1079" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1079" s="2"/>
+      <c r="J1079" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="K1079" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="L1079" s="2">
+        <v>116</v>
+      </c>
+      <c r="M1079" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="N1079">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1080" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1080" s="3">
+        <v>44309</v>
+      </c>
+      <c r="B1080" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1080" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1080" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1080" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1080" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G1080" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1080" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1080" s="2"/>
+      <c r="J1080" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K1080" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L1080" s="2">
+        <v>110</v>
+      </c>
+      <c r="M1080" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="N1080">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1081" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1081" s="3">
+        <v>44309</v>
+      </c>
+      <c r="B1081" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1081" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1081" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1081" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1081" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G1081" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1081" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1081" s="2"/>
+      <c r="J1081" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K1081" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L1081" s="2">
+        <v>-112.4</v>
+      </c>
+      <c r="M1081" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1081">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1082" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1082" s="3">
+        <v>44309</v>
+      </c>
+      <c r="B1082" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="C1082" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1082" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1082" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1082" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G1082" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1082" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1082" s="2"/>
+      <c r="J1082" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="K1082" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="L1082" s="2">
+        <v>104</v>
+      </c>
+      <c r="M1082" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="N1082">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1083" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1083" s="3">
+        <v>44309</v>
+      </c>
+      <c r="B1083" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C1083" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1083" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1083" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1083" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="G1083" s="2"/>
+      <c r="H1083" s="2"/>
+      <c r="I1083" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1083" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="K1083" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="L1083" s="2">
+        <v>1000</v>
+      </c>
+      <c r="M1083" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1083">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1084" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1084" s="3">
+        <v>44309</v>
+      </c>
+      <c r="B1084" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C1084" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1084" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1084" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1084" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="G1084" s="2"/>
+      <c r="H1084" s="2"/>
+      <c r="I1084" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1084" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="K1084" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L1084" s="2">
+        <v>800</v>
+      </c>
+      <c r="M1084" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1084">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1085" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1085" s="3">
+        <v>44309</v>
+      </c>
+      <c r="B1085" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C1085" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1085" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1085" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1085" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="G1085" s="2"/>
+      <c r="H1085" s="2"/>
+      <c r="I1085" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1085" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="K1085" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="L1085" s="2">
+        <v>1000</v>
+      </c>
+      <c r="M1085" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1085">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1086" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1086" s="3">
+        <v>44309</v>
+      </c>
+      <c r="B1086" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C1086" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1086" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1086" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1086" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="G1086" s="2"/>
+      <c r="H1086" s="2"/>
+      <c r="I1086" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1086" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="K1086" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="L1086" s="2">
+        <v>550</v>
+      </c>
+      <c r="M1086" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1086">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1087" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1087" s="3">
+        <v>44309</v>
+      </c>
+      <c r="B1087" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="C1087" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1087" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1087" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1087" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1087" s="2"/>
+      <c r="H1087" s="2"/>
+      <c r="I1087" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1087" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="K1087" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L1087" s="2">
+        <v>800</v>
+      </c>
+      <c r="M1087" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1087">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1088" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1088" s="3">
+        <v>44309</v>
+      </c>
+      <c r="B1088" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="C1088" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1088" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1088" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1088" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1088" s="2"/>
+      <c r="H1088" s="2"/>
+      <c r="I1088" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1088" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="K1088" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="L1088" s="2">
+        <v>1100</v>
+      </c>
+      <c r="M1088" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1088">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1089" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1089" s="3">
+        <v>44309</v>
+      </c>
+      <c r="B1089" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="C1089" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1089" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1089" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1089" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1089" s="2"/>
+      <c r="H1089" s="2"/>
+      <c r="I1089" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1089" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="K1089" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="L1089" s="2">
+        <v>1300</v>
+      </c>
+      <c r="M1089" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1089">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1090" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1090" s="3">
+        <v>44309</v>
+      </c>
+      <c r="B1090" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="C1090" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1090" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1090" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1090" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1090" s="2"/>
+      <c r="H1090" s="2"/>
+      <c r="I1090" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1090" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="K1090" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="L1090" s="2">
+        <v>600</v>
+      </c>
+      <c r="M1090" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1090">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1091" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1091" s="3">
+        <v>44309</v>
+      </c>
+      <c r="B1091" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="C1091" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1091" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1091" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1091" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1091" s="2"/>
+      <c r="H1091" s="2"/>
+      <c r="I1091" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1091" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="K1091" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="L1091" s="2">
+        <v>900</v>
+      </c>
+      <c r="M1091" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1091">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1092" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1092" s="3">
+        <v>44309</v>
+      </c>
+      <c r="B1092" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1092" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1092" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E1092" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1092" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1092" s="2"/>
+      <c r="H1092" s="2"/>
+      <c r="I1092" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1092" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="K1092" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="L1092" s="2">
+        <v>1050</v>
+      </c>
+      <c r="M1092" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1092">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1093" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1093" s="3">
+        <v>44310</v>
+      </c>
+      <c r="B1093" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C1093" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D1093" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1093" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1093" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G1093" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1093" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1093" s="2"/>
+      <c r="J1093" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="K1093" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L1093" s="2">
+        <v>120</v>
+      </c>
+      <c r="M1093" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1093">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1094" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1094" s="3">
+        <v>44310</v>
+      </c>
+      <c r="B1094" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C1094" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1094" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1094" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1094" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="G1094" s="2"/>
+      <c r="H1094" s="2"/>
+      <c r="I1094" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1094" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="K1094" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="L1094" s="2">
+        <v>550</v>
+      </c>
+      <c r="M1094" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1094">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1095" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1095" s="3">
+        <v>44310</v>
+      </c>
+      <c r="B1095" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C1095" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1095" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1095" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1095" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="G1095" s="2"/>
+      <c r="H1095" s="2"/>
+      <c r="I1095" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1095" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="K1095" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="L1095" s="2">
+        <v>900</v>
+      </c>
+      <c r="M1095" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1095" s="2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="1096" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1096" s="3">
+        <v>44310</v>
+      </c>
+      <c r="B1096" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C1096" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D1096" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1096" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1096" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="G1096" s="2"/>
+      <c r="H1096" s="2"/>
+      <c r="I1096" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1096" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="K1096" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="L1096" s="2">
+        <v>500</v>
+      </c>
+      <c r="M1096" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1096">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="1097" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1097" s="3">
+        <v>44310</v>
+      </c>
+      <c r="B1097" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C1097" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1097" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1097" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1097" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="G1097" s="2"/>
+      <c r="H1097" s="2"/>
+      <c r="I1097" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1097" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="K1097" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="L1097" s="2">
+        <v>1200</v>
+      </c>
+      <c r="M1097" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1097">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1098" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1098" s="3">
+        <v>44310</v>
+      </c>
+      <c r="B1098" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1098" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1098" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1098" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1098" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1098" s="2"/>
+      <c r="H1098" s="2"/>
+      <c r="I1098" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1098" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="K1098" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="L1098" s="2">
+        <v>900</v>
+      </c>
+      <c r="M1098" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1098">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="1099" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1099" s="3">
+        <v>44310</v>
+      </c>
+      <c r="B1099" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1099" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D1099" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1099" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1099" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1099" s="2"/>
+      <c r="H1099" s="2"/>
+      <c r="I1099" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1099" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="K1099" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="L1099" s="2">
+        <v>500</v>
+      </c>
+      <c r="M1099" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1099">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="1100" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1100" s="3">
+        <v>44310</v>
+      </c>
+      <c r="B1100" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="C1100" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1100" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1100" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1100" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1100" s="2"/>
+      <c r="H1100" s="2"/>
+      <c r="I1100" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1100" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="K1100" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="L1100" s="2">
+        <v>650</v>
+      </c>
+      <c r="M1100" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1101" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1101" s="3">
+        <v>44310</v>
+      </c>
+      <c r="B1101" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="C1101" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D1101" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1101" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1101" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1101" s="2"/>
+      <c r="H1101" s="2"/>
+      <c r="I1101" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1101" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="K1101" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="L1101" s="2">
+        <v>1000</v>
+      </c>
+      <c r="M1101" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1102" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1102" s="3">
+        <v>44310</v>
+      </c>
+      <c r="B1102" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="C1102" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1102" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1102" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1102" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1102" s="2"/>
+      <c r="H1102" s="2"/>
+      <c r="I1102" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1102" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="K1102" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="L1102" s="2">
+        <v>600</v>
+      </c>
+      <c r="M1102" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1103" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1103" s="3">
+        <v>44310</v>
+      </c>
+      <c r="B1103" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C1103" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D1103" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1103" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1103" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="G1103" s="2"/>
+      <c r="H1103" s="2"/>
+      <c r="I1103" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1103" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="K1103" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="L1103" s="2">
+        <v>1000</v>
+      </c>
+      <c r="M1103" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1104" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1104" s="3">
+        <v>44311</v>
+      </c>
+      <c r="B1104" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1104" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1104" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1104" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1104" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G1104" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1104" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1104" s="2"/>
+      <c r="J1104" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="K1104" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="L1104" s="2">
+        <v>101</v>
+      </c>
+      <c r="M1104" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="N1104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1105" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1105" s="3">
+        <v>44311</v>
+      </c>
+      <c r="B1105" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1105" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1105" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1105" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1105" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G1105" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1105" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1105" s="2"/>
+      <c r="J1105" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K1105" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L1105" s="2">
+        <v>-117.6</v>
+      </c>
+      <c r="M1105" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1105">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1106" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1106" s="3">
+        <v>44311</v>
+      </c>
+      <c r="B1106" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C1106" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1106" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1106" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1106" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G1106" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1106" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1106" s="2"/>
+      <c r="J1106" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="K1106" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L1106" s="2">
+        <v>112</v>
+      </c>
+      <c r="M1106" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1107" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1107" s="3">
+        <v>44311</v>
+      </c>
+      <c r="B1107" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C1107" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1107" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1107" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1107" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="G1107" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1107" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1107" s="2"/>
+      <c r="J1107" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K1107" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L1107" s="2">
+        <v>100</v>
+      </c>
+      <c r="M1107" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1108" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1108" s="3">
+        <v>44311</v>
+      </c>
+      <c r="B1108" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C1108" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="D1108" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E1108" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1108" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="G1108" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1108" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1108" s="2"/>
+      <c r="J1108" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="K1108" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1108" s="2">
+        <v>122</v>
+      </c>
+      <c r="M1108" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1109" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1109" s="3">
+        <v>44311</v>
+      </c>
+      <c r="B1109" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C1109" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1109" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1109" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1109" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="G1109" s="2"/>
+      <c r="H1109" s="2"/>
+      <c r="I1109" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1109" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="K1109" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="L1109" s="2">
+        <v>750</v>
+      </c>
+      <c r="M1109" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1109">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1110" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1110" s="3">
+        <v>44311</v>
+      </c>
+      <c r="B1110" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C1110" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1110" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1110" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1110" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="G1110" s="2"/>
+      <c r="H1110" s="2"/>
+      <c r="I1110" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1110" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="K1110" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="L1110" s="2">
+        <v>750</v>
+      </c>
+      <c r="M1110" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1110">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="1111" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1111" s="3">
+        <v>44311</v>
+      </c>
+      <c r="B1111" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C1111" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="D1111" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E1111" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1111" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="G1111" s="2"/>
+      <c r="H1111" s="2"/>
+      <c r="I1111" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1111" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="K1111" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="L1111" s="2">
+        <v>900</v>
+      </c>
+      <c r="M1111" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1112" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1112" s="3">
+        <v>44311</v>
+      </c>
+      <c r="B1112" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C1112" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1112" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1112" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1112" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="G1112" s="2"/>
+      <c r="H1112" s="2"/>
+      <c r="I1112" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1112" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="K1112" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="L1112" s="2">
+        <v>1000</v>
+      </c>
+      <c r="M1112" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1113" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1113" s="3">
+        <v>44311</v>
+      </c>
+      <c r="B1113" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C1113" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1113" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1113" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1113" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="G1113" s="2"/>
+      <c r="H1113" s="2"/>
+      <c r="I1113" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1113" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="K1113" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="L1113" s="2">
+        <v>1100</v>
+      </c>
+      <c r="M1113" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1113">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="1114" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1114" s="3">
+        <v>44311</v>
+      </c>
+      <c r="B1114" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1114" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1114" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1114" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1114" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1114" s="2"/>
+      <c r="H1114" s="2"/>
+      <c r="I1114" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1114" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="K1114" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="L1114" s="2">
+        <v>750</v>
+      </c>
+      <c r="M1114" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1114">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="1115" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1115" s="3">
+        <v>44311</v>
+      </c>
+      <c r="B1115" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="C1115" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1115" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1115" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1115" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1115" s="2"/>
+      <c r="H1115" s="2"/>
+      <c r="I1115" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1115" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="K1115" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="L1115" s="2">
+        <v>1100</v>
+      </c>
+      <c r="M1115" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1115">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="1116" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1116" s="3">
+        <v>44311</v>
+      </c>
+      <c r="B1116" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="C1116" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1116" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1116" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1116" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1116" s="2"/>
+      <c r="H1116" s="2"/>
+      <c r="I1116" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1116" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="K1116" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="L1116" s="2">
+        <v>800</v>
+      </c>
+      <c r="M1116" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1116">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1117" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1117" s="3">
+        <v>44311</v>
+      </c>
+      <c r="B1117" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="C1117" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1117" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1117" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1117" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1117" s="2"/>
+      <c r="H1117" s="2"/>
+      <c r="I1117" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1117" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="K1117" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="L1117" s="2">
+        <v>850</v>
+      </c>
+      <c r="M1117" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="N1117">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1118" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1118" s="3">
+        <v>44312</v>
+      </c>
+      <c r="B1118" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1118" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1118" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1118" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1118" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G1118" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1118" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1118" s="2"/>
+      <c r="J1118" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="K1118" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="L1118" s="2">
+        <v>-107.5</v>
+      </c>
+      <c r="M1118" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="N1118">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1119" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1119" s="3">
+        <v>44312</v>
+      </c>
+      <c r="B1119" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C1119" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1119" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E1119" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1119" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G1119" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1119" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1119" s="2"/>
+      <c r="J1119" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="K1119" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L1119" s="2">
+        <v>116</v>
+      </c>
+      <c r="M1119" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1119">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1120" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1120" s="3">
+        <v>44312</v>
+      </c>
+      <c r="B1120" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C1120" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1120" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1120" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1120" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G1120" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1120" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1120" s="2"/>
+      <c r="J1120" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K1120" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L1120" s="2">
+        <v>124</v>
+      </c>
+      <c r="M1120" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1120">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1121" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1121" s="3">
+        <v>44312</v>
+      </c>
+      <c r="B1121" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C1121" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1121" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1121" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1121" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G1121" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1121" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1121" s="2"/>
+      <c r="J1121" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K1121" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L1121" s="2">
+        <v>128</v>
+      </c>
+      <c r="M1121" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="N1121">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1122" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1122" s="3">
+        <v>44312</v>
+      </c>
+      <c r="B1122" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C1122" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1122" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1122" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1122" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G1122" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1122" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1122" s="2"/>
+      <c r="J1122" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K1122" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L1122" s="2">
+        <v>114</v>
+      </c>
+      <c r="M1122" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="N1122">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1123" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1123" s="3">
+        <v>44312</v>
+      </c>
+      <c r="B1123" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1123" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1123" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E1123" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1123" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1123" s="2"/>
+      <c r="H1123" s="2"/>
+      <c r="I1123" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1123" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="K1123" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="L1123" s="2">
+        <v>500</v>
+      </c>
+      <c r="M1123" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1123">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="1124" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1124" s="3">
+        <v>44312</v>
+      </c>
+      <c r="B1124" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1124" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D1124" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1124" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1124" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1124" s="2"/>
+      <c r="H1124" s="2"/>
+      <c r="I1124" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1124" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="K1124" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="L1124" s="2">
+        <v>1000</v>
+      </c>
+      <c r="M1124" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1124">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1125" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1125" s="3">
+        <v>44312</v>
+      </c>
+      <c r="B1125" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1125" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D1125" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1125" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1125" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1125" s="2"/>
+      <c r="H1125" s="2"/>
+      <c r="I1125" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1125" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="K1125" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="L1125" s="2">
+        <v>600</v>
+      </c>
+      <c r="M1125" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1125">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1126" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1126" s="3">
+        <v>44312</v>
+      </c>
+      <c r="B1126" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C1126" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1126" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1126" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1126" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="G1126" s="2"/>
+      <c r="H1126" s="2"/>
+      <c r="I1126" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1126" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="K1126" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="L1126" s="2">
+        <v>950</v>
+      </c>
+      <c r="M1126" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1126">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1127" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1127" s="3">
+        <v>44312</v>
+      </c>
+      <c r="B1127" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C1127" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1127" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E1127" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1127" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="G1127" s="2"/>
+      <c r="H1127" s="2"/>
+      <c r="I1127" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1127" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="K1127" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="L1127" s="2">
+        <v>500</v>
+      </c>
+      <c r="M1127" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1127">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="1128" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1128" s="3">
+        <v>44312</v>
+      </c>
+      <c r="B1128" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C1128" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1128" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1128" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1128" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="G1128" s="2"/>
+      <c r="H1128" s="2"/>
+      <c r="I1128" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1128" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="K1128" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="L1128" s="2">
+        <v>800</v>
+      </c>
+      <c r="M1128" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="N1128">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1129" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1129" s="3">
+        <v>44312</v>
+      </c>
+      <c r="B1129" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C1129" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1129" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1129" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1129" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="G1129" s="2"/>
+      <c r="H1129" s="2"/>
+      <c r="I1129" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1129" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="K1129" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="L1129" s="2">
+        <v>900</v>
+      </c>
+      <c r="M1129" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1129">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1130" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1130" s="3">
+        <v>44312</v>
+      </c>
+      <c r="B1130" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C1130" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1130" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1130" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1130" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="G1130" s="2"/>
+      <c r="H1130" s="2"/>
+      <c r="I1130" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1130" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="K1130" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L1130" s="2">
+        <v>1000</v>
+      </c>
+      <c r="M1130" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1130">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="1131" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1131" s="3">
+        <v>44312</v>
+      </c>
+      <c r="B1131" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="C1131" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1131" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1131" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1131" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1131" s="2"/>
+      <c r="H1131" s="2"/>
+      <c r="I1131" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1131" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="K1131" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L1131" s="2">
+        <v>1000</v>
+      </c>
+      <c r="M1131" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1131">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="1132" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1132" s="3">
+        <v>44312</v>
+      </c>
+      <c r="B1132" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="C1132" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1132" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1132" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1132" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1132" s="2"/>
+      <c r="H1132" s="2"/>
+      <c r="I1132" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1132" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="K1132" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="L1132" s="2">
+        <v>1000</v>
+      </c>
+      <c r="M1132" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1132">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1133" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1133" s="3">
+        <v>44312</v>
+      </c>
+      <c r="B1133" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="C1133" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1133" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1133" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1133" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1133" s="2"/>
+      <c r="H1133" s="2"/>
+      <c r="I1133" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1133" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="K1133" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="L1133" s="2">
+        <v>800</v>
+      </c>
+      <c r="M1133" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1133">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1134" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1134" s="3">
+        <v>44312</v>
+      </c>
+      <c r="B1134" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C1134" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1134" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1134" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1134" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="G1134" s="2"/>
+      <c r="H1134" s="2"/>
+      <c r="I1134" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1134" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="K1134" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="L1134" s="2">
+        <v>900</v>
+      </c>
+      <c r="M1134" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1134">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="1135" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1135" s="3">
+        <v>44312</v>
+      </c>
+      <c r="B1135" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C1135" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1135" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1135" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1135" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="G1135" s="2"/>
+      <c r="H1135" s="2"/>
+      <c r="I1135" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1135" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="K1135" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="L1135" s="2">
+        <v>550</v>
+      </c>
+      <c r="M1135" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1135">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="1136" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1136" s="3">
+        <v>44312</v>
+      </c>
+      <c r="B1136" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="C1136" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1136" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1136" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1136" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1136" s="2"/>
+      <c r="H1136" s="2"/>
+      <c r="I1136" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1136" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="K1136" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="L1136" s="2">
+        <v>550</v>
+      </c>
+      <c r="M1136" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1136">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="1137" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1137" s="3">
+        <v>44312</v>
+      </c>
+      <c r="B1137" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="C1137" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1137" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1137" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1137" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1137" s="2"/>
+      <c r="H1137" s="2"/>
+      <c r="I1137" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1137" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="K1137" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="L1137" s="2">
+        <v>750</v>
+      </c>
+      <c r="M1137" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1137">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1138" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1138" s="3">
+        <v>44312</v>
+      </c>
+      <c r="B1138" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="C1138" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1138" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1138" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1138" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1138" s="2"/>
+      <c r="H1138" s="2"/>
+      <c r="I1138" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1138" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="K1138" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="L1138" s="2">
+        <v>900</v>
+      </c>
+      <c r="M1138" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1138">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="1139" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1139" s="3">
+        <v>44312</v>
+      </c>
+      <c r="B1139" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C1139" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1139" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1139" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1139" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="G1139" s="2"/>
+      <c r="H1139" s="2"/>
+      <c r="I1139" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1139" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="K1139" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="L1139" s="2">
+        <v>1000</v>
+      </c>
+      <c r="M1139" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1139">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="1140" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1140" s="3">
+        <v>44312</v>
+      </c>
+      <c r="B1140" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="C1140" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1140" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1140" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1140" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1140" s="2"/>
+      <c r="H1140" s="2"/>
+      <c r="I1140" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1140" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="K1140" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="L1140" s="2">
+        <v>1000</v>
+      </c>
+      <c r="M1140" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1140" s="2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="1141" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1141" s="3">
+        <v>44312</v>
+      </c>
+      <c r="B1141" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C1141" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1141" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1141" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1141" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="G1141" s="2"/>
+      <c r="H1141" s="2"/>
+      <c r="I1141" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1141" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="K1141" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="L1141" s="2">
+        <v>950</v>
+      </c>
+      <c r="M1141" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="N1141">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1142" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1142" s="3">
+        <v>44312</v>
+      </c>
+      <c r="B1142" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C1142" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1142" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E1142" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1142" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="G1142" s="2"/>
+      <c r="H1142" s="2"/>
+      <c r="I1142" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1142" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="K1142" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="L1142" s="2">
+        <v>950</v>
+      </c>
+      <c r="M1142" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="N1142">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="A634:M642 A874:H878 J874:J878 A916:M948 A965:M999 A1011:K1023 L1011:M1022 A1024:M1036">
-    <cfRule type="expression" dxfId="45" priority="38">
+  <conditionalFormatting sqref="A634:M642 A874:H878 J874:J878 A916:M948 A965:M999 A1011:K1023 L1011:M1022 A1024:M1036 A1079:M1103 N1095 A1118:M1142 N1140">
+    <cfRule type="expression" dxfId="46" priority="42">
       <formula>$B634=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A503:B521">
-    <cfRule type="expression" dxfId="44" priority="55">
+    <cfRule type="expression" dxfId="45" priority="59">
       <formula>$B503=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C503:D521">
-    <cfRule type="expression" dxfId="43" priority="54">
+    <cfRule type="expression" dxfId="44" priority="58">
       <formula>$B503=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E503:I521">
-    <cfRule type="expression" dxfId="42" priority="53">
+    <cfRule type="expression" dxfId="43" priority="57">
       <formula>$B503=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J503:J521">
-    <cfRule type="expression" dxfId="41" priority="52">
+    <cfRule type="expression" dxfId="42" priority="56">
       <formula>$B503=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K503:K521">
-    <cfRule type="expression" dxfId="40" priority="51">
+    <cfRule type="expression" dxfId="41" priority="55">
       <formula>$B503=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L503:M521">
-    <cfRule type="expression" dxfId="39" priority="50">
+    <cfRule type="expression" dxfId="40" priority="54">
       <formula>$B503=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A522:B551">
-    <cfRule type="expression" dxfId="38" priority="49">
+    <cfRule type="expression" dxfId="39" priority="53">
       <formula>$B522=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C522:D551">
-    <cfRule type="expression" dxfId="37" priority="48">
+    <cfRule type="expression" dxfId="38" priority="52">
       <formula>$B522=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E522:I551">
-    <cfRule type="expression" dxfId="36" priority="47">
+    <cfRule type="expression" dxfId="37" priority="51">
       <formula>$B522=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J522:J551">
-    <cfRule type="expression" dxfId="35" priority="46">
+    <cfRule type="expression" dxfId="36" priority="50">
       <formula>$B522=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K522:K551">
-    <cfRule type="expression" dxfId="34" priority="45">
+    <cfRule type="expression" dxfId="35" priority="49">
       <formula>$B522=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L522:M551">
-    <cfRule type="expression" dxfId="33" priority="44">
+    <cfRule type="expression" dxfId="34" priority="48">
       <formula>$B522=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A552:M561">
-    <cfRule type="expression" dxfId="32" priority="43">
+    <cfRule type="expression" dxfId="33" priority="47">
       <formula>$B552=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A562:M588">
-    <cfRule type="expression" dxfId="31" priority="42">
+    <cfRule type="expression" dxfId="32" priority="46">
       <formula>$B562=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A589:M599">
-    <cfRule type="expression" dxfId="30" priority="41">
+    <cfRule type="expression" dxfId="31" priority="45">
       <formula>$B589=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A600:M611">
-    <cfRule type="expression" dxfId="29" priority="40">
+    <cfRule type="expression" dxfId="30" priority="44">
       <formula>$B600=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A612:M633">
-    <cfRule type="expression" dxfId="28" priority="39">
+    <cfRule type="expression" dxfId="29" priority="43">
       <formula>$B612=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A643:M665">
-    <cfRule type="expression" dxfId="27" priority="37">
+    <cfRule type="expression" dxfId="28" priority="41">
       <formula>$B643=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A666:B675">
-    <cfRule type="expression" dxfId="26" priority="36">
+    <cfRule type="expression" dxfId="27" priority="40">
       <formula>$B666=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C666:D675">
-    <cfRule type="expression" dxfId="25" priority="35">
+    <cfRule type="expression" dxfId="26" priority="39">
       <formula>$B666=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E666:J675">
-    <cfRule type="expression" dxfId="24" priority="34">
+    <cfRule type="expression" dxfId="25" priority="38">
       <formula>$B666=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K666:K675">
-    <cfRule type="expression" dxfId="23" priority="33">
+    <cfRule type="expression" dxfId="24" priority="37">
       <formula>$B666=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L666:M675">
-    <cfRule type="expression" dxfId="22" priority="32">
+    <cfRule type="expression" dxfId="23" priority="36">
       <formula>$B666=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A676:B698">
-    <cfRule type="expression" dxfId="21" priority="31">
+    <cfRule type="expression" dxfId="22" priority="35">
       <formula>$B676=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C676:D698">
-    <cfRule type="expression" dxfId="20" priority="30">
+    <cfRule type="expression" dxfId="21" priority="34">
       <formula>$B676=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E676:J698">
-    <cfRule type="expression" dxfId="19" priority="29">
+    <cfRule type="expression" dxfId="20" priority="33">
       <formula>$B676=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K676:K698">
-    <cfRule type="expression" dxfId="18" priority="28">
+    <cfRule type="expression" dxfId="19" priority="32">
       <formula>$B676=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L676:M698">
-    <cfRule type="expression" dxfId="17" priority="27">
+    <cfRule type="expression" dxfId="18" priority="31">
       <formula>$B676=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A699:M713">
-    <cfRule type="expression" dxfId="16" priority="26">
+    <cfRule type="expression" dxfId="17" priority="30">
       <formula>$B699=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A714:M729">
-    <cfRule type="expression" dxfId="15" priority="25">
+    <cfRule type="expression" dxfId="16" priority="29">
       <formula>$B714=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A730:M747">
-    <cfRule type="expression" dxfId="14" priority="24">
+    <cfRule type="expression" dxfId="15" priority="28">
       <formula>$B730=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A748:M768">
-    <cfRule type="expression" dxfId="13" priority="23">
+    <cfRule type="expression" dxfId="14" priority="27">
       <formula>$B748=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A769:M791">
-    <cfRule type="expression" dxfId="12" priority="22">
+    <cfRule type="expression" dxfId="13" priority="26">
       <formula>$B769=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A792:M812">
-    <cfRule type="expression" dxfId="11" priority="21">
+    <cfRule type="expression" dxfId="12" priority="25">
       <formula>$B792=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A813:M835">
-    <cfRule type="expression" dxfId="10" priority="20">
+    <cfRule type="expression" dxfId="11" priority="24">
       <formula>$B813=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A836:M847">
-    <cfRule type="expression" dxfId="9" priority="19">
+    <cfRule type="expression" dxfId="10" priority="23">
       <formula>$B836=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A848:M873">
-    <cfRule type="expression" dxfId="8" priority="18">
+    <cfRule type="expression" dxfId="9" priority="22">
       <formula>$B848=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K874:M878">
-    <cfRule type="expression" dxfId="7" priority="14">
+    <cfRule type="expression" dxfId="8" priority="18">
       <formula>$B874=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A879:M898">
-    <cfRule type="expression" dxfId="6" priority="15">
+    <cfRule type="expression" dxfId="7" priority="19">
       <formula>$B879=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A899:M915">
-    <cfRule type="expression" dxfId="5" priority="13">
+    <cfRule type="expression" dxfId="6" priority="17">
       <formula>$B899=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A949:M964">
-    <cfRule type="expression" dxfId="4" priority="11">
+    <cfRule type="expression" dxfId="5" priority="15">
       <formula>$B949=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1000:M1010">
-    <cfRule type="expression" dxfId="3" priority="7">
+    <cfRule type="expression" dxfId="4" priority="11">
       <formula>$B1000=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L1023:M1023">
-    <cfRule type="expression" dxfId="2" priority="4">
+    <cfRule type="expression" dxfId="3" priority="8">
       <formula>$B1023=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1037:M1061">
-    <cfRule type="expression" dxfId="1" priority="2">
+    <cfRule type="expression" dxfId="2" priority="6">
       <formula>$B1037=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1062:M1078">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="1" priority="5">
       <formula>$B1062=""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1104:M1117">
+    <cfRule type="expression" dxfId="0" priority="2">
+      <formula>$B1104=""</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/scratch/Prop Bets.xlsx
+++ b/scratch/Prop Bets.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kjzk13/Desktop/Fun/Betting/Models/Git/NBA/data_repos/gambling_stuff/scratch/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93BB922B-8629-044D-97BC-C3273E68840E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63B50B54-1DB1-B641-B0F3-425C6349BED6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16220" xr2:uid="{A921039E-F491-3040-A02B-E90974210F5A}"/>
+    <workbookView xWindow="28800" yWindow="-1120" windowWidth="38400" windowHeight="21600" xr2:uid="{A921039E-F491-3040-A02B-E90974210F5A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="13" r:id="rId1"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$N$1176</definedName>
     <definedName name="Pending">#REF!</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10549" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10862" uniqueCount="278">
   <si>
     <t>Date</t>
   </si>
@@ -865,6 +866,12 @@
   <si>
     <t>Furkan Korkmaz</t>
   </si>
+  <si>
+    <t>Chimezie Metu</t>
+  </si>
+  <si>
+    <t>Tremont Waters</t>
+  </si>
 </sst>
 </file>
 
@@ -924,7 +931,17 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="47">
+  <dxfs count="49">
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <color theme="0" tint="-0.499984740745262"/>
@@ -1470,10 +1487,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C79C926B-E4E0-6445-8BE2-2104EE8EA8CE}">
-  <dimension ref="A1:N1142"/>
+  <dimension ref="A1:N1176"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1112" workbookViewId="0">
-      <selection activeCell="N1143" sqref="N1143"/>
+    <sheetView tabSelected="1" topLeftCell="A1144" workbookViewId="0">
+      <selection activeCell="D1176" sqref="D1176"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -46266,7 +46283,7 @@
         <v>5</v>
       </c>
       <c r="F1107" s="2" t="s">
-        <v>137</v>
+        <v>62</v>
       </c>
       <c r="G1107" s="2" t="s">
         <v>9</v>
@@ -46308,7 +46325,7 @@
         <v>5</v>
       </c>
       <c r="F1108" s="2" t="s">
-        <v>137</v>
+        <v>62</v>
       </c>
       <c r="G1108" s="2" t="s">
         <v>9</v>
@@ -47703,240 +47720,1625 @@
         <v>1</v>
       </c>
     </row>
+    <row r="1143" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1143" s="3">
+        <v>44313</v>
+      </c>
+      <c r="B1143" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C1143" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1143" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1143" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1143" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G1143" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1143" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1143" s="2"/>
+      <c r="J1143" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K1143" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L1143" s="2">
+        <v>108</v>
+      </c>
+      <c r="M1143" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="N1143">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1144" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1144" s="3">
+        <v>44313</v>
+      </c>
+      <c r="B1144" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C1144" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1144" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1144" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1144" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G1144" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1144" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1144" s="2"/>
+      <c r="J1144" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K1144" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L1144" s="2">
+        <v>122</v>
+      </c>
+      <c r="M1144" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="N1144">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1145" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1145" s="3">
+        <v>44313</v>
+      </c>
+      <c r="B1145" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1145" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1145" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1145" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1145" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G1145" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1145" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1145" s="2"/>
+      <c r="J1145" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="K1145" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L1145" s="2">
+        <v>-112.4</v>
+      </c>
+      <c r="M1145" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1145">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1146" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1146" s="3">
+        <v>44313</v>
+      </c>
+      <c r="B1146" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C1146" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1146" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1146" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1146" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G1146" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1146" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1146" s="2"/>
+      <c r="J1146" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="K1146" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="L1146" s="2">
+        <v>138</v>
+      </c>
+      <c r="M1146" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="N1146">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1147" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1147" s="3">
+        <v>44313</v>
+      </c>
+      <c r="B1147" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C1147" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1147" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1147" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1147" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="G1147" s="2"/>
+      <c r="H1147" s="2"/>
+      <c r="I1147" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1147" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="K1147" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="L1147" s="2">
+        <v>900</v>
+      </c>
+      <c r="M1147" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1147">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="1148" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1148" s="3">
+        <v>44313</v>
+      </c>
+      <c r="B1148" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C1148" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1148" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1148" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1148" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="G1148" s="2"/>
+      <c r="H1148" s="2"/>
+      <c r="I1148" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1148" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="K1148" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="L1148" s="2">
+        <v>1000</v>
+      </c>
+      <c r="M1148" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="N1148">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1149" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1149" s="3">
+        <v>44313</v>
+      </c>
+      <c r="B1149" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="C1149" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1149" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1149" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1149" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1149" s="2"/>
+      <c r="H1149" s="2"/>
+      <c r="I1149" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1149" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="K1149" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="L1149" s="2">
+        <v>1000</v>
+      </c>
+      <c r="M1149" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1149">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1150" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1150" s="3">
+        <v>44313</v>
+      </c>
+      <c r="B1150" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="C1150" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1150" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1150" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1150" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1150" s="2"/>
+      <c r="H1150" s="2"/>
+      <c r="I1150" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1150" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="K1150" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="L1150" s="2">
+        <v>600</v>
+      </c>
+      <c r="M1150" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1150">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1151" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1151" s="3">
+        <v>44313</v>
+      </c>
+      <c r="B1151" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="C1151" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1151" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1151" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1151" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1151" s="2"/>
+      <c r="H1151" s="2"/>
+      <c r="I1151" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1151" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="K1151" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="L1151" s="2">
+        <v>900</v>
+      </c>
+      <c r="M1151" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1151">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="1152" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1152" s="3">
+        <v>44313</v>
+      </c>
+      <c r="B1152" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="C1152" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1152" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1152" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1152" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1152" s="2"/>
+      <c r="H1152" s="2"/>
+      <c r="I1152" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1152" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="K1152" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="L1152" s="2">
+        <v>900</v>
+      </c>
+      <c r="M1152" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="N1152">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1153" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1153" s="3">
+        <v>44313</v>
+      </c>
+      <c r="B1153" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1153" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D1153" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1153" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1153" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1153" s="2"/>
+      <c r="H1153" s="2"/>
+      <c r="I1153" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1153" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="K1153" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="L1153" s="2">
+        <v>460</v>
+      </c>
+      <c r="M1153" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1153">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1154" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1154" s="3">
+        <v>44314</v>
+      </c>
+      <c r="B1154" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1154" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1154" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1154" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1154" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G1154" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1154" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1154" s="2"/>
+      <c r="J1154" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K1154" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L1154" s="2">
+        <v>-106.4</v>
+      </c>
+      <c r="M1154" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="N1154">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1155" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1155" s="3">
+        <v>44314</v>
+      </c>
+      <c r="B1155" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C1155" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1155" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1155" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1155" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G1155" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1155" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1155" s="2"/>
+      <c r="J1155" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="K1155" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L1155" s="2">
+        <v>120</v>
+      </c>
+      <c r="M1155" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1155">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1156" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1156" s="3">
+        <v>44314</v>
+      </c>
+      <c r="B1156" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="C1156" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1156" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1156" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1156" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G1156" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1156" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1156" s="2"/>
+      <c r="J1156" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1156" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L1156" s="2">
+        <v>-109.9</v>
+      </c>
+      <c r="M1156" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="N1156">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1157" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1157" s="3">
+        <v>44314</v>
+      </c>
+      <c r="B1157" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1157" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1157" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1157" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1157" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1157" s="2"/>
+      <c r="H1157" s="2"/>
+      <c r="I1157" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1157" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="K1157" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="L1157" s="2">
+        <v>900</v>
+      </c>
+      <c r="M1157" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1157">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1158" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1158" s="3">
+        <v>44314</v>
+      </c>
+      <c r="B1158" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1158" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D1158" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1158" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1158" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1158" s="2"/>
+      <c r="H1158" s="2"/>
+      <c r="I1158" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1158" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="K1158" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="L1158" s="2">
+        <v>550</v>
+      </c>
+      <c r="M1158" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1158">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1159" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1159" s="3">
+        <v>44314</v>
+      </c>
+      <c r="B1159" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1159" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1159" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1159" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1159" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1159" s="2"/>
+      <c r="H1159" s="2"/>
+      <c r="I1159" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1159" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="K1159" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="L1159" s="2">
+        <v>1000</v>
+      </c>
+      <c r="M1159" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="N1159">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="1160" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1160" s="3">
+        <v>44314</v>
+      </c>
+      <c r="B1160" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1160" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1160" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1160" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1160" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1160" s="2"/>
+      <c r="H1160" s="2"/>
+      <c r="I1160" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1160" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="K1160" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="L1160" s="2">
+        <v>900</v>
+      </c>
+      <c r="M1160" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1160">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1161" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1161" s="3">
+        <v>44314</v>
+      </c>
+      <c r="B1161" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1161" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1161" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1161" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1161" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1161" s="2"/>
+      <c r="H1161" s="2"/>
+      <c r="I1161" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1161" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="K1161" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="L1161" s="2">
+        <v>500</v>
+      </c>
+      <c r="M1161" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="N1161">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1162" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1162" s="3">
+        <v>44314</v>
+      </c>
+      <c r="B1162" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1162" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1162" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1162" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1162" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1162" s="2"/>
+      <c r="H1162" s="2"/>
+      <c r="I1162" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1162" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="K1162" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="L1162" s="2">
+        <v>600</v>
+      </c>
+      <c r="M1162" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1162">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1163" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1163" s="3">
+        <v>44314</v>
+      </c>
+      <c r="B1163" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C1163" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1163" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1163" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1163" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="G1163" s="2"/>
+      <c r="H1163" s="2"/>
+      <c r="I1163" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1163" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="K1163" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L1163" s="2">
+        <v>900</v>
+      </c>
+      <c r="M1163" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1163">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="1164" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1164" s="3">
+        <v>44314</v>
+      </c>
+      <c r="B1164" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C1164" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1164" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1164" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1164" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="G1164" s="2"/>
+      <c r="H1164" s="2"/>
+      <c r="I1164" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1164" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="K1164" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="L1164" s="2">
+        <v>900</v>
+      </c>
+      <c r="M1164" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1164">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="1165" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1165" s="3">
+        <v>44314</v>
+      </c>
+      <c r="B1165" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C1165" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1165" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1165" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1165" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="G1165" s="2"/>
+      <c r="H1165" s="2"/>
+      <c r="I1165" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1165" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="K1165" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="L1165" s="2">
+        <v>1200</v>
+      </c>
+      <c r="M1165" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1165">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1166" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1166" s="3">
+        <v>44314</v>
+      </c>
+      <c r="B1166" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C1166" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1166" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1166" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1166" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="G1166" s="2"/>
+      <c r="H1166" s="2"/>
+      <c r="I1166" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1166" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="K1166" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="L1166" s="2">
+        <v>1000</v>
+      </c>
+      <c r="M1166" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1166">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="1167" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1167" s="3">
+        <v>44314</v>
+      </c>
+      <c r="B1167" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C1167" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1167" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1167" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1167" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="G1167" s="2"/>
+      <c r="H1167" s="2"/>
+      <c r="I1167" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1167" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="K1167" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="L1167" s="2">
+        <v>1000</v>
+      </c>
+      <c r="M1167" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="N1167">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="1168" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1168" s="3">
+        <v>44314</v>
+      </c>
+      <c r="B1168" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C1168" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1168" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1168" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1168" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="G1168" s="2"/>
+      <c r="H1168" s="2"/>
+      <c r="I1168" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1168" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="K1168" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="L1168" s="2">
+        <v>750</v>
+      </c>
+      <c r="M1168" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1168">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="1169" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1169" s="3">
+        <v>44314</v>
+      </c>
+      <c r="B1169" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="C1169" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1169" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1169" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1169" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1169" s="2"/>
+      <c r="H1169" s="2"/>
+      <c r="I1169" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1169" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="K1169" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="L1169" s="2">
+        <v>900</v>
+      </c>
+      <c r="M1169" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1169">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="1170" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1170" s="3">
+        <v>44314</v>
+      </c>
+      <c r="B1170" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="C1170" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1170" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1170" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1170" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1170" s="2"/>
+      <c r="H1170" s="2"/>
+      <c r="I1170" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1170" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="K1170" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L1170" s="2">
+        <v>900</v>
+      </c>
+      <c r="M1170" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1170">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="1171" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1171" s="3">
+        <v>44314</v>
+      </c>
+      <c r="B1171" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="C1171" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1171" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1171" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1171" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1171" s="2"/>
+      <c r="H1171" s="2"/>
+      <c r="I1171" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1171" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="K1171" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="L1171" s="2">
+        <v>800</v>
+      </c>
+      <c r="M1171" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1171">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1172" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1172" s="3">
+        <v>44314</v>
+      </c>
+      <c r="B1172" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="C1172" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1172" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1172" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1172" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1172" s="2"/>
+      <c r="H1172" s="2"/>
+      <c r="I1172" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1172" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="K1172" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="L1172" s="2">
+        <v>1000</v>
+      </c>
+      <c r="M1172" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1172">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="1173" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1173" s="3">
+        <v>44314</v>
+      </c>
+      <c r="B1173" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="C1173" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1173" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1173" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1173" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1173" s="2"/>
+      <c r="H1173" s="2"/>
+      <c r="I1173" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1173" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="K1173" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="L1173" s="2">
+        <v>750</v>
+      </c>
+      <c r="M1173" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1173">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="1174" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1174" s="3">
+        <v>44314</v>
+      </c>
+      <c r="B1174" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C1174" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1174" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1174" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1174" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="G1174" s="2"/>
+      <c r="H1174" s="2"/>
+      <c r="I1174" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1174" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="K1174" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="L1174" s="2">
+        <v>900</v>
+      </c>
+      <c r="M1174" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1174">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="1175" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1175" s="3">
+        <v>44314</v>
+      </c>
+      <c r="B1175" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="C1175" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1175" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1175" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1175" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1175" s="2"/>
+      <c r="H1175" s="2"/>
+      <c r="I1175" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1175" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="K1175" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="L1175" s="2">
+        <v>900</v>
+      </c>
+      <c r="M1175" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="N1175">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="1176" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1176" s="3">
+        <v>44314</v>
+      </c>
+      <c r="B1176" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1176" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1176" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1176" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1176" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1176" s="2"/>
+      <c r="H1176" s="2"/>
+      <c r="I1176" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1176" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="K1176" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="L1176" s="2">
+        <v>700</v>
+      </c>
+      <c r="M1176" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1176">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
+  <autoFilter ref="A1:N1176" xr:uid="{D9DA4A53-0950-BF46-87A1-1C9C0384F4A7}"/>
   <conditionalFormatting sqref="A634:M642 A874:H878 J874:J878 A916:M948 A965:M999 A1011:K1023 L1011:M1022 A1024:M1036 A1079:M1103 N1095 A1118:M1142 N1140">
-    <cfRule type="expression" dxfId="46" priority="42">
+    <cfRule type="expression" dxfId="48" priority="44">
       <formula>$B634=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A503:B521">
+    <cfRule type="expression" dxfId="47" priority="61">
+      <formula>$B503=""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C503:D521">
+    <cfRule type="expression" dxfId="46" priority="60">
+      <formula>$B503=""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E503:I521">
     <cfRule type="expression" dxfId="45" priority="59">
       <formula>$B503=""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C503:D521">
+  <conditionalFormatting sqref="J503:J521">
     <cfRule type="expression" dxfId="44" priority="58">
       <formula>$B503=""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E503:I521">
+  <conditionalFormatting sqref="K503:K521">
     <cfRule type="expression" dxfId="43" priority="57">
       <formula>$B503=""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J503:J521">
+  <conditionalFormatting sqref="L503:M521">
     <cfRule type="expression" dxfId="42" priority="56">
       <formula>$B503=""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K503:K521">
+  <conditionalFormatting sqref="A522:B551">
     <cfRule type="expression" dxfId="41" priority="55">
-      <formula>$B503=""</formula>
+      <formula>$B522=""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L503:M521">
+  <conditionalFormatting sqref="C522:D551">
     <cfRule type="expression" dxfId="40" priority="54">
-      <formula>$B503=""</formula>
+      <formula>$B522=""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A522:B551">
+  <conditionalFormatting sqref="E522:I551">
     <cfRule type="expression" dxfId="39" priority="53">
       <formula>$B522=""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C522:D551">
+  <conditionalFormatting sqref="J522:J551">
     <cfRule type="expression" dxfId="38" priority="52">
       <formula>$B522=""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E522:I551">
+  <conditionalFormatting sqref="K522:K551">
     <cfRule type="expression" dxfId="37" priority="51">
       <formula>$B522=""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J522:J551">
+  <conditionalFormatting sqref="L522:M551">
     <cfRule type="expression" dxfId="36" priority="50">
       <formula>$B522=""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K522:K551">
+  <conditionalFormatting sqref="A552:M561">
     <cfRule type="expression" dxfId="35" priority="49">
-      <formula>$B522=""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L522:M551">
-    <cfRule type="expression" dxfId="34" priority="48">
-      <formula>$B522=""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A552:M561">
-    <cfRule type="expression" dxfId="33" priority="47">
       <formula>$B552=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A562:M588">
-    <cfRule type="expression" dxfId="32" priority="46">
+    <cfRule type="expression" dxfId="34" priority="48">
       <formula>$B562=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A589:M599">
-    <cfRule type="expression" dxfId="31" priority="45">
+    <cfRule type="expression" dxfId="33" priority="47">
       <formula>$B589=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A600:M611">
-    <cfRule type="expression" dxfId="30" priority="44">
+    <cfRule type="expression" dxfId="32" priority="46">
       <formula>$B600=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A612:M633">
-    <cfRule type="expression" dxfId="29" priority="43">
+    <cfRule type="expression" dxfId="31" priority="45">
       <formula>$B612=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A643:M665">
-    <cfRule type="expression" dxfId="28" priority="41">
+    <cfRule type="expression" dxfId="30" priority="43">
       <formula>$B643=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A666:B675">
+    <cfRule type="expression" dxfId="29" priority="42">
+      <formula>$B666=""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C666:D675">
+    <cfRule type="expression" dxfId="28" priority="41">
+      <formula>$B666=""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E666:J675">
     <cfRule type="expression" dxfId="27" priority="40">
       <formula>$B666=""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C666:D675">
+  <conditionalFormatting sqref="K666:K675">
     <cfRule type="expression" dxfId="26" priority="39">
       <formula>$B666=""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E666:J675">
+  <conditionalFormatting sqref="L666:M675">
     <cfRule type="expression" dxfId="25" priority="38">
       <formula>$B666=""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K666:K675">
+  <conditionalFormatting sqref="A676:B698">
     <cfRule type="expression" dxfId="24" priority="37">
-      <formula>$B666=""</formula>
+      <formula>$B676=""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L666:M675">
+  <conditionalFormatting sqref="C676:D698">
     <cfRule type="expression" dxfId="23" priority="36">
-      <formula>$B666=""</formula>
+      <formula>$B676=""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A676:B698">
+  <conditionalFormatting sqref="E676:J698">
     <cfRule type="expression" dxfId="22" priority="35">
       <formula>$B676=""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C676:D698">
+  <conditionalFormatting sqref="K676:K698">
     <cfRule type="expression" dxfId="21" priority="34">
       <formula>$B676=""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E676:J698">
+  <conditionalFormatting sqref="L676:M698">
     <cfRule type="expression" dxfId="20" priority="33">
       <formula>$B676=""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K676:K698">
+  <conditionalFormatting sqref="A699:M713">
     <cfRule type="expression" dxfId="19" priority="32">
-      <formula>$B676=""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L676:M698">
-    <cfRule type="expression" dxfId="18" priority="31">
-      <formula>$B676=""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A699:M713">
-    <cfRule type="expression" dxfId="17" priority="30">
       <formula>$B699=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A714:M729">
-    <cfRule type="expression" dxfId="16" priority="29">
+    <cfRule type="expression" dxfId="18" priority="31">
       <formula>$B714=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A730:M747">
-    <cfRule type="expression" dxfId="15" priority="28">
+    <cfRule type="expression" dxfId="17" priority="30">
       <formula>$B730=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A748:M768">
-    <cfRule type="expression" dxfId="14" priority="27">
+    <cfRule type="expression" dxfId="16" priority="29">
       <formula>$B748=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A769:M791">
-    <cfRule type="expression" dxfId="13" priority="26">
+    <cfRule type="expression" dxfId="15" priority="28">
       <formula>$B769=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A792:M812">
-    <cfRule type="expression" dxfId="12" priority="25">
+    <cfRule type="expression" dxfId="14" priority="27">
       <formula>$B792=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A813:M835">
-    <cfRule type="expression" dxfId="11" priority="24">
+    <cfRule type="expression" dxfId="13" priority="26">
       <formula>$B813=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A836:M847">
-    <cfRule type="expression" dxfId="10" priority="23">
+    <cfRule type="expression" dxfId="12" priority="25">
       <formula>$B836=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A848:M873">
-    <cfRule type="expression" dxfId="9" priority="22">
+    <cfRule type="expression" dxfId="11" priority="24">
       <formula>$B848=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K874:M878">
-    <cfRule type="expression" dxfId="8" priority="18">
+    <cfRule type="expression" dxfId="10" priority="20">
       <formula>$B874=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A879:M898">
-    <cfRule type="expression" dxfId="7" priority="19">
+    <cfRule type="expression" dxfId="9" priority="21">
       <formula>$B879=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A899:M915">
-    <cfRule type="expression" dxfId="6" priority="17">
+    <cfRule type="expression" dxfId="8" priority="19">
       <formula>$B899=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A949:M964">
-    <cfRule type="expression" dxfId="5" priority="15">
+    <cfRule type="expression" dxfId="7" priority="17">
       <formula>$B949=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1000:M1010">
-    <cfRule type="expression" dxfId="4" priority="11">
+    <cfRule type="expression" dxfId="6" priority="13">
       <formula>$B1000=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L1023:M1023">
-    <cfRule type="expression" dxfId="3" priority="8">
+    <cfRule type="expression" dxfId="5" priority="10">
       <formula>$B1023=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1037:M1061">
-    <cfRule type="expression" dxfId="2" priority="6">
+    <cfRule type="expression" dxfId="4" priority="8">
       <formula>$B1037=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1062:M1078">
-    <cfRule type="expression" dxfId="1" priority="5">
+    <cfRule type="expression" dxfId="3" priority="7">
       <formula>$B1062=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1104:M1117">
-    <cfRule type="expression" dxfId="0" priority="2">
+    <cfRule type="expression" dxfId="2" priority="4">
       <formula>$B1104=""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1143:M1153">
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>$B1143=""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1154:M1176">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>$B1154=""</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/scratch/Prop Bets.xlsx
+++ b/scratch/Prop Bets.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kjzk13/Desktop/Fun/Betting/Models/Git/NBA/data_repos/gambling_stuff/scratch/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63B50B54-1DB1-B641-B0F3-425C6349BED6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1FC6EE0-048D-234E-B5A4-FEA8E4426E6F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="-1120" windowWidth="38400" windowHeight="21600" xr2:uid="{A921039E-F491-3040-A02B-E90974210F5A}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{A921039E-F491-3040-A02B-E90974210F5A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="13" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10862" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11779" uniqueCount="288">
   <si>
     <t>Date</t>
   </si>
@@ -872,6 +872,36 @@
   <si>
     <t>Tremont Waters</t>
   </si>
+  <si>
+    <t>Killian Hayes</t>
+  </si>
+  <si>
+    <t>Khem Birch</t>
+  </si>
+  <si>
+    <t>Marvin Bagley</t>
+  </si>
+  <si>
+    <t>Joe Ingles</t>
+  </si>
+  <si>
+    <t>Sekou Doumbouya</t>
+  </si>
+  <si>
+    <t>Kevin Porter Jr</t>
+  </si>
+  <si>
+    <t>Oshae Brissett</t>
+  </si>
+  <si>
+    <t>George Niang</t>
+  </si>
+  <si>
+    <t>Kenyon Martin Jr</t>
+  </si>
+  <si>
+    <t>Cedi Osman</t>
+  </si>
 </sst>
 </file>
 
@@ -931,7 +961,57 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="49">
+  <dxfs count="59">
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <color theme="0" tint="-0.499984740745262"/>
@@ -1487,10 +1567,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C79C926B-E4E0-6445-8BE2-2104EE8EA8CE}">
-  <dimension ref="A1:N1176"/>
+  <dimension ref="A1:N1275"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1144" workbookViewId="0">
-      <selection activeCell="D1176" sqref="D1176"/>
+    <sheetView tabSelected="1" topLeftCell="A1247" workbookViewId="0">
+      <selection activeCell="N1276" sqref="N1276"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -49094,251 +49174,4313 @@
         <v>1</v>
       </c>
     </row>
+    <row r="1177" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1177" s="3">
+        <v>44315</v>
+      </c>
+      <c r="B1177" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C1177" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1177" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1177" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1177" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G1177" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1177" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1177" s="2"/>
+      <c r="J1177" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="K1177" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L1177" s="2">
+        <v>112</v>
+      </c>
+      <c r="M1177" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1177">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1178" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1178" s="3">
+        <v>44315</v>
+      </c>
+      <c r="B1178" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C1178" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1178" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1178" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1178" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G1178" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1178" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1178" s="2"/>
+      <c r="J1178" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="K1178" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1178" s="2">
+        <v>140</v>
+      </c>
+      <c r="M1178" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1178">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1179" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1179" s="3">
+        <v>44315</v>
+      </c>
+      <c r="B1179" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C1179" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1179" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E1179" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1179" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G1179" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1179" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1179" s="2"/>
+      <c r="J1179" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="K1179" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="L1179" s="2">
+        <v>-104</v>
+      </c>
+      <c r="M1179" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1179">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1180" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1180" s="3">
+        <v>44315</v>
+      </c>
+      <c r="B1180" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C1180" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1180" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1180" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1180" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G1180" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1180" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1180" s="2"/>
+      <c r="J1180" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K1180" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1180" s="2">
+        <v>122</v>
+      </c>
+      <c r="M1180" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1180">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1181" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1181" s="3">
+        <v>44315</v>
+      </c>
+      <c r="B1181" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C1181" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1181" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1181" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1181" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="G1181" s="2"/>
+      <c r="H1181" s="2"/>
+      <c r="I1181" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1181" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="K1181" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="L1181" s="2">
+        <v>700</v>
+      </c>
+      <c r="M1181" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1181">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="1182" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1182" s="3">
+        <v>44315</v>
+      </c>
+      <c r="B1182" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C1182" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1182" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1182" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1182" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="G1182" s="2"/>
+      <c r="H1182" s="2"/>
+      <c r="I1182" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1182" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="K1182" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="L1182" s="2">
+        <v>1100</v>
+      </c>
+      <c r="M1182" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1182">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="1183" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1183" s="3">
+        <v>44315</v>
+      </c>
+      <c r="B1183" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C1183" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1183" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E1183" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1183" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="G1183" s="2"/>
+      <c r="H1183" s="2"/>
+      <c r="I1183" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1183" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="K1183" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="L1183" s="2">
+        <v>450</v>
+      </c>
+      <c r="M1183" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1183">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="1184" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1184" s="3">
+        <v>44315</v>
+      </c>
+      <c r="B1184" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C1184" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1184" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1184" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1184" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="G1184" s="2"/>
+      <c r="H1184" s="2"/>
+      <c r="I1184" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1184" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="K1184" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="L1184" s="2">
+        <v>900</v>
+      </c>
+      <c r="M1184" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1184">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1185" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1185" s="3">
+        <v>44315</v>
+      </c>
+      <c r="B1185" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1185" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1185" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1185" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1185" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1185" s="2"/>
+      <c r="H1185" s="2"/>
+      <c r="I1185" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1185" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="K1185" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="L1185" s="2">
+        <v>800</v>
+      </c>
+      <c r="M1185" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1185">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1186" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1186" s="3">
+        <v>44315</v>
+      </c>
+      <c r="B1186" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1186" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1186" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1186" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1186" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1186" s="2"/>
+      <c r="H1186" s="2"/>
+      <c r="I1186" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1186" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="K1186" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="L1186" s="2">
+        <v>1400</v>
+      </c>
+      <c r="M1186" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1186">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1187" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1187" s="3">
+        <v>44315</v>
+      </c>
+      <c r="B1187" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="C1187" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1187" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1187" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1187" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1187" s="2"/>
+      <c r="H1187" s="2"/>
+      <c r="I1187" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1187" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="K1187" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="L1187" s="2">
+        <v>1100</v>
+      </c>
+      <c r="M1187" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1187">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="1188" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1188" s="3">
+        <v>44315</v>
+      </c>
+      <c r="B1188" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="C1188" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1188" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1188" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1188" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1188" s="2"/>
+      <c r="H1188" s="2"/>
+      <c r="I1188" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1188" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="K1188" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="L1188" s="2">
+        <v>600</v>
+      </c>
+      <c r="M1188" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1188">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1189" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1189" s="3">
+        <v>44315</v>
+      </c>
+      <c r="B1189" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="C1189" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1189" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1189" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1189" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1189" s="2"/>
+      <c r="H1189" s="2"/>
+      <c r="I1189" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1189" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="K1189" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="L1189" s="2">
+        <v>700</v>
+      </c>
+      <c r="M1189" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1189">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="1190" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1190" s="3">
+        <v>44315</v>
+      </c>
+      <c r="B1190" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="C1190" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1190" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E1190" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1190" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1190" s="2"/>
+      <c r="H1190" s="2"/>
+      <c r="I1190" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1190" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="K1190" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="L1190" s="2">
+        <v>450</v>
+      </c>
+      <c r="M1190" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1190">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="1191" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1191" s="3">
+        <v>44315</v>
+      </c>
+      <c r="B1191" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="C1191" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1191" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1191" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1191" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1191" s="2"/>
+      <c r="H1191" s="2"/>
+      <c r="I1191" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1191" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="K1191" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="L1191" s="2">
+        <v>900</v>
+      </c>
+      <c r="M1191" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1191">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1192" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1192" s="3">
+        <v>44315</v>
+      </c>
+      <c r="B1192" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C1192" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1192" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1192" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1192" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="G1192" s="2"/>
+      <c r="H1192" s="2"/>
+      <c r="I1192" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1192" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="K1192" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="L1192" s="2">
+        <v>420</v>
+      </c>
+      <c r="M1192" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1192">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1193" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1193" s="3">
+        <v>44316</v>
+      </c>
+      <c r="B1193" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C1193" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1193" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1193" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1193" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G1193" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1193" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1193" s="2"/>
+      <c r="J1193" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="K1193" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L1193" s="2">
+        <v>126</v>
+      </c>
+      <c r="M1193" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1193">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1194" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1194" s="3">
+        <v>44316</v>
+      </c>
+      <c r="B1194" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C1194" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1194" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1194" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1194" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G1194" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1194" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1194" s="2"/>
+      <c r="J1194" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K1194" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L1194" s="2">
+        <v>110</v>
+      </c>
+      <c r="M1194" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1194">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1195" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1195" s="3">
+        <v>44316</v>
+      </c>
+      <c r="B1195" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="C1195" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1195" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E1195" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1195" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G1195" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1195" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1195" s="2"/>
+      <c r="J1195" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K1195" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="L1195" s="2">
+        <v>123</v>
+      </c>
+      <c r="M1195" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1195">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1196" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1196" s="3">
+        <v>44316</v>
+      </c>
+      <c r="B1196" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C1196" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1196" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1196" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1196" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="G1196" s="2"/>
+      <c r="H1196" s="2"/>
+      <c r="I1196" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1196" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="K1196" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="L1196" s="2">
+        <v>800</v>
+      </c>
+      <c r="M1196" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1196">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="1197" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1197" s="3">
+        <v>44316</v>
+      </c>
+      <c r="B1197" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C1197" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1197" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E1197" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1197" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="G1197" s="2"/>
+      <c r="H1197" s="2"/>
+      <c r="I1197" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1197" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="K1197" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="L1197" s="2">
+        <v>800</v>
+      </c>
+      <c r="M1197" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1197">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1198" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1198" s="3">
+        <v>44316</v>
+      </c>
+      <c r="B1198" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C1198" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1198" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1198" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1198" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="G1198" s="2"/>
+      <c r="H1198" s="2"/>
+      <c r="I1198" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1198" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="K1198" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="L1198" s="2">
+        <v>900</v>
+      </c>
+      <c r="M1198" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="N1198">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1199" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1199" s="3">
+        <v>44316</v>
+      </c>
+      <c r="B1199" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="C1199" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1199" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1199" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1199" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1199" s="2"/>
+      <c r="H1199" s="2"/>
+      <c r="I1199" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1199" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="K1199" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="L1199" s="2">
+        <v>900</v>
+      </c>
+      <c r="M1199" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1199">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1200" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1200" s="3">
+        <v>44316</v>
+      </c>
+      <c r="B1200" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="C1200" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1200" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1200" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1200" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1200" s="2"/>
+      <c r="H1200" s="2"/>
+      <c r="I1200" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1200" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="K1200" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="L1200" s="2">
+        <v>900</v>
+      </c>
+      <c r="M1200" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1200">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1201" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1201" s="3">
+        <v>44316</v>
+      </c>
+      <c r="B1201" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="C1201" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1201" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1201" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1201" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1201" s="2"/>
+      <c r="H1201" s="2"/>
+      <c r="I1201" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1201" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="K1201" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="L1201" s="2">
+        <v>800</v>
+      </c>
+      <c r="M1201" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1201">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="1202" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1202" s="3">
+        <v>44316</v>
+      </c>
+      <c r="B1202" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C1202" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1202" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1202" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1202" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="G1202" s="2"/>
+      <c r="H1202" s="2"/>
+      <c r="I1202" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1202" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="K1202" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L1202" s="2">
+        <v>1200</v>
+      </c>
+      <c r="M1202" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1202">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1203" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1203" s="3">
+        <v>44316</v>
+      </c>
+      <c r="B1203" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C1203" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1203" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1203" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1203" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="G1203" s="2"/>
+      <c r="H1203" s="2"/>
+      <c r="I1203" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1203" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K1203" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L1203" s="2">
+        <v>750</v>
+      </c>
+      <c r="M1203" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="N1203">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1204" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1204" s="3">
+        <v>44316</v>
+      </c>
+      <c r="B1204" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C1204" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1204" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1204" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1204" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="G1204" s="2"/>
+      <c r="H1204" s="2"/>
+      <c r="I1204" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1204" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="K1204" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="L1204" s="2">
+        <v>900</v>
+      </c>
+      <c r="M1204" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1204">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="1205" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1205" s="3">
+        <v>44316</v>
+      </c>
+      <c r="B1205" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="C1205" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1205" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1205" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1205" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1205" s="2"/>
+      <c r="H1205" s="2"/>
+      <c r="I1205" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1205" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="K1205" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="L1205" s="2">
+        <v>900</v>
+      </c>
+      <c r="M1205" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1205">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="1206" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1206" s="3">
+        <v>44317</v>
+      </c>
+      <c r="B1206" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1206" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1206" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1206" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1206" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G1206" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1206" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1206" s="2"/>
+      <c r="J1206" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="K1206" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="L1206" s="2">
+        <v>104</v>
+      </c>
+      <c r="M1206" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1206">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1207" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1207" s="3">
+        <v>44317</v>
+      </c>
+      <c r="B1207" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1207" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1207" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1207" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1207" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G1207" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1207" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1207" s="2"/>
+      <c r="J1207" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="K1207" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L1207" s="2">
+        <v>-102</v>
+      </c>
+      <c r="M1207" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1207">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1208" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1208" s="3">
+        <v>44317</v>
+      </c>
+      <c r="B1208" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1208" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1208" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1208" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1208" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G1208" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1208" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1208" s="2"/>
+      <c r="J1208" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K1208" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L1208" s="2">
+        <v>112</v>
+      </c>
+      <c r="M1208" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="N1208">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1209" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1209" s="3">
+        <v>44317</v>
+      </c>
+      <c r="B1209" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1209" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1209" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E1209" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1209" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G1209" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1209" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1209" s="2"/>
+      <c r="J1209" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="K1209" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1209" s="2">
+        <v>-106.4</v>
+      </c>
+      <c r="M1209" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1209">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1210" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1210" s="3">
+        <v>44317</v>
+      </c>
+      <c r="B1210" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C1210" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1210" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1210" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1210" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="G1210" s="2"/>
+      <c r="H1210" s="2"/>
+      <c r="I1210" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1210" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="K1210" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="L1210" s="2">
+        <v>750</v>
+      </c>
+      <c r="M1210" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="N1210">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="1211" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1211" s="3">
+        <v>44317</v>
+      </c>
+      <c r="B1211" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C1211" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1211" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1211" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1211" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="G1211" s="2"/>
+      <c r="H1211" s="2"/>
+      <c r="I1211" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1211" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="K1211" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="L1211" s="2">
+        <v>1200</v>
+      </c>
+      <c r="M1211" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1211">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="1212" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1212" s="3">
+        <v>44317</v>
+      </c>
+      <c r="B1212" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C1212" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1212" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1212" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1212" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="G1212" s="2"/>
+      <c r="H1212" s="2"/>
+      <c r="I1212" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1212" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="K1212" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="L1212" s="2">
+        <v>900</v>
+      </c>
+      <c r="M1212" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1212">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="1213" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1213" s="3">
+        <v>44317</v>
+      </c>
+      <c r="B1213" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="C1213" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D1213" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1213" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1213" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1213" s="2"/>
+      <c r="H1213" s="2"/>
+      <c r="I1213" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1213" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="K1213" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="L1213" s="2">
+        <v>700</v>
+      </c>
+      <c r="M1213" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="N1213">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1214" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1214" s="3">
+        <v>44317</v>
+      </c>
+      <c r="B1214" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="C1214" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1214" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1214" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1214" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1214" s="2"/>
+      <c r="H1214" s="2"/>
+      <c r="I1214" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1214" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K1214" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="L1214" s="2">
+        <v>900</v>
+      </c>
+      <c r="M1214" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1214">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1215" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1215" s="3">
+        <v>44317</v>
+      </c>
+      <c r="B1215" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="C1215" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1215" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1215" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1215" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1215" s="2"/>
+      <c r="H1215" s="2"/>
+      <c r="I1215" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1215" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="K1215" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="L1215" s="2">
+        <v>900</v>
+      </c>
+      <c r="M1215" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1215">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="1216" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1216" s="3">
+        <v>44317</v>
+      </c>
+      <c r="B1216" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1216" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1216" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1216" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1216" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1216" s="2"/>
+      <c r="H1216" s="2"/>
+      <c r="I1216" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1216" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="K1216" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="L1216" s="2">
+        <v>750</v>
+      </c>
+      <c r="M1216" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="N1216">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="1217" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1217" s="3">
+        <v>44317</v>
+      </c>
+      <c r="B1217" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1217" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1217" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1217" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1217" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1217" s="2"/>
+      <c r="H1217" s="2"/>
+      <c r="I1217" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1217" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="K1217" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="L1217" s="2">
+        <v>900</v>
+      </c>
+      <c r="M1217" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1217">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1218" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1218" s="3">
+        <v>44317</v>
+      </c>
+      <c r="B1218" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1218" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1218" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E1218" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1218" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1218" s="2"/>
+      <c r="H1218" s="2"/>
+      <c r="I1218" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1218" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="K1218" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="L1218" s="2">
+        <v>480</v>
+      </c>
+      <c r="M1218" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1218">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1219" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1219" s="3">
+        <v>44317</v>
+      </c>
+      <c r="B1219" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1219" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1219" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1219" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1219" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1219" s="2"/>
+      <c r="H1219" s="2"/>
+      <c r="I1219" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1219" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="K1219" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="L1219" s="2">
+        <v>1200</v>
+      </c>
+      <c r="M1219" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1219">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="1220" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1220" s="3">
+        <v>44318</v>
+      </c>
+      <c r="B1220" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1220" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1220" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1220" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1220" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G1220" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1220" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1220" s="2"/>
+      <c r="J1220" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K1220" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1220" s="2">
+        <v>-119.1</v>
+      </c>
+      <c r="M1220" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="N1220">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1221" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1221" s="3">
+        <v>44318</v>
+      </c>
+      <c r="B1221" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1221" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D1221" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1221" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1221" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G1221" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1221" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1221" s="2"/>
+      <c r="J1221" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="K1221" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="L1221" s="2">
+        <v>120</v>
+      </c>
+      <c r="M1221" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="N1221">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1222" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1222" s="3">
+        <v>44318</v>
+      </c>
+      <c r="B1222" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1222" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1222" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1222" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1222" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G1222" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1222" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1222" s="2"/>
+      <c r="J1222" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K1222" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L1222" s="2">
+        <v>104</v>
+      </c>
+      <c r="M1222" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="N1222">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1223" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1223" s="3">
+        <v>44318</v>
+      </c>
+      <c r="B1223" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C1223" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1223" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1223" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1223" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G1223" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1223" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1223" s="2"/>
+      <c r="J1223" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K1223" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L1223" s="2">
+        <v>130</v>
+      </c>
+      <c r="M1223" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1223">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1224" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1224" s="3">
+        <v>44318</v>
+      </c>
+      <c r="B1224" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1224" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1224" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1224" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1224" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1224" s="2"/>
+      <c r="H1224" s="2"/>
+      <c r="I1224" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1224" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="K1224" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="L1224" s="2">
+        <v>1000</v>
+      </c>
+      <c r="M1224" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1224">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1225" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1225" s="3">
+        <v>44318</v>
+      </c>
+      <c r="B1225" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="C1225" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1225" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1225" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1225" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1225" s="2"/>
+      <c r="H1225" s="2"/>
+      <c r="I1225" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1225" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="K1225" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="L1225" s="2">
+        <v>800</v>
+      </c>
+      <c r="M1225" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1225">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1226" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1226" s="3">
+        <v>44318</v>
+      </c>
+      <c r="B1226" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="C1226" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1226" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1226" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1226" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1226" s="2"/>
+      <c r="H1226" s="2"/>
+      <c r="I1226" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1226" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="K1226" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="L1226" s="2">
+        <v>1000</v>
+      </c>
+      <c r="M1226" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1226">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1227" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1227" s="3">
+        <v>44318</v>
+      </c>
+      <c r="B1227" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="C1227" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D1227" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1227" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1227" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1227" s="2"/>
+      <c r="H1227" s="2"/>
+      <c r="I1227" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1227" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="K1227" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="L1227" s="2">
+        <v>1100</v>
+      </c>
+      <c r="M1227" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1227">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="1228" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1228" s="3">
+        <v>44318</v>
+      </c>
+      <c r="B1228" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="C1228" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1228" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1228" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1228" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1228" s="2"/>
+      <c r="H1228" s="2"/>
+      <c r="I1228" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1228" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="K1228" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="L1228" s="2">
+        <v>600</v>
+      </c>
+      <c r="M1228" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1228">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1229" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1229" s="3">
+        <v>44318</v>
+      </c>
+      <c r="B1229" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="C1229" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1229" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1229" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1229" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1229" s="2"/>
+      <c r="H1229" s="2"/>
+      <c r="I1229" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1229" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="K1229" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="L1229" s="2">
+        <v>700</v>
+      </c>
+      <c r="M1229" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="N1229">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1230" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1230" s="3">
+        <v>44318</v>
+      </c>
+      <c r="B1230" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="C1230" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D1230" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1230" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1230" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1230" s="2"/>
+      <c r="H1230" s="2"/>
+      <c r="I1230" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1230" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="K1230" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="L1230" s="2">
+        <v>650</v>
+      </c>
+      <c r="M1230" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1230">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="1231" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1231" s="3">
+        <v>44318</v>
+      </c>
+      <c r="B1231" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C1231" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D1231" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1231" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1231" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="G1231" s="2"/>
+      <c r="H1231" s="2"/>
+      <c r="I1231" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1231" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="K1231" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="L1231" s="2">
+        <v>650</v>
+      </c>
+      <c r="M1231" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1231">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="1232" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1232" s="3">
+        <v>44318</v>
+      </c>
+      <c r="B1232" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C1232" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D1232" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1232" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1232" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="G1232" s="2"/>
+      <c r="H1232" s="2"/>
+      <c r="I1232" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1232" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="K1232" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="L1232" s="2">
+        <v>1100</v>
+      </c>
+      <c r="M1232" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1232">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="1233" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1233" s="3">
+        <v>44318</v>
+      </c>
+      <c r="B1233" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C1233" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1233" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1233" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1233" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="G1233" s="2"/>
+      <c r="H1233" s="2"/>
+      <c r="I1233" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1233" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="K1233" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="L1233" s="2">
+        <v>900</v>
+      </c>
+      <c r="M1233" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="N1233">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="1234" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1234" s="3">
+        <v>44318</v>
+      </c>
+      <c r="B1234" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="C1234" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1234" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1234" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1234" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1234" s="2"/>
+      <c r="H1234" s="2"/>
+      <c r="I1234" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1234" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="K1234" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="L1234" s="2">
+        <v>900</v>
+      </c>
+      <c r="M1234" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="N1234">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="1235" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1235" s="3">
+        <v>44319</v>
+      </c>
+      <c r="B1235" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C1235" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1235" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1235" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1235" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G1235" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1235" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1235" s="2"/>
+      <c r="J1235" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K1235" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L1235" s="2">
+        <v>122</v>
+      </c>
+      <c r="M1235" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1235">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1236" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1236" s="3">
+        <v>44319</v>
+      </c>
+      <c r="B1236" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1236" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1236" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1236" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1236" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G1236" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1236" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1236" s="2"/>
+      <c r="J1236" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K1236" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="L1236" s="2">
+        <v>-105.3</v>
+      </c>
+      <c r="M1236" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1236">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1237" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1237" s="3">
+        <v>44319</v>
+      </c>
+      <c r="B1237" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1237" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1237" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E1237" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1237" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G1237" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1237" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1237" s="2"/>
+      <c r="J1237" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K1237" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1237" s="2">
+        <v>-105.3</v>
+      </c>
+      <c r="M1237" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1237">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1238" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1238" s="3">
+        <v>44319</v>
+      </c>
+      <c r="B1238" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1238" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1238" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1238" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1238" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G1238" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1238" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1238" s="2"/>
+      <c r="J1238" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="K1238" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="L1238" s="2">
+        <v>105</v>
+      </c>
+      <c r="M1238" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="N1238">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1239" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1239" s="3">
+        <v>44319</v>
+      </c>
+      <c r="B1239" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1239" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1239" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1239" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1239" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1239" s="2"/>
+      <c r="H1239" s="2"/>
+      <c r="I1239" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1239" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="K1239" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="L1239" s="2">
+        <v>450</v>
+      </c>
+      <c r="M1239" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1239">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1240" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1240" s="3">
+        <v>44319</v>
+      </c>
+      <c r="B1240" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C1240" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1240" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1240" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1240" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="G1240" s="2"/>
+      <c r="H1240" s="2"/>
+      <c r="I1240" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1240" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="K1240" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="L1240" s="2">
+        <v>700</v>
+      </c>
+      <c r="M1240" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1240">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="1241" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1241" s="3">
+        <v>44319</v>
+      </c>
+      <c r="B1241" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C1241" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1241" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1241" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1241" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="G1241" s="2"/>
+      <c r="H1241" s="2"/>
+      <c r="I1241" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1241" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="K1241" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="L1241" s="2">
+        <v>1000</v>
+      </c>
+      <c r="M1241" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="N1241">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="1242" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1242" s="3">
+        <v>44319</v>
+      </c>
+      <c r="B1242" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C1242" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1242" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1242" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1242" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="G1242" s="2"/>
+      <c r="H1242" s="2"/>
+      <c r="I1242" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1242" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="K1242" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="L1242" s="2">
+        <v>1200</v>
+      </c>
+      <c r="M1242" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1242">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="1243" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1243" s="3">
+        <v>44319</v>
+      </c>
+      <c r="B1243" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="C1243" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1243" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1243" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1243" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1243" s="2"/>
+      <c r="H1243" s="2"/>
+      <c r="I1243" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1243" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="K1243" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="L1243" s="2">
+        <v>900</v>
+      </c>
+      <c r="M1243" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1243">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1244" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1244" s="3">
+        <v>44319</v>
+      </c>
+      <c r="B1244" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="C1244" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1244" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1244" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1244" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1244" s="2"/>
+      <c r="H1244" s="2"/>
+      <c r="I1244" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1244" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="K1244" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="L1244" s="2">
+        <v>650</v>
+      </c>
+      <c r="M1244" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1244">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1245" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1245" s="3">
+        <v>44319</v>
+      </c>
+      <c r="B1245" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="C1245" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1245" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1245" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1245" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1245" s="2"/>
+      <c r="H1245" s="2"/>
+      <c r="I1245" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1245" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="K1245" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="L1245" s="2">
+        <v>1200</v>
+      </c>
+      <c r="M1245" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1245">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="1246" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1246" s="3">
+        <v>44319</v>
+      </c>
+      <c r="B1246" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="C1246" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1246" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1246" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1246" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1246" s="2"/>
+      <c r="H1246" s="2"/>
+      <c r="I1246" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1246" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="K1246" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="L1246" s="2">
+        <v>1000</v>
+      </c>
+      <c r="M1246" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="N1246">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="1247" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1247" s="3">
+        <v>44319</v>
+      </c>
+      <c r="B1247" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="C1247" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1247" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1247" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1247" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1247" s="2"/>
+      <c r="H1247" s="2"/>
+      <c r="I1247" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1247" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="K1247" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="L1247" s="2">
+        <v>700</v>
+      </c>
+      <c r="M1247" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1247">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="1248" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1248" s="3">
+        <v>44319</v>
+      </c>
+      <c r="B1248" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="C1248" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1248" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1248" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1248" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1248" s="2"/>
+      <c r="H1248" s="2"/>
+      <c r="I1248" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1248" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="K1248" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="L1248" s="2">
+        <v>1000</v>
+      </c>
+      <c r="M1248" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1248">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1249" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1249" s="3">
+        <v>44319</v>
+      </c>
+      <c r="B1249" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C1249" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1249" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1249" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1249" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="G1249" s="2"/>
+      <c r="H1249" s="2"/>
+      <c r="I1249" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1249" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="K1249" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="L1249" s="2">
+        <v>700</v>
+      </c>
+      <c r="M1249" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1249">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1250" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1250" s="3">
+        <v>44320</v>
+      </c>
+      <c r="B1250" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C1250" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1250" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1250" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1250" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G1250" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1250" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1250" s="2"/>
+      <c r="J1250" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="K1250" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="L1250" s="2">
+        <v>-102</v>
+      </c>
+      <c r="M1250" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1250">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1251" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1251" s="3">
+        <v>44320</v>
+      </c>
+      <c r="B1251" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C1251" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1251" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1251" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1251" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G1251" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1251" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1251" s="2"/>
+      <c r="J1251" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="K1251" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="L1251" s="2">
+        <v>104</v>
+      </c>
+      <c r="M1251" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1251">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1252" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1252" s="3">
+        <v>44320</v>
+      </c>
+      <c r="B1252" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C1252" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1252" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1252" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1252" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G1252" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1252" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1252" s="2"/>
+      <c r="J1252" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K1252" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1252" s="2">
+        <v>-102</v>
+      </c>
+      <c r="M1252" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="N1252">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1253" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1253" s="3">
+        <v>44320</v>
+      </c>
+      <c r="B1253" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1253" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1253" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1253" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1253" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1253" s="2"/>
+      <c r="H1253" s="2"/>
+      <c r="I1253" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1253" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="K1253" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="L1253" s="2">
+        <v>800</v>
+      </c>
+      <c r="M1253" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1253">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="1254" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1254" s="3">
+        <v>44320</v>
+      </c>
+      <c r="B1254" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C1254" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1254" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1254" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1254" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="G1254" s="2"/>
+      <c r="H1254" s="2"/>
+      <c r="I1254" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1254" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="K1254" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="L1254" s="2">
+        <v>800</v>
+      </c>
+      <c r="M1254" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1254">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="1255" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1255" s="3">
+        <v>44320</v>
+      </c>
+      <c r="B1255" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C1255" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1255" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1255" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1255" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="G1255" s="2"/>
+      <c r="H1255" s="2"/>
+      <c r="I1255" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1255" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="K1255" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="L1255" s="2">
+        <v>600</v>
+      </c>
+      <c r="M1255" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1255">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="1256" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1256" s="3">
+        <v>44320</v>
+      </c>
+      <c r="B1256" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="C1256" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1256" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1256" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1256" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1256" s="2"/>
+      <c r="H1256" s="2"/>
+      <c r="I1256" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1256" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="K1256" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="L1256" s="2">
+        <v>900</v>
+      </c>
+      <c r="M1256" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1256">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1257" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1257" s="3">
+        <v>44320</v>
+      </c>
+      <c r="B1257" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="C1257" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1257" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1257" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1257" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1257" s="2"/>
+      <c r="H1257" s="2"/>
+      <c r="I1257" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1257" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K1257" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="L1257" s="2">
+        <v>900</v>
+      </c>
+      <c r="M1257" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1257">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1258" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1258" s="3">
+        <v>44320</v>
+      </c>
+      <c r="B1258" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="C1258" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1258" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1258" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1258" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1258" s="2"/>
+      <c r="H1258" s="2"/>
+      <c r="I1258" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1258" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="K1258" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="L1258" s="2">
+        <v>600</v>
+      </c>
+      <c r="M1258" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1258">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="1259" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1259" s="3">
+        <v>44320</v>
+      </c>
+      <c r="B1259" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="C1259" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1259" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1259" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1259" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1259" s="2"/>
+      <c r="H1259" s="2"/>
+      <c r="I1259" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1259" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="K1259" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="L1259" s="2">
+        <v>700</v>
+      </c>
+      <c r="M1259" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1259">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1260" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1260" s="3">
+        <v>44320</v>
+      </c>
+      <c r="B1260" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1260" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1260" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1260" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1260" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1260" s="2"/>
+      <c r="H1260" s="2"/>
+      <c r="I1260" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1260" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="K1260" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="L1260" s="2">
+        <v>850</v>
+      </c>
+      <c r="M1260" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="N1260">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1261" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1261" s="3">
+        <v>44320</v>
+      </c>
+      <c r="B1261" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="C1261" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1261" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1261" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1261" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1261" s="2"/>
+      <c r="H1261" s="2"/>
+      <c r="I1261" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1261" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="K1261" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="L1261" s="2">
+        <v>750</v>
+      </c>
+      <c r="M1261" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1261">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1262" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1262" s="3">
+        <v>44321</v>
+      </c>
+      <c r="B1262" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C1262" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1262" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1262" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1262" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G1262" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1262" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1262" s="2"/>
+      <c r="J1262" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K1262" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L1262" s="2">
+        <v>120</v>
+      </c>
+      <c r="M1262" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1262">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1263" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1263" s="3">
+        <v>44321</v>
+      </c>
+      <c r="B1263" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C1263" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1263" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1263" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1263" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G1263" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1263" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1263" s="2"/>
+      <c r="J1263" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="K1263" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="L1263" s="2">
+        <v>124</v>
+      </c>
+      <c r="M1263" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="N1263">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1264" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1264" s="3">
+        <v>44321</v>
+      </c>
+      <c r="B1264" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C1264" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1264" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1264" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1264" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G1264" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1264" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1264" s="2"/>
+      <c r="J1264" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="K1264" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="L1264" s="2">
+        <v>108</v>
+      </c>
+      <c r="M1264" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="N1264">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1265" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1265" s="3">
+        <v>44321</v>
+      </c>
+      <c r="B1265" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1265" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1265" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E1265" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1265" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G1265" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1265" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1265" s="2"/>
+      <c r="J1265" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="K1265" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1265" s="2">
+        <v>-107.5</v>
+      </c>
+      <c r="M1265" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="N1265">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1266" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1266" s="3">
+        <v>44321</v>
+      </c>
+      <c r="B1266" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1266" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1266" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E1266" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1266" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1266" s="2"/>
+      <c r="H1266" s="2"/>
+      <c r="I1266" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1266" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="K1266" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="L1266" s="2">
+        <v>470</v>
+      </c>
+      <c r="M1266" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1266">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1267" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1267" s="3">
+        <v>44321</v>
+      </c>
+      <c r="B1267" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C1267" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D1267" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1267" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1267" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="G1267" s="2"/>
+      <c r="H1267" s="2"/>
+      <c r="I1267" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1267" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="K1267" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="L1267" s="2">
+        <v>900</v>
+      </c>
+      <c r="M1267" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1267">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="1268" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1268" s="3">
+        <v>44321</v>
+      </c>
+      <c r="B1268" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="C1268" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1268" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E1268" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1268" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1268" s="2"/>
+      <c r="H1268" s="2"/>
+      <c r="I1268" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1268" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="K1268" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="L1268" s="2">
+        <v>800</v>
+      </c>
+      <c r="M1268" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1268">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1269" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1269" s="3">
+        <v>44321</v>
+      </c>
+      <c r="B1269" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="C1269" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1269" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1269" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1269" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1269" s="2"/>
+      <c r="H1269" s="2"/>
+      <c r="I1269" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1269" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="K1269" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="L1269" s="2">
+        <v>650</v>
+      </c>
+      <c r="M1269" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1269">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1270" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1270" s="3">
+        <v>44321</v>
+      </c>
+      <c r="B1270" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="C1270" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D1270" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1270" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1270" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1270" s="2"/>
+      <c r="H1270" s="2"/>
+      <c r="I1270" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1270" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="K1270" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="L1270" s="2">
+        <v>900</v>
+      </c>
+      <c r="M1270" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1270">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="1271" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1271" s="3">
+        <v>44321</v>
+      </c>
+      <c r="B1271" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="C1271" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1271" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1271" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1271" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1271" s="2"/>
+      <c r="H1271" s="2"/>
+      <c r="I1271" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1271" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="K1271" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="L1271" s="2">
+        <v>1000</v>
+      </c>
+      <c r="M1271" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1271">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1272" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1272" s="3">
+        <v>44321</v>
+      </c>
+      <c r="B1272" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1272" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1272" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1272" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1272" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1272" s="2"/>
+      <c r="H1272" s="2"/>
+      <c r="I1272" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1272" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="K1272" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="L1272" s="2">
+        <v>900</v>
+      </c>
+      <c r="M1272" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1272">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1273" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1273" s="3">
+        <v>44321</v>
+      </c>
+      <c r="B1273" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1273" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1273" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1273" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1273" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1273" s="2"/>
+      <c r="H1273" s="2"/>
+      <c r="I1273" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1273" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="K1273" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="L1273" s="2">
+        <v>900</v>
+      </c>
+      <c r="M1273" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1273">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1274" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1274" s="3">
+        <v>44321</v>
+      </c>
+      <c r="B1274" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="C1274" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1274" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1274" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1274" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1274" s="2"/>
+      <c r="H1274" s="2"/>
+      <c r="I1274" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1274" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="K1274" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="L1274" s="2">
+        <v>1000</v>
+      </c>
+      <c r="M1274" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1274">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1275" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1275" s="3">
+        <v>44321</v>
+      </c>
+      <c r="B1275" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C1275" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1275" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1275" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1275" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="G1275" s="2"/>
+      <c r="H1275" s="2"/>
+      <c r="I1275" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1275" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="K1275" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="L1275" s="2">
+        <v>1200</v>
+      </c>
+      <c r="M1275" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1275">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:N1176" xr:uid="{D9DA4A53-0950-BF46-87A1-1C9C0384F4A7}"/>
-  <conditionalFormatting sqref="A634:M642 A874:H878 J874:J878 A916:M948 A965:M999 A1011:K1023 L1011:M1022 A1024:M1036 A1079:M1103 N1095 A1118:M1142 N1140">
-    <cfRule type="expression" dxfId="48" priority="44">
+  <conditionalFormatting sqref="A634:M642 A874:H878 J874:J878 A916:M948 A965:M999 A1011:K1023 L1011:M1022 A1024:M1036 A1079:M1103 N1095 A1118:M1142 N1140 A1235:M1249">
+    <cfRule type="expression" dxfId="58" priority="55">
       <formula>$B634=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A503:B521">
-    <cfRule type="expression" dxfId="47" priority="61">
+    <cfRule type="expression" dxfId="57" priority="72">
       <formula>$B503=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C503:D521">
-    <cfRule type="expression" dxfId="46" priority="60">
+    <cfRule type="expression" dxfId="56" priority="71">
       <formula>$B503=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E503:I521">
-    <cfRule type="expression" dxfId="45" priority="59">
+    <cfRule type="expression" dxfId="55" priority="70">
       <formula>$B503=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J503:J521">
-    <cfRule type="expression" dxfId="44" priority="58">
+    <cfRule type="expression" dxfId="54" priority="69">
       <formula>$B503=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K503:K521">
-    <cfRule type="expression" dxfId="43" priority="57">
+    <cfRule type="expression" dxfId="53" priority="68">
       <formula>$B503=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L503:M521">
-    <cfRule type="expression" dxfId="42" priority="56">
+    <cfRule type="expression" dxfId="52" priority="67">
       <formula>$B503=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A522:B551">
-    <cfRule type="expression" dxfId="41" priority="55">
+    <cfRule type="expression" dxfId="51" priority="66">
       <formula>$B522=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C522:D551">
-    <cfRule type="expression" dxfId="40" priority="54">
+    <cfRule type="expression" dxfId="50" priority="65">
       <formula>$B522=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E522:I551">
-    <cfRule type="expression" dxfId="39" priority="53">
+    <cfRule type="expression" dxfId="49" priority="64">
       <formula>$B522=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J522:J551">
-    <cfRule type="expression" dxfId="38" priority="52">
+    <cfRule type="expression" dxfId="48" priority="63">
       <formula>$B522=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K522:K551">
-    <cfRule type="expression" dxfId="37" priority="51">
+    <cfRule type="expression" dxfId="47" priority="62">
       <formula>$B522=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L522:M551">
-    <cfRule type="expression" dxfId="36" priority="50">
+    <cfRule type="expression" dxfId="46" priority="61">
       <formula>$B522=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A552:M561">
-    <cfRule type="expression" dxfId="35" priority="49">
+    <cfRule type="expression" dxfId="45" priority="60">
       <formula>$B552=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A562:M588">
-    <cfRule type="expression" dxfId="34" priority="48">
+    <cfRule type="expression" dxfId="44" priority="59">
       <formula>$B562=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A589:M599">
-    <cfRule type="expression" dxfId="33" priority="47">
+    <cfRule type="expression" dxfId="43" priority="58">
       <formula>$B589=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A600:M611">
-    <cfRule type="expression" dxfId="32" priority="46">
+    <cfRule type="expression" dxfId="42" priority="57">
       <formula>$B600=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A612:M633">
-    <cfRule type="expression" dxfId="31" priority="45">
+    <cfRule type="expression" dxfId="41" priority="56">
       <formula>$B612=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A643:M665">
-    <cfRule type="expression" dxfId="30" priority="43">
+    <cfRule type="expression" dxfId="40" priority="54">
       <formula>$B643=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A666:B675">
-    <cfRule type="expression" dxfId="29" priority="42">
+    <cfRule type="expression" dxfId="39" priority="53">
       <formula>$B666=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C666:D675">
-    <cfRule type="expression" dxfId="28" priority="41">
+    <cfRule type="expression" dxfId="38" priority="52">
       <formula>$B666=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E666:J675">
-    <cfRule type="expression" dxfId="27" priority="40">
+    <cfRule type="expression" dxfId="37" priority="51">
       <formula>$B666=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K666:K675">
-    <cfRule type="expression" dxfId="26" priority="39">
+    <cfRule type="expression" dxfId="36" priority="50">
       <formula>$B666=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L666:M675">
-    <cfRule type="expression" dxfId="25" priority="38">
+    <cfRule type="expression" dxfId="35" priority="49">
       <formula>$B666=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A676:B698">
-    <cfRule type="expression" dxfId="24" priority="37">
+    <cfRule type="expression" dxfId="34" priority="48">
       <formula>$B676=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C676:D698">
-    <cfRule type="expression" dxfId="23" priority="36">
+    <cfRule type="expression" dxfId="33" priority="47">
       <formula>$B676=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E676:J698">
-    <cfRule type="expression" dxfId="22" priority="35">
+    <cfRule type="expression" dxfId="32" priority="46">
       <formula>$B676=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K676:K698">
-    <cfRule type="expression" dxfId="21" priority="34">
+    <cfRule type="expression" dxfId="31" priority="45">
       <formula>$B676=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L676:M698">
-    <cfRule type="expression" dxfId="20" priority="33">
+    <cfRule type="expression" dxfId="30" priority="44">
       <formula>$B676=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A699:M713">
-    <cfRule type="expression" dxfId="19" priority="32">
+    <cfRule type="expression" dxfId="29" priority="43">
       <formula>$B699=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A714:M729">
-    <cfRule type="expression" dxfId="18" priority="31">
+    <cfRule type="expression" dxfId="28" priority="42">
       <formula>$B714=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A730:M747">
-    <cfRule type="expression" dxfId="17" priority="30">
+    <cfRule type="expression" dxfId="27" priority="41">
       <formula>$B730=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A748:M768">
-    <cfRule type="expression" dxfId="16" priority="29">
+    <cfRule type="expression" dxfId="26" priority="40">
       <formula>$B748=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A769:M791">
-    <cfRule type="expression" dxfId="15" priority="28">
+    <cfRule type="expression" dxfId="25" priority="39">
       <formula>$B769=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A792:M812">
-    <cfRule type="expression" dxfId="14" priority="27">
+    <cfRule type="expression" dxfId="24" priority="38">
       <formula>$B792=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A813:M835">
-    <cfRule type="expression" dxfId="13" priority="26">
+    <cfRule type="expression" dxfId="23" priority="37">
       <formula>$B813=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A836:M847">
-    <cfRule type="expression" dxfId="12" priority="25">
+    <cfRule type="expression" dxfId="22" priority="36">
       <formula>$B836=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A848:M873">
-    <cfRule type="expression" dxfId="11" priority="24">
+    <cfRule type="expression" dxfId="21" priority="35">
       <formula>$B848=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K874:M878">
-    <cfRule type="expression" dxfId="10" priority="20">
+    <cfRule type="expression" dxfId="20" priority="31">
       <formula>$B874=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A879:M898">
-    <cfRule type="expression" dxfId="9" priority="21">
+    <cfRule type="expression" dxfId="19" priority="32">
       <formula>$B879=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A899:M915">
-    <cfRule type="expression" dxfId="8" priority="19">
+    <cfRule type="expression" dxfId="18" priority="30">
       <formula>$B899=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A949:M964">
-    <cfRule type="expression" dxfId="7" priority="17">
+    <cfRule type="expression" dxfId="17" priority="28">
       <formula>$B949=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1000:M1010">
-    <cfRule type="expression" dxfId="6" priority="13">
+    <cfRule type="expression" dxfId="16" priority="24">
       <formula>$B1000=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L1023:M1023">
-    <cfRule type="expression" dxfId="5" priority="10">
+    <cfRule type="expression" dxfId="15" priority="21">
       <formula>$B1023=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1037:M1061">
-    <cfRule type="expression" dxfId="4" priority="8">
+    <cfRule type="expression" dxfId="14" priority="19">
       <formula>$B1037=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1062:M1078">
-    <cfRule type="expression" dxfId="3" priority="7">
+    <cfRule type="expression" dxfId="13" priority="18">
       <formula>$B1062=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1104:M1117">
-    <cfRule type="expression" dxfId="2" priority="4">
+    <cfRule type="expression" dxfId="12" priority="15">
       <formula>$B1104=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1143:M1153">
-    <cfRule type="expression" dxfId="1" priority="2">
+    <cfRule type="expression" dxfId="11" priority="13">
       <formula>$B1143=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1154:M1176">
+    <cfRule type="expression" dxfId="10" priority="12">
+      <formula>$B1154=""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1177:M1192">
+    <cfRule type="expression" dxfId="9" priority="11">
+      <formula>$B1177=""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1193:M1205">
+    <cfRule type="expression" dxfId="8" priority="10">
+      <formula>$B1193=""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1203">
+    <cfRule type="expression" dxfId="7" priority="9">
+      <formula>$B1203=""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1204">
+    <cfRule type="expression" dxfId="6" priority="8">
+      <formula>$B1204=""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1205">
+    <cfRule type="expression" dxfId="5" priority="7">
+      <formula>$B1205=""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1206:M1209">
+    <cfRule type="expression" dxfId="4" priority="6">
+      <formula>$B1206=""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1210:M1219">
+    <cfRule type="expression" dxfId="3" priority="5">
+      <formula>$B1210=""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1220:M1234">
+    <cfRule type="expression" dxfId="2" priority="4">
+      <formula>$B1220=""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1250:M1261">
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>$B1250=""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1262:M1275">
     <cfRule type="expression" dxfId="0" priority="1">
-      <formula>$B1154=""</formula>
+      <formula>$B1262=""</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
